--- a/Projet Active .xlsx
+++ b/Projet Active .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Documents\4 Formation CDA\2 Exercice Prof\2 ECF 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C201ADF-0A23-4D03-87EC-5AA6FB5EF028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C98165-22A3-4CFF-939A-E65DFB388FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ED01" sheetId="2" r:id="rId1"/>
@@ -503,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{2A061AA6-E3B8-442F-B77D-8065DB8F78F0}">
+    <comment ref="A42" authorId="0" shapeId="0" xr:uid="{2A061AA6-E3B8-442F-B77D-8065DB8F78F0}">
       <text>
         <r>
           <rPr>
@@ -527,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{29CBC9EF-A5CE-4BDE-8770-1383A1EED837}">
+    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{29CBC9EF-A5CE-4BDE-8770-1383A1EED837}">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{50B5C1F5-A003-4AB6-AC6A-FF63DFE4F6C7}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{50B5C1F5-A003-4AB6-AC6A-FF63DFE4F6C7}">
       <text>
         <r>
           <rPr>
@@ -574,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{5BE6096E-1CFE-4775-87C3-E8F68A3200E0}">
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{5BE6096E-1CFE-4775-87C3-E8F68A3200E0}">
       <text>
         <r>
           <rPr>
@@ -598,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{FD0F259F-5C50-40D9-AB07-3A249E6EBAC1}">
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{FD0F259F-5C50-40D9-AB07-3A249E6EBAC1}">
       <text>
         <r>
           <rPr>
@@ -622,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{A8B2166F-2CC6-4D4C-B722-AA774939C0C1}">
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{A8B2166F-2CC6-4D4C-B722-AA774939C0C1}">
       <text>
         <r>
           <rPr>
@@ -646,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A82" authorId="0" shapeId="0" xr:uid="{0DE047FD-7C2E-4586-887A-52FDE5F79748}">
+    <comment ref="A83" authorId="0" shapeId="0" xr:uid="{0DE047FD-7C2E-4586-887A-52FDE5F79748}">
       <text>
         <r>
           <rPr>
@@ -759,7 +759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="317">
   <si>
     <t>type de données</t>
   </si>
@@ -1058,9 +1058,6 @@
     <t>Use case</t>
   </si>
   <si>
-    <t>Collaborateur associer</t>
-  </si>
-  <si>
     <t>forfait</t>
   </si>
   <si>
@@ -1118,9 +1115,6 @@
     <t>texte 500</t>
   </si>
   <si>
-    <t>Documentation Projet</t>
-  </si>
-  <si>
     <t>6 n</t>
   </si>
   <si>
@@ -1233,9 +1227,6 @@
   </si>
   <si>
     <t>nom</t>
-  </si>
-  <si>
-    <t>fonction</t>
   </si>
   <si>
     <t>commentaire commerciaux</t>
@@ -1936,9 +1927,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Domain d'application spécifique du projet </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2243,9 +2231,6 @@
       </rPr>
       <t xml:space="preserve"> de celle-ci </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Intervention collaborateur </t>
   </si>
   <si>
     <r>
@@ -3342,9 +3327,6 @@
     <t>Domain (type société)</t>
   </si>
   <si>
-    <t>CONTRAT : relation</t>
-  </si>
-  <si>
     <t>assisantance</t>
   </si>
   <si>
@@ -3367,6 +3349,39 @@
   </si>
   <si>
     <t xml:space="preserve">auteur </t>
+  </si>
+  <si>
+    <t>PER_DOCMENTATION</t>
+  </si>
+  <si>
+    <t>maticule</t>
+  </si>
+  <si>
+    <t>typeIntervention</t>
+  </si>
+  <si>
+    <t>dateIntervention</t>
+  </si>
+  <si>
+    <t>PER_CONTRAT_TYPE</t>
+  </si>
+  <si>
+    <t>PERSO_COLLABORATION : relation</t>
+  </si>
+  <si>
+    <t>dateFonction</t>
+  </si>
+  <si>
+    <t>fonction (relation)</t>
+  </si>
+  <si>
+    <t>Domain d'application spécifique du projet (TECHNO)</t>
+  </si>
+  <si>
+    <t>Intervention collaborateur ( entité )</t>
+  </si>
+  <si>
+    <t>retour d'expérience (dans étape )</t>
   </si>
 </sst>
 </file>
@@ -3462,7 +3477,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3526,6 +3541,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4070,7 +4091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4132,689 +4153,749 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="39" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4823,35 +4904,6 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -5140,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FE0FAB-9E98-47D7-A836-A5D2B83CA8C9}">
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5151,74 +5203,75 @@
     <col min="3" max="3" width="21.21875" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="11.5546875" style="25"/>
     <col min="12" max="12" width="12.6640625" style="25" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="25"/>
+    <col min="13" max="13" width="16.33203125" style="25" customWidth="1"/>
+    <col min="14" max="16384" width="11.5546875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="171" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="E2" s="199" t="s">
+      <c r="A2" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="E2" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
       <c r="M2" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="246" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="220" t="s">
-        <v>243</v>
-      </c>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="221"/>
-      <c r="L3" s="221"/>
-      <c r="M3" s="222" t="s">
-        <v>206</v>
+      <c r="A3" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="38" t="s">
+        <v>203</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="218" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="165"/>
+      <c r="A4" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="136" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="137"/>
       <c r="M4" s="21" t="s">
         <v>1</v>
       </c>
@@ -5226,23 +5279,23 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="218" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="218" t="s">
+      <c r="A5" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="173" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
+      <c r="E5" s="139" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
       <c r="M5" s="21" t="s">
         <v>1</v>
       </c>
@@ -5250,45 +5303,45 @@
       <c r="O5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="240" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="218" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="179" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="181"/>
+      <c r="A6" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="21"/>
       <c r="N6"/>
       <c r="O6"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="240" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="218"/>
-      <c r="C7" s="218" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="170" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="173"/>
+      <c r="A7" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
       <c r="M7" s="22" t="s">
         <v>1</v>
       </c>
@@ -5296,1522 +5349,1629 @@
       <c r="O7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="218" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="218"/>
-      <c r="C8" s="218" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="161"/>
+      <c r="A8" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="129"/>
       <c r="N8"/>
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="218" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="218"/>
-      <c r="C9" s="218" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="164"/>
+      <c r="A9" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="132"/>
       <c r="N9"/>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="218" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="218"/>
-      <c r="C10" s="218" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="219"/>
-      <c r="E10" s="168" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="119" t="s">
+      <c r="A10" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="144" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="91" t="s">
         <v>1</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="240" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="218"/>
-      <c r="C11" s="254" t="s">
+      <c r="A11" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="223" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="169" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="119"/>
+      <c r="E11" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="91"/>
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="218"/>
-      <c r="C12" s="254" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="223"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="119"/>
+    <row r="12" spans="1:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="91"/>
       <c r="N12"/>
       <c r="O12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="241" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="218"/>
-      <c r="C13" s="218" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
+      <c r="A13" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="241" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" s="218"/>
-      <c r="C14" s="218" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="117"/>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
       <c r="N14"/>
       <c r="O14"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="240" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="240" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="240"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="114"/>
+      <c r="A15" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
       <c r="N15"/>
       <c r="O15"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="240"/>
-      <c r="B16" s="240" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="240"/>
-      <c r="E16" s="184" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="158" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="158"/>
-      <c r="M16" s="119" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="143" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="143"/>
+      <c r="M16" s="91" t="s">
         <v>1</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="240" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="240" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="240" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="187"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="169" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="169"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="119"/>
+      <c r="A17" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="136"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="91"/>
       <c r="N17"/>
       <c r="O17"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="240"/>
-      <c r="B18" s="240" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="240" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="187"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="169" t="s">
-        <v>112</v>
-      </c>
-      <c r="J18" s="169"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="119"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="116"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="136"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="91"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="Q18" s="245" t="s">
-        <v>278</v>
-      </c>
-      <c r="R18" s="193"/>
-      <c r="S18" s="193"/>
-      <c r="T18" s="193"/>
-      <c r="U18" s="193"/>
-      <c r="V18" s="193"/>
-      <c r="W18" s="193"/>
+      <c r="Q18" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
     </row>
     <row r="19" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="187"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="169" t="s">
+      <c r="E19" s="116"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="136"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="91"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="J19" s="169"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="119"/>
-      <c r="Q19" s="245"/>
-      <c r="R19" s="193"/>
-      <c r="S19" s="193"/>
-      <c r="T19" s="193"/>
-      <c r="U19" s="193"/>
-      <c r="V19" s="193"/>
-      <c r="W19" s="193"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="172" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="169" t="s">
+      <c r="J20" s="136"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="91"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="J20" s="169"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="119"/>
-      <c r="Q20" s="245"/>
-      <c r="R20" s="193"/>
-      <c r="S20" s="193"/>
-      <c r="T20" s="193"/>
-      <c r="U20" s="193"/>
-      <c r="V20" s="193"/>
-      <c r="W20" s="193"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="218" t="s">
-        <v>300</v>
-      </c>
-      <c r="B21" s="218"/>
-      <c r="C21" s="218" t="s">
+      <c r="J21" s="136"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="91"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="N25" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="190"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="169" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="169"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="119"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="218" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="218"/>
-      <c r="C22" s="218" t="s">
-        <v>153</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="218" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="218"/>
-      <c r="C23" s="218" t="s">
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+    </row>
+    <row r="27" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="122" t="s">
+        <v>203</v>
+      </c>
+      <c r="N27" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="240" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="110"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="123"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="218"/>
-      <c r="C24" s="218" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="230" t="s">
-        <v>237</v>
-      </c>
-      <c r="F25" s="230"/>
-      <c r="G25" s="230"/>
-      <c r="H25" s="230"/>
-      <c r="I25" s="230"/>
-      <c r="J25" s="230"/>
-      <c r="K25" s="230"/>
-      <c r="L25" s="230"/>
-      <c r="M25" s="231" t="s">
-        <v>206</v>
-      </c>
-      <c r="N25" s="245" t="s">
-        <v>285</v>
-      </c>
-      <c r="O25" s="193"/>
-      <c r="P25" s="193"/>
-      <c r="Q25" s="193"/>
-      <c r="R25" s="193"/>
-      <c r="S25" s="193"/>
-      <c r="T25" s="193"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="230"/>
-      <c r="I26" s="230"/>
-      <c r="J26" s="230"/>
-      <c r="K26" s="230"/>
-      <c r="L26" s="230"/>
-      <c r="M26" s="231"/>
-      <c r="N26" s="245"/>
-      <c r="O26" s="193"/>
-      <c r="P26" s="193"/>
-      <c r="Q26" s="193"/>
-      <c r="R26" s="193"/>
-      <c r="S26" s="193"/>
-      <c r="T26" s="193"/>
-    </row>
-    <row r="27" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="218" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="218"/>
-      <c r="C27" s="218" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="232" t="s">
-        <v>238</v>
-      </c>
-      <c r="F27" s="233"/>
-      <c r="G27" s="233"/>
-      <c r="H27" s="233"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="233"/>
-      <c r="L27" s="234"/>
-      <c r="M27" s="235" t="s">
-        <v>206</v>
-      </c>
-      <c r="N27" s="245" t="s">
-        <v>286</v>
-      </c>
-      <c r="O27" s="193"/>
-      <c r="P27" s="193"/>
-      <c r="Q27" s="193"/>
-      <c r="R27" s="193"/>
-      <c r="S27" s="193"/>
-      <c r="T27" s="193"/>
-      <c r="U27" s="193"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="218" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="218"/>
-      <c r="C28" s="218" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="236"/>
-      <c r="F28" s="237"/>
-      <c r="G28" s="237"/>
-      <c r="H28" s="237"/>
-      <c r="I28" s="237"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="237"/>
-      <c r="L28" s="238"/>
-      <c r="M28" s="239"/>
-      <c r="N28" s="245"/>
-      <c r="O28" s="193"/>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="193"/>
-      <c r="U28" s="193"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="218" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" s="218"/>
-      <c r="C29" s="218" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="230" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="230"/>
-      <c r="G29" s="230"/>
-      <c r="H29" s="230"/>
-      <c r="I29" s="230"/>
-      <c r="J29" s="230"/>
-      <c r="K29" s="230"/>
-      <c r="L29" s="230"/>
-      <c r="M29" s="222" t="s">
-        <v>1</v>
-      </c>
-      <c r="N29" s="244" t="s">
-        <v>284</v>
-      </c>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="177"/>
-      <c r="S29" s="177"/>
-      <c r="T29" s="177"/>
-      <c r="U29" s="177"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="218" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="218"/>
-      <c r="C30" s="218" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="195" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" s="195"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="195"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="195"/>
-      <c r="L30" s="195"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
       <c r="M30" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="218" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="218"/>
-      <c r="C31" s="218" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="195" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="195"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="195"/>
-      <c r="K31" s="195"/>
-      <c r="L31" s="195"/>
+      <c r="A31" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
       <c r="M31" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="218" t="s">
-        <v>172</v>
-      </c>
-      <c r="B32" s="218"/>
-      <c r="C32" s="218" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="194" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="119" t="s">
+      <c r="A32" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="91" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="218" t="s">
+      <c r="A33" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="218"/>
-      <c r="C33" s="218" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="119"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="91"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="218" t="s">
+      <c r="A34" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="218"/>
-      <c r="C34" s="218" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="195" t="s">
-        <v>219</v>
-      </c>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="195"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
       <c r="M34" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E35" s="194" t="s">
-        <v>221</v>
-      </c>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="194"/>
-      <c r="L35" s="194"/>
-      <c r="M35" s="119" t="s">
+      <c r="A35" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="E35" s="104" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="91" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="176" t="s">
-        <v>263</v>
-      </c>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="194"/>
-      <c r="L36" s="194"/>
-      <c r="M36" s="119"/>
+      <c r="A36" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="91"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E37" s="194" t="s">
+      <c r="A37" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="E37" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="91"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="61"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="91"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E41" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="194"/>
-      <c r="L37" s="194"/>
-      <c r="M37" s="119" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="194"/>
-      <c r="L38" s="194"/>
-      <c r="M38" s="119"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C39" s="196" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" s="194" t="s">
-        <v>224</v>
-      </c>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="194"/>
-      <c r="L39" s="194"/>
-      <c r="M39" s="119" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="194"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="194"/>
-      <c r="L40" s="194"/>
-      <c r="M40" s="119"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="172" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
-      <c r="E41" s="195" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" s="195"/>
-      <c r="G41" s="195"/>
-      <c r="H41" s="195"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="195"/>
-      <c r="K41" s="195"/>
-      <c r="L41" s="195"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
       <c r="M41" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="240" t="s">
+      <c r="A42" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
+      <c r="E42" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="101"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="101"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="218"/>
-      <c r="C42" s="218" t="s">
+      <c r="B47" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="242" t="s">
-        <v>277</v>
-      </c>
-      <c r="F42" s="242"/>
-      <c r="G42" s="242"/>
-      <c r="H42" s="242"/>
-      <c r="I42" s="242"/>
-      <c r="J42" s="242"/>
-      <c r="K42" s="242"/>
-      <c r="L42" s="242"/>
-      <c r="M42" s="231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="240" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" s="240"/>
-      <c r="C43" s="240" t="s">
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="242"/>
-      <c r="F43" s="242"/>
-      <c r="G43" s="242"/>
-      <c r="H43" s="242"/>
-      <c r="I43" s="242"/>
-      <c r="J43" s="242"/>
-      <c r="K43" s="242"/>
-      <c r="L43" s="242"/>
-      <c r="M43" s="231"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="240" t="s">
-        <v>267</v>
-      </c>
-      <c r="B44" s="240"/>
-      <c r="C44" s="240" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="223" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" s="223"/>
-      <c r="G44" s="223"/>
-      <c r="H44" s="223"/>
-      <c r="I44" s="223"/>
-      <c r="J44" s="223"/>
-      <c r="K44" s="223"/>
-      <c r="L44" s="223"/>
-      <c r="M44" s="231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="240" t="s">
-        <v>268</v>
-      </c>
-      <c r="B45" s="240"/>
-      <c r="C45" s="240" t="s">
-        <v>175</v>
-      </c>
-      <c r="E45" s="223"/>
-      <c r="F45" s="223"/>
-      <c r="G45" s="223"/>
-      <c r="H45" s="223"/>
-      <c r="I45" s="223"/>
-      <c r="J45" s="223"/>
-      <c r="K45" s="223"/>
-      <c r="L45" s="223"/>
-      <c r="M45" s="231"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="218" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="218" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="218"/>
-      <c r="E46" s="175" t="s">
-        <v>228</v>
-      </c>
-      <c r="F46" s="175"/>
-      <c r="G46" s="175"/>
-      <c r="H46" s="175"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="175"/>
-      <c r="K46" s="175"/>
-      <c r="L46" s="175"/>
-      <c r="M46" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="218"/>
-      <c r="B47" s="218" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="218" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="243" t="s">
-        <v>230</v>
-      </c>
-      <c r="F47" s="243"/>
-      <c r="G47" s="243"/>
-      <c r="H47" s="243"/>
-      <c r="I47" s="243"/>
-      <c r="J47" s="243"/>
-      <c r="K47" s="243"/>
-      <c r="L47" s="243"/>
-      <c r="M47" s="222" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="218"/>
-      <c r="B48" s="218" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="218"/>
-      <c r="E48" s="175" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="175"/>
-      <c r="G48" s="175"/>
-      <c r="H48" s="175"/>
-      <c r="I48" s="175"/>
-      <c r="J48" s="175"/>
-      <c r="K48" s="175"/>
-      <c r="L48" s="175"/>
+      <c r="C48" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
       <c r="M48" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E49" s="178" t="s">
-        <v>232</v>
-      </c>
-      <c r="F49" s="175"/>
-      <c r="G49" s="175"/>
-      <c r="H49" s="175"/>
-      <c r="I49" s="175"/>
-      <c r="J49" s="175"/>
-      <c r="K49" s="175"/>
-      <c r="L49" s="175"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="E49" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="92"/>
       <c r="M49" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="172" t="s">
+      <c r="E50" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="172"/>
-      <c r="C50" s="172"/>
-      <c r="E50" s="243" t="s">
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="101"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="80"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="91"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="79"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="91"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="147" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="92"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="E58" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+      <c r="M59" s="91"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="77"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="E61" s="94" t="s">
+        <v>237</v>
+      </c>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="94"/>
+      <c r="I61" s="94"/>
+      <c r="J61" s="94"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="32"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="E62" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="F50" s="243"/>
-      <c r="G50" s="243"/>
-      <c r="H50" s="243"/>
-      <c r="I50" s="243"/>
-      <c r="J50" s="243"/>
-      <c r="K50" s="243"/>
-      <c r="L50" s="243"/>
-      <c r="M50" s="231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51" s="243"/>
-      <c r="F51" s="243"/>
-      <c r="G51" s="243"/>
-      <c r="H51" s="243"/>
-      <c r="I51" s="243"/>
-      <c r="J51" s="243"/>
-      <c r="K51" s="243"/>
-      <c r="L51" s="243"/>
-      <c r="M51" s="231"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="178" t="s">
+      <c r="F62" s="92"/>
+      <c r="G62" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="28"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="24"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="89"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="E65" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="29"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="28"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="E67" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E68" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="33"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="133" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="133"/>
+      <c r="C69" s="133"/>
+      <c r="E69" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="89"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="91"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E72" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="23"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="78"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="79"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="91"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="89"/>
+      <c r="M75" s="34"/>
+    </row>
+    <row r="76" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H76" s="81" t="s">
+        <v>256</v>
+      </c>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="35"/>
+    </row>
+    <row r="77" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="84"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="85"/>
+      <c r="K77" s="85"/>
+      <c r="L77" s="86"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="57"/>
+      <c r="C78" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="M78" s="26"/>
+    </row>
+    <row r="79" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" s="90" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" s="90"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="90"/>
+      <c r="I79" s="90"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
+      <c r="M79" s="26"/>
+    </row>
+    <row r="80" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E80" s="90"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="90"/>
+      <c r="I80" s="90"/>
+      <c r="J80" s="90"/>
+      <c r="K80" s="90"/>
+      <c r="L80" s="90"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="F52" s="178"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="178"/>
-      <c r="K52" s="178"/>
-      <c r="L52" s="178"/>
-      <c r="M52" s="119" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="119"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="83"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="224" t="s">
-        <v>235</v>
-      </c>
-      <c r="F55" s="225"/>
-      <c r="G55" s="225"/>
-      <c r="H55" s="225"/>
-      <c r="I55" s="225"/>
-      <c r="J55" s="225"/>
-      <c r="K55" s="225"/>
-      <c r="L55" s="226"/>
-      <c r="M55" s="119" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="172" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="172"/>
-      <c r="C56" s="172"/>
-      <c r="E56" s="175" t="s">
-        <v>236</v>
-      </c>
-      <c r="F56" s="175"/>
-      <c r="G56" s="175"/>
-      <c r="H56" s="175"/>
-      <c r="I56" s="175"/>
-      <c r="J56" s="175"/>
-      <c r="K56" s="175"/>
-      <c r="L56" s="175"/>
-      <c r="M56" s="119"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="240" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="240"/>
-      <c r="C57" s="240"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="175"/>
-      <c r="G57" s="175"/>
-      <c r="H57" s="175"/>
-      <c r="I57" s="175"/>
-      <c r="J57" s="175"/>
-      <c r="K57" s="175"/>
-      <c r="L57" s="175"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="240" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" s="240"/>
-      <c r="C58" s="240"/>
-      <c r="E58" s="194" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" s="194"/>
-      <c r="G58" s="194"/>
-      <c r="H58" s="194"/>
-      <c r="I58" s="194"/>
-      <c r="J58" s="194"/>
-      <c r="K58" s="194"/>
-      <c r="L58" s="194"/>
-      <c r="M58" s="119" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="240" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" s="240"/>
-      <c r="C59" s="240"/>
-      <c r="E59" s="194"/>
-      <c r="F59" s="194"/>
-      <c r="G59" s="194"/>
-      <c r="H59" s="194"/>
-      <c r="I59" s="194"/>
-      <c r="J59" s="194"/>
-      <c r="K59" s="194"/>
-      <c r="L59" s="194"/>
-      <c r="M59" s="119"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="240" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="240"/>
-      <c r="C60" s="240"/>
-      <c r="E60" s="227"/>
-      <c r="F60" s="228"/>
-      <c r="G60" s="228"/>
-      <c r="H60" s="228"/>
-      <c r="I60" s="228"/>
-      <c r="J60" s="228"/>
-      <c r="K60" s="228"/>
-      <c r="L60" s="228"/>
-      <c r="M60" s="229"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="240" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="240"/>
-      <c r="C61" s="240"/>
-      <c r="E61" s="198" t="s">
-        <v>242</v>
-      </c>
-      <c r="F61" s="198"/>
-      <c r="G61" s="198"/>
-      <c r="H61" s="198"/>
-      <c r="I61" s="198"/>
-      <c r="J61" s="198"/>
-      <c r="K61" s="182"/>
-      <c r="L61" s="182"/>
-      <c r="M61" s="208"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="240" t="s">
-        <v>185</v>
-      </c>
-      <c r="B62" s="240"/>
-      <c r="C62" s="240"/>
-      <c r="E62" s="175" t="s">
-        <v>245</v>
-      </c>
-      <c r="F62" s="175"/>
-      <c r="G62" s="206" t="s">
-        <v>246</v>
-      </c>
-      <c r="H62" s="207"/>
-      <c r="I62" s="207"/>
-      <c r="J62" s="207"/>
-      <c r="K62" s="207"/>
-      <c r="L62" s="207"/>
-      <c r="M62" s="182"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="240" t="s">
-        <v>186</v>
-      </c>
-      <c r="B63" s="240"/>
-      <c r="C63" s="240"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="119"/>
-      <c r="G63" s="203" t="s">
-        <v>244</v>
-      </c>
-      <c r="H63" s="204"/>
-      <c r="I63" s="204"/>
-      <c r="J63" s="205"/>
-      <c r="K63" s="182"/>
-      <c r="L63" s="182"/>
-      <c r="M63" s="24"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="240" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" s="240"/>
-      <c r="C64" s="240"/>
-      <c r="E64" s="123"/>
-      <c r="F64" s="124"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="124"/>
-      <c r="K64" s="124"/>
-      <c r="L64" s="124"/>
-      <c r="M64" s="125"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="240" t="s">
-        <v>188</v>
-      </c>
-      <c r="B65" s="240"/>
-      <c r="C65" s="240"/>
-      <c r="E65" s="175" t="s">
-        <v>247</v>
-      </c>
-      <c r="F65" s="175"/>
-      <c r="G65" s="175"/>
-      <c r="H65" s="182" t="s">
-        <v>252</v>
-      </c>
-      <c r="I65" s="182"/>
-      <c r="J65" s="182"/>
-      <c r="K65" s="182"/>
-      <c r="L65" s="182"/>
-      <c r="M65" s="202"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="240" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" s="240"/>
-      <c r="C66" s="240"/>
-      <c r="E66" s="119"/>
-      <c r="F66" s="119"/>
-      <c r="G66" s="119"/>
-      <c r="H66" s="202" t="s">
-        <v>253</v>
-      </c>
-      <c r="I66" s="202"/>
-      <c r="J66" s="202"/>
-      <c r="K66" s="202"/>
-      <c r="L66" s="202"/>
-      <c r="M66" s="182"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E67" s="197" t="s">
-        <v>251</v>
-      </c>
-      <c r="F67" s="197"/>
-      <c r="G67" s="197"/>
-      <c r="H67" s="182" t="s">
-        <v>248</v>
-      </c>
-      <c r="I67" s="182"/>
-      <c r="J67" s="182"/>
-      <c r="K67" s="182"/>
-      <c r="L67" s="182"/>
-      <c r="M67" s="182"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="166" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68" s="166"/>
-      <c r="C68" s="166"/>
-      <c r="E68" s="197" t="s">
-        <v>251</v>
-      </c>
-      <c r="F68" s="197"/>
-      <c r="G68" s="197"/>
-      <c r="H68" s="182" t="s">
-        <v>249</v>
-      </c>
-      <c r="I68" s="182"/>
-      <c r="J68" s="182"/>
-      <c r="K68" s="182"/>
-      <c r="L68" s="182"/>
-      <c r="M68" s="209"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="218" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="218"/>
-      <c r="C69" s="218" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F69" s="201"/>
-      <c r="G69" s="201"/>
-      <c r="H69" s="209" t="s">
-        <v>250</v>
-      </c>
-      <c r="I69" s="209"/>
-      <c r="J69" s="209"/>
-      <c r="K69" s="209"/>
-      <c r="L69" s="209"/>
-      <c r="M69" s="202"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="218" t="s">
-        <v>193</v>
-      </c>
-      <c r="B70" s="218"/>
-      <c r="C70" s="218" t="s">
-        <v>195</v>
-      </c>
-      <c r="E70" s="119"/>
-      <c r="F70" s="119"/>
-      <c r="G70" s="119"/>
-      <c r="H70" s="202" t="s">
-        <v>254</v>
-      </c>
-      <c r="I70" s="202"/>
-      <c r="J70" s="202"/>
-      <c r="K70" s="202"/>
-      <c r="L70" s="202"/>
-      <c r="M70" s="202"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="218" t="s">
-        <v>194</v>
-      </c>
-      <c r="B71" s="218"/>
-      <c r="C71" s="218" t="s">
-        <v>195</v>
-      </c>
-      <c r="E71" s="119"/>
-      <c r="F71" s="119"/>
-      <c r="G71" s="119"/>
-      <c r="H71" s="202" t="s">
-        <v>255</v>
-      </c>
-      <c r="I71" s="202"/>
-      <c r="J71" s="202"/>
-      <c r="K71" s="202"/>
-      <c r="L71" s="202"/>
-      <c r="M71" s="202"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="218" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" s="218"/>
-      <c r="C72" s="218" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="175" t="s">
-        <v>256</v>
-      </c>
-      <c r="F72" s="175"/>
-      <c r="G72" s="175"/>
-      <c r="H72" s="202" t="s">
-        <v>257</v>
-      </c>
-      <c r="I72" s="202"/>
-      <c r="J72" s="202"/>
-      <c r="K72" s="202"/>
-      <c r="L72" s="202"/>
-      <c r="M72" s="202"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="218" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="218"/>
-      <c r="C73" s="218" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="141"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="202" t="s">
-        <v>258</v>
-      </c>
-      <c r="I73" s="202"/>
-      <c r="J73" s="202"/>
-      <c r="K73" s="202"/>
-      <c r="L73" s="202"/>
-      <c r="M73" s="23"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="218" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="218"/>
-      <c r="C74" s="218" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="82"/>
-      <c r="I74" s="82"/>
-      <c r="J74" s="82"/>
-      <c r="K74" s="82"/>
-      <c r="L74" s="82"/>
-      <c r="M74" s="83"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="218" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="218"/>
-      <c r="C75" s="218" t="s">
-        <v>196</v>
-      </c>
-      <c r="E75" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="123" t="s">
-        <v>260</v>
-      </c>
-      <c r="I75" s="124"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="125"/>
-      <c r="M75" s="210"/>
-    </row>
-    <row r="76" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="218" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="218"/>
-      <c r="C76" s="218" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="115" t="s">
-        <v>261</v>
-      </c>
-      <c r="I76" s="116"/>
-      <c r="J76" s="116"/>
-      <c r="K76" s="116"/>
-      <c r="L76" s="117"/>
-      <c r="M76" s="211"/>
-    </row>
-    <row r="77" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="241" t="s">
-        <v>199</v>
-      </c>
-      <c r="B77" s="218"/>
-      <c r="C77" s="218" t="s">
-        <v>200</v>
-      </c>
-      <c r="H77" s="112"/>
-      <c r="I77" s="113"/>
-      <c r="J77" s="113"/>
-      <c r="K77" s="113"/>
-      <c r="L77" s="114"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="240" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78" s="218"/>
-      <c r="C78" s="218" t="s">
-        <v>202</v>
-      </c>
-      <c r="M78" s="26"/>
-    </row>
-    <row r="79" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="218" t="s">
-        <v>203</v>
-      </c>
-      <c r="B79" s="218"/>
-      <c r="C79" s="218" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="167" t="s">
-        <v>262</v>
-      </c>
-      <c r="F79" s="167"/>
-      <c r="G79" s="167"/>
-      <c r="H79" s="167"/>
-      <c r="I79" s="167"/>
-      <c r="J79" s="167"/>
-      <c r="K79" s="167"/>
-      <c r="L79" s="167"/>
-      <c r="M79" s="26"/>
-    </row>
-    <row r="80" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="240" t="s">
-        <v>276</v>
-      </c>
-      <c r="B80" s="218"/>
-      <c r="C80" s="218" t="s">
-        <v>117</v>
-      </c>
-      <c r="E80" s="167"/>
-      <c r="F80" s="167"/>
-      <c r="G80" s="167"/>
-      <c r="H80" s="167"/>
-      <c r="I80" s="167"/>
-      <c r="J80" s="167"/>
-      <c r="K80" s="167"/>
-      <c r="L80" s="167"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="240" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="218"/>
-      <c r="C81" s="218" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="240" t="s">
-        <v>269</v>
-      </c>
-      <c r="B82" s="218"/>
-      <c r="C82" s="218" t="s">
-        <v>270</v>
-      </c>
-      <c r="E82" s="176"/>
-      <c r="F82" s="176"/>
-      <c r="G82" s="176"/>
-      <c r="H82" s="176"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E83" s="176"/>
-      <c r="F83" s="176"/>
-      <c r="G83" s="176"/>
-      <c r="H83" s="176"/>
-      <c r="J83" s="212" t="s">
-        <v>273</v>
-      </c>
-      <c r="K83" s="213"/>
-      <c r="L83" s="213"/>
-      <c r="M83" s="214"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="J83" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="68"/>
     </row>
     <row r="84" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E84" s="176"/>
-      <c r="F84" s="176"/>
-      <c r="G84" s="176"/>
-      <c r="H84" s="176"/>
-      <c r="J84" s="215"/>
-      <c r="K84" s="216"/>
-      <c r="L84" s="216"/>
-      <c r="M84" s="217"/>
+      <c r="A84" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" s="49"/>
+      <c r="C84" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
+      <c r="M84" s="71"/>
     </row>
     <row r="85" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="176"/>
-      <c r="F85" s="176"/>
-      <c r="G85" s="176"/>
-      <c r="H85" s="176"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E86" s="176"/>
-      <c r="F86" s="176"/>
-      <c r="G86" s="176"/>
-      <c r="H86" s="176"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E87" s="176"/>
-      <c r="F87" s="176"/>
-      <c r="G87" s="176"/>
-      <c r="H87" s="176"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E88" s="176"/>
-      <c r="F88" s="176"/>
-      <c r="G88" s="176"/>
-      <c r="H88" s="176"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E89" s="176"/>
-      <c r="F89" s="176"/>
-      <c r="G89" s="176"/>
-      <c r="H89" s="176"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E90" s="176"/>
-      <c r="F90" s="176"/>
-      <c r="G90" s="176"/>
-      <c r="H90" s="176"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="90">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L21"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="E8:M9"/>
+    <mergeCell ref="N25:T26"/>
+    <mergeCell ref="Q18:W20"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="E58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="E32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="E11:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="E16:H21"/>
+    <mergeCell ref="E14:M15"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="E30:L30"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="E27:L28"/>
+    <mergeCell ref="E37:L38"/>
+    <mergeCell ref="E42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="E44:L45"/>
+    <mergeCell ref="E46:L46"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="E39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="E41:L41"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="E56:L57"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="E50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="E47:L47"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="E49:L49"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H69:M69"/>
     <mergeCell ref="N27:U28"/>
     <mergeCell ref="N29:U29"/>
     <mergeCell ref="J83:M84"/>
@@ -6828,99 +6988,29 @@
     <mergeCell ref="E72:G72"/>
     <mergeCell ref="E70:G71"/>
     <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E56:L57"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="E50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="E47:L47"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="E49:L49"/>
-    <mergeCell ref="E42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="E44:L45"/>
-    <mergeCell ref="E46:L46"/>
-    <mergeCell ref="E37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="E39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="E41:L41"/>
-    <mergeCell ref="E32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="E11:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="E16:H21"/>
-    <mergeCell ref="E14:M15"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="E29:L29"/>
-    <mergeCell ref="E30:L30"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="E27:L28"/>
-    <mergeCell ref="E35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="E58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="E8:M9"/>
-    <mergeCell ref="N25:T26"/>
-    <mergeCell ref="Q18:W20"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L21"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A77" location="table!A90" display="Statut " xr:uid="{66C7E92C-58DE-4762-BDB4-FDB531A3122D}"/>
-    <hyperlink ref="A78" location="table!A69" display="Fonction*" xr:uid="{EC1E7FF2-CBB4-447F-9B1A-D4526D681247}"/>
+    <hyperlink ref="A78" location="table!A90" display="Statut " xr:uid="{66C7E92C-58DE-4762-BDB4-FDB531A3122D}"/>
+    <hyperlink ref="A79" location="table!A69" display="Fonction*" xr:uid="{EC1E7FF2-CBB4-447F-9B1A-D4526D681247}"/>
     <hyperlink ref="A13:A14" location="table!A84" display="état civil" xr:uid="{C63DCAAC-9622-4176-B9C8-B88BC6EEA8A8}"/>
     <hyperlink ref="A6" location="table!U74" display="Domain (type société)" xr:uid="{B525D6D9-F4C0-4888-9D06-FD4BF749FE78}"/>
     <hyperlink ref="A7" location="table!U69" display="Activité client" xr:uid="{8A45646B-0904-451D-A15D-5478FAABE1E7}"/>
-    <hyperlink ref="A82" location="table!U79" display="type de contrat" xr:uid="{8FFABB3F-CB39-4622-AD4D-E4E5AD617307}"/>
+    <hyperlink ref="A83" location="table!U79" display="type de contrat" xr:uid="{8FFABB3F-CB39-4622-AD4D-E4E5AD617307}"/>
     <hyperlink ref="A14" location="table!C85" display="Sexe" xr:uid="{C16A93A5-E111-456D-A934-6A3A7FD572CC}"/>
     <hyperlink ref="A11" location="table!V87" display="Nature " xr:uid="{2FBCBBA3-73E3-469A-B001-B37DA8D3A6DA}"/>
     <hyperlink ref="A17:C18" location="table!I69" display="commentaire commerciaux" xr:uid="{11B84D9D-FB43-40AD-B63D-78D7124B0A3D}"/>
-    <hyperlink ref="A80:A81" location="'ED01'!P69" display="Date d’embauche (debut )" xr:uid="{9A1D3FD6-1936-46CA-9721-EA25F7412692}"/>
-    <hyperlink ref="A80" location="table!P69" display="Date d’embauche (debut )" xr:uid="{D2221684-8EF9-42EB-B076-9C6D515E43CE}"/>
-    <hyperlink ref="A57:C66" location="table!A107" display="analyse des besoins " xr:uid="{FF9F0D07-8B4D-4941-A44F-2A8668425781}"/>
-    <hyperlink ref="A59" location="table!A107" display="Programmation " xr:uid="{ED5111BF-63CC-4505-A74A-681EF585662F}"/>
+    <hyperlink ref="A81:A82" location="'ED01'!P69" display="Date d’embauche (debut )" xr:uid="{9A1D3FD6-1936-46CA-9721-EA25F7412692}"/>
+    <hyperlink ref="A81" location="table!P69" display="Date d’embauche (debut )" xr:uid="{D2221684-8EF9-42EB-B076-9C6D515E43CE}"/>
+    <hyperlink ref="A58:C67" location="table!A107" display="analyse des besoins " xr:uid="{FF9F0D07-8B4D-4941-A44F-2A8668425781}"/>
+    <hyperlink ref="A60" location="table!A107" display="Programmation " xr:uid="{ED5111BF-63CC-4505-A74A-681EF585662F}"/>
     <hyperlink ref="A24" location="table!A119" display="Type " xr:uid="{7BDF9879-2E64-490C-9D66-0DD225C11B1C}"/>
-    <hyperlink ref="A43:C45" location="table!A97" display="charge de production (en heures )" xr:uid="{DB803B5F-F220-43E2-978C-4B530743DC9D}"/>
-    <hyperlink ref="A42" location="table!A97" display="Identifiant (lot)" xr:uid="{94545FFA-C3DE-4AF4-95CD-2CB4590FED7D}"/>
-    <hyperlink ref="A15:C16" location="table!D13" display="contact projet " xr:uid="{6C0EF980-1838-4EAD-BBD0-5DBA6B1D1FBB}"/>
+    <hyperlink ref="A44:C46" location="table!A97" display="charge de production (en heures )" xr:uid="{DB803B5F-F220-43E2-978C-4B530743DC9D}"/>
+    <hyperlink ref="A43" location="table!A97" display="Identifiant (lot)" xr:uid="{94545FFA-C3DE-4AF4-95CD-2CB4590FED7D}"/>
+    <hyperlink ref="A55:C56" location="table!R31" display="Date de diffusion" xr:uid="{C00C8710-50F7-45A6-BB6E-E091A94579DB}"/>
+    <hyperlink ref="A52:C54" location="table!R23" display="Identifiant" xr:uid="{4820B3C0-3082-445A-BB0A-11A894035378}"/>
+    <hyperlink ref="A47:B47" location="table!H68" display="Collaborateurs associés avec" xr:uid="{C7E9EF2B-8A48-458E-9A2B-7E2E3ED2A1AD}"/>
+    <hyperlink ref="A82" location="table!P69" display="Date de fin de contrat" xr:uid="{881208DB-DC10-4A4D-A4F5-2585A3EBC1AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6932,8 +7022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE126"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J117" sqref="J117"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6946,20 +7036,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A1" s="267"/>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
@@ -7042,17 +7132,17 @@
       <c r="AE3" s="9"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -7076,19 +7166,19 @@
       <c r="AE4" s="9"/>
     </row>
     <row r="5" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="109" t="s">
+      <c r="A5" s="150"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="109" t="s">
+      <c r="E5" s="240"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="239" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="111"/>
+      <c r="H5" s="240"/>
+      <c r="I5" s="241"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -7108,19 +7198,19 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="100" t="s">
+      <c r="A6" s="150"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="248" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100" t="s">
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
+      <c r="H6" s="248"/>
+      <c r="I6" s="248"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -7140,19 +7230,19 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="108" t="s">
+      <c r="A7" s="150"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108" t="s">
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="247"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -7172,19 +7262,19 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="120" t="s">
+      <c r="A8" s="150"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120" t="s">
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -7204,19 +7294,19 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="120" t="s">
+      <c r="A9" s="150"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120" t="s">
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -7236,19 +7326,19 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="120" t="s">
+      <c r="A10" s="150"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120" t="s">
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -7268,19 +7358,19 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120" t="s">
+      <c r="A11" s="150"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="177" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -7300,19 +7390,19 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:31" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="120" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120" t="s">
+      <c r="A12" s="150"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="177" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -7335,16 +7425,16 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="126" t="s">
-        <v>308</v>
-      </c>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127" t="s">
-        <v>309</v>
-      </c>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="D13" s="161" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" s="162"/>
+      <c r="I13" s="163"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -7367,16 +7457,16 @@
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="126" t="s">
-        <v>310</v>
-      </c>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127" t="s">
-        <v>309</v>
-      </c>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="D14" s="161" t="s">
+        <v>304</v>
+      </c>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162" t="s">
+        <v>303</v>
+      </c>
+      <c r="H14" s="162"/>
+      <c r="I14" s="163"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -7480,11 +7570,11 @@
       <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -7510,26 +7600,26 @@
       <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="154" t="s">
+      <c r="E19" s="152"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="155"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="62" t="s">
+      <c r="H19" s="180"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="242" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="63"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="62" t="s">
+      <c r="K19" s="243"/>
+      <c r="L19" s="244"/>
+      <c r="M19" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="63"/>
-      <c r="O19" s="104"/>
+      <c r="N19" s="243"/>
+      <c r="O19" s="244"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
@@ -7543,18 +7633,18 @@
       <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="107"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="237"/>
+      <c r="L20" s="238"/>
+      <c r="M20" s="236"/>
+      <c r="N20" s="237"/>
+      <c r="O20" s="238"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -7568,24 +7658,24 @@
       <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35" t="s">
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35" t="s">
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -7599,397 +7689,412 @@
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103" t="s">
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="226"/>
+      <c r="J22" s="227"/>
+      <c r="K22" s="227"/>
+      <c r="L22" s="227"/>
+      <c r="M22" s="150"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
     </row>
     <row r="23" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R23" s="35" t="s">
+      <c r="R23" s="193" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" s="193"/>
+      <c r="T23" s="193"/>
+      <c r="U23" s="193"/>
+      <c r="V23" s="193"/>
+      <c r="W23" s="193"/>
+      <c r="X23" s="200"/>
+    </row>
+    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R24" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-    </row>
-    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R24" s="28" t="s">
+      <c r="S24" s="150"/>
+      <c r="T24" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="U24" s="150"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="150"/>
+      <c r="X24" s="200"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="148"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="245" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="246"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="246" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="246"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="264" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="265"/>
+      <c r="L25" s="266"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="R25" s="150" t="s">
         <v>121</v>
       </c>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="121"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="R25" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28" t="s">
+      <c r="S25" s="150"/>
+      <c r="T25" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="150"/>
+      <c r="X25" s="200"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="R26" s="28" t="s">
+      <c r="A26" s="148"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="263"/>
+      <c r="I26" s="263"/>
+      <c r="J26" s="267"/>
+      <c r="K26" s="268"/>
+      <c r="L26" s="269"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="150"/>
+      <c r="R26" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28" t="s">
+      <c r="S26" s="150"/>
+      <c r="T26" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
+      <c r="U26" s="150"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="200"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="121"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="90" t="s">
+      <c r="A27" s="148"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="255" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="84" t="s">
+      <c r="E27" s="250"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="85"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="62" t="s">
+      <c r="H27" s="250"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="242" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="81"/>
-      <c r="R27" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="S27" s="28"/>
-      <c r="T27" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
+      <c r="K27" s="243"/>
+      <c r="L27" s="271"/>
+      <c r="M27" s="221"/>
+      <c r="N27" s="221"/>
+      <c r="O27" s="222"/>
     </row>
     <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="121"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="83"/>
-      <c r="R28" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="S28" s="28"/>
-      <c r="T28" s="29" t="s">
+      <c r="A28" s="148"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="253"/>
+      <c r="F28" s="254"/>
+      <c r="G28" s="252"/>
+      <c r="H28" s="253"/>
+      <c r="I28" s="254"/>
+      <c r="J28" s="272"/>
+      <c r="K28" s="273"/>
+      <c r="L28" s="274"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="79"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D29" s="228"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="228"/>
+      <c r="K29" s="228"/>
+      <c r="L29" s="228"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="150"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D30" s="159" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="258" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="150"/>
+      <c r="N30" s="150"/>
+      <c r="O30" s="150"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D31" s="159" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="258" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="R31" s="193" t="s">
+        <v>306</v>
+      </c>
+      <c r="S31" s="193"/>
+      <c r="T31" s="193"/>
+      <c r="U31" s="193"/>
+      <c r="V31" s="193"/>
+      <c r="W31" s="193"/>
+      <c r="X31" s="200"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D32" s="159" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
+      <c r="R32" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="150"/>
+      <c r="T32" s="164" t="s">
+        <v>123</v>
+      </c>
+      <c r="U32" s="150"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="150"/>
+      <c r="X32" s="200"/>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
+      <c r="R33" s="150" t="s">
+        <v>305</v>
+      </c>
+      <c r="S33" s="150"/>
+      <c r="T33" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D30" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="97" t="s">
+      <c r="U33" s="150"/>
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="200"/>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="D34" s="159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D31" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D32" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D34" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D35" s="35" t="s">
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="150"/>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="D35" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D37" s="35" t="s">
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="150"/>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
+      <c r="N36" s="150"/>
+      <c r="O36" s="150"/>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="D37" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35" t="s">
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D38" s="68" t="s">
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
+      <c r="N37" s="150"/>
+      <c r="O37" s="150"/>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="D38" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D39" s="94"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-    </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-    </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D41" s="68" t="s">
+      <c r="E38" s="202"/>
+      <c r="F38" s="203"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
+      <c r="N38" s="150"/>
+      <c r="O38" s="150"/>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="D39" s="216"/>
+      <c r="E39" s="217"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
+      <c r="N39" s="150"/>
+      <c r="O39" s="150"/>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
+      <c r="N40" s="150"/>
+      <c r="O40" s="150"/>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="D41" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="74" t="s">
+      <c r="E41" s="202"/>
+      <c r="F41" s="203"/>
+      <c r="G41" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="75"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="93"/>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="D42" s="71"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="47"/>
-    </row>
-    <row r="45" spans="3:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="208"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="189"/>
+      <c r="M41" s="187"/>
+      <c r="N41" s="188"/>
+      <c r="O41" s="189"/>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="D42" s="204"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="210"/>
+      <c r="H42" s="211"/>
+      <c r="I42" s="212"/>
+      <c r="J42" s="213"/>
+      <c r="K42" s="214"/>
+      <c r="L42" s="215"/>
+      <c r="M42" s="213"/>
+      <c r="N42" s="214"/>
+      <c r="O42" s="215"/>
+    </row>
+    <row r="45" spans="3:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -8005,7 +8110,7 @@
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -8021,7 +8126,7 @@
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -8036,7 +8141,7 @@
       <c r="O47" s="17"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -8128,227 +8233,227 @@
     </row>
     <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="130"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="130"/>
-      <c r="I55" s="130"/>
-      <c r="J55" s="130"/>
-      <c r="K55" s="130"/>
-      <c r="L55" s="130"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130"/>
-      <c r="O55" s="131"/>
-      <c r="P55" s="142"/>
+      <c r="A55" s="194" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="195"/>
+      <c r="C55" s="195"/>
+      <c r="D55" s="195"/>
+      <c r="E55" s="195"/>
+      <c r="F55" s="195"/>
+      <c r="G55" s="195"/>
+      <c r="H55" s="195"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="195"/>
+      <c r="K55" s="195"/>
+      <c r="L55" s="195"/>
+      <c r="M55" s="195"/>
+      <c r="N55" s="195"/>
+      <c r="O55" s="196"/>
+      <c r="P55" s="158"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="259" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="61"/>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="142"/>
+      <c r="B56" s="260"/>
+      <c r="C56" s="260"/>
+      <c r="D56" s="260"/>
+      <c r="E56" s="260"/>
+      <c r="F56" s="261"/>
+      <c r="G56" s="270"/>
+      <c r="H56" s="270"/>
+      <c r="I56" s="270"/>
+      <c r="J56" s="270"/>
+      <c r="K56" s="270"/>
+      <c r="L56" s="270"/>
+      <c r="M56" s="270"/>
+      <c r="N56" s="270"/>
+      <c r="O56" s="270"/>
+      <c r="P56" s="158"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42" t="s">
+      <c r="B57" s="257"/>
+      <c r="C57" s="257"/>
+      <c r="D57" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42" t="s">
+      <c r="E57" s="257"/>
+      <c r="F57" s="257"/>
+      <c r="G57" s="257" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="142"/>
+      <c r="H57" s="257"/>
+      <c r="I57" s="257"/>
+      <c r="J57" s="150"/>
+      <c r="K57" s="150"/>
+      <c r="L57" s="150"/>
+      <c r="M57" s="150"/>
+      <c r="N57" s="150"/>
+      <c r="O57" s="150"/>
+      <c r="P57" s="158"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="42" t="s">
+      <c r="A58" s="150"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="150"/>
+      <c r="D58" s="257" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42" t="s">
+      <c r="E58" s="257"/>
+      <c r="F58" s="257"/>
+      <c r="G58" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42" t="s">
+      <c r="H58" s="257"/>
+      <c r="I58" s="257"/>
+      <c r="J58" s="257" t="s">
         <v>50</v>
       </c>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="142"/>
+      <c r="K58" s="257"/>
+      <c r="L58" s="257"/>
+      <c r="M58" s="276"/>
+      <c r="N58" s="276"/>
+      <c r="O58" s="276"/>
+      <c r="P58" s="158"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="42" t="s">
+      <c r="A59" s="150"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42" t="s">
+      <c r="E59" s="257"/>
+      <c r="F59" s="257"/>
+      <c r="G59" s="257" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="142"/>
+      <c r="H59" s="257"/>
+      <c r="I59" s="257"/>
+      <c r="J59" s="150"/>
+      <c r="K59" s="150"/>
+      <c r="L59" s="150"/>
+      <c r="M59" s="150"/>
+      <c r="N59" s="150"/>
+      <c r="O59" s="150"/>
+      <c r="P59" s="158"/>
     </row>
     <row r="60" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="42" t="s">
+      <c r="A60" s="150"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="257" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42" t="s">
+      <c r="E60" s="257"/>
+      <c r="F60" s="257"/>
+      <c r="G60" s="257" t="s">
         <v>55</v>
       </c>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="142"/>
+      <c r="H60" s="257"/>
+      <c r="I60" s="257"/>
+      <c r="J60" s="150"/>
+      <c r="K60" s="150"/>
+      <c r="L60" s="150"/>
+      <c r="M60" s="150"/>
+      <c r="N60" s="150"/>
+      <c r="O60" s="150"/>
+      <c r="P60" s="158"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="42" t="s">
+      <c r="A61" s="150"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="257" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42" t="s">
+      <c r="E61" s="257"/>
+      <c r="F61" s="257"/>
+      <c r="G61" s="257" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="142"/>
+      <c r="H61" s="257"/>
+      <c r="I61" s="257"/>
+      <c r="J61" s="150"/>
+      <c r="K61" s="150"/>
+      <c r="L61" s="150"/>
+      <c r="M61" s="150"/>
+      <c r="N61" s="150"/>
+      <c r="O61" s="150"/>
+      <c r="P61" s="158"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="42" t="s">
+      <c r="A62" s="150"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="257" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42" t="s">
+      <c r="E62" s="257"/>
+      <c r="F62" s="257"/>
+      <c r="G62" s="257" t="s">
         <v>59</v>
       </c>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="142"/>
+      <c r="H62" s="257"/>
+      <c r="I62" s="257"/>
+      <c r="J62" s="150"/>
+      <c r="K62" s="150"/>
+      <c r="L62" s="150"/>
+      <c r="M62" s="150"/>
+      <c r="N62" s="150"/>
+      <c r="O62" s="150"/>
+      <c r="P62" s="158"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="42" t="s">
+      <c r="A63" s="150"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="257" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42" t="s">
+      <c r="E63" s="257"/>
+      <c r="F63" s="257"/>
+      <c r="G63" s="257" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="142"/>
+      <c r="H63" s="257"/>
+      <c r="I63" s="257"/>
+      <c r="J63" s="150"/>
+      <c r="K63" s="150"/>
+      <c r="L63" s="150"/>
+      <c r="M63" s="150"/>
+      <c r="N63" s="150"/>
+      <c r="O63" s="150"/>
+      <c r="P63" s="158"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="42" t="s">
+      <c r="A64" s="150"/>
+      <c r="B64" s="150"/>
+      <c r="C64" s="150"/>
+      <c r="D64" s="257" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42" t="s">
+      <c r="E64" s="257"/>
+      <c r="F64" s="257"/>
+      <c r="G64" s="257" t="s">
         <v>63</v>
       </c>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="142"/>
+      <c r="H64" s="257"/>
+      <c r="I64" s="257"/>
+      <c r="J64" s="150"/>
+      <c r="K64" s="150"/>
+      <c r="L64" s="150"/>
+      <c r="M64" s="150"/>
+      <c r="N64" s="150"/>
+      <c r="O64" s="150"/>
+      <c r="P64" s="158"/>
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
@@ -8412,1191 +8517,1390 @@
       <c r="U67" s="1"/>
     </row>
     <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="249" t="s">
-        <v>105</v>
-      </c>
-      <c r="B68" s="250"/>
-      <c r="C68" s="250"/>
-      <c r="D68" s="250"/>
-      <c r="E68" s="251"/>
-      <c r="F68" s="30"/>
+      <c r="A68" s="168" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="169"/>
+      <c r="C68" s="169"/>
+      <c r="D68" s="169"/>
+      <c r="E68" s="170"/>
+      <c r="F68" s="167"/>
       <c r="G68" s="9"/>
-      <c r="P68" s="259" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q68" s="259"/>
-      <c r="R68" s="259"/>
-      <c r="S68" s="27"/>
-      <c r="U68" s="258" t="s">
-        <v>299</v>
-      </c>
-      <c r="V68" s="258"/>
-      <c r="W68" s="258"/>
-      <c r="X68" s="30"/>
+      <c r="H68" s="151" t="s">
+        <v>311</v>
+      </c>
+      <c r="I68" s="152"/>
+      <c r="J68" s="152"/>
+      <c r="K68" s="153"/>
+      <c r="L68" s="200"/>
+      <c r="M68" s="9"/>
+      <c r="P68" s="182" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q68" s="182"/>
+      <c r="R68" s="182"/>
+      <c r="S68" s="200"/>
+      <c r="U68" s="165" t="s">
+        <v>294</v>
+      </c>
+      <c r="V68" s="165"/>
+      <c r="W68" s="165"/>
+      <c r="X68" s="167"/>
     </row>
     <row r="69" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="197" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="198"/>
+      <c r="D69" s="198"/>
+      <c r="E69" s="199"/>
+      <c r="F69" s="167"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="275" t="s">
+        <v>307</v>
+      </c>
+      <c r="I69" s="275"/>
+      <c r="J69" s="275"/>
+      <c r="K69" s="275"/>
+      <c r="L69" s="200"/>
+      <c r="M69" s="9"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="150" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="9"/>
-      <c r="P69" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q69" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="R69" s="28"/>
-      <c r="S69" s="27"/>
+      <c r="R69" s="150"/>
+      <c r="S69" s="200"/>
       <c r="U69" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="V69" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="W69" s="28"/>
-      <c r="X69" s="30"/>
+      <c r="V69" s="150" t="s">
+        <v>283</v>
+      </c>
+      <c r="W69" s="150"/>
+      <c r="X69" s="167"/>
     </row>
     <row r="70" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="30"/>
+      <c r="C70" s="198"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="199"/>
+      <c r="F70" s="167"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
+      <c r="H70" s="275" t="s">
+        <v>308</v>
+      </c>
+      <c r="I70" s="275"/>
+      <c r="J70" s="275"/>
+      <c r="K70" s="275"/>
+      <c r="L70" s="200"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="12"/>
-      <c r="Q70" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="R70" s="28"/>
-      <c r="S70" s="27"/>
+      <c r="Q70" s="150" t="s">
+        <v>144</v>
+      </c>
+      <c r="R70" s="150"/>
+      <c r="S70" s="200"/>
       <c r="U70" s="20">
         <v>1</v>
       </c>
-      <c r="V70" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="W70" s="28"/>
-      <c r="X70" s="30"/>
+      <c r="V70" s="150" t="s">
+        <v>282</v>
+      </c>
+      <c r="W70" s="150"/>
+      <c r="X70" s="167"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="30"/>
-      <c r="N71" s="176"/>
+      <c r="C71" s="214"/>
+      <c r="D71" s="214"/>
+      <c r="E71" s="215"/>
+      <c r="F71" s="167"/>
+      <c r="H71" s="275" t="s">
+        <v>309</v>
+      </c>
+      <c r="I71" s="275"/>
+      <c r="J71" s="275"/>
+      <c r="K71" s="275"/>
+      <c r="L71" s="200"/>
+      <c r="N71" s="27"/>
       <c r="P71" s="12"/>
-      <c r="Q71" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="R71" s="28"/>
-      <c r="S71" s="27"/>
+      <c r="Q71" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="R71" s="150"/>
+      <c r="S71" s="200"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="30"/>
-      <c r="N72" s="176"/>
+      <c r="C72" s="155"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="156"/>
+      <c r="F72" s="167"/>
+      <c r="N72" s="27"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="30"/>
-      <c r="N73" s="176"/>
-      <c r="U73" s="256" t="s">
-        <v>280</v>
-      </c>
-      <c r="V73" s="257"/>
-      <c r="W73" s="30"/>
+      <c r="C73" s="155"/>
+      <c r="D73" s="155"/>
+      <c r="E73" s="156"/>
+      <c r="F73" s="167"/>
+      <c r="N73" s="27"/>
+      <c r="U73" s="280" t="s">
+        <v>275</v>
+      </c>
+      <c r="V73" s="281"/>
+      <c r="W73" s="167"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="30"/>
-      <c r="N74" s="176"/>
+      <c r="C74" s="155"/>
+      <c r="D74" s="155"/>
+      <c r="E74" s="156"/>
+      <c r="F74" s="167"/>
+      <c r="N74" s="27"/>
       <c r="U74" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="W74" s="30"/>
+        <v>277</v>
+      </c>
+      <c r="W74" s="167"/>
     </row>
     <row r="75" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="154" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="30"/>
-      <c r="N75" s="176"/>
-      <c r="U75" s="247">
+      <c r="C75" s="155"/>
+      <c r="D75" s="155"/>
+      <c r="E75" s="156"/>
+      <c r="F75" s="167"/>
+      <c r="N75" s="27"/>
+      <c r="U75" s="41">
         <v>1</v>
       </c>
       <c r="V75" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="W75" s="30"/>
+      <c r="W75" s="167"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
-      <c r="B76" s="123" t="s">
+      <c r="B76" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="124"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="125"/>
-      <c r="F76" s="30"/>
-      <c r="N76" s="176"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="167"/>
+      <c r="N76" s="27"/>
       <c r="U76" s="6">
         <v>2</v>
       </c>
       <c r="V76" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="W76" s="30"/>
+      <c r="W76" s="167"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
-      <c r="B77" s="123" t="s">
+      <c r="B77" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="124"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="125"/>
-      <c r="F77" s="30"/>
-      <c r="N77" s="176"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="167"/>
+      <c r="N77" s="27"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="124"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="125"/>
-      <c r="F78" s="30"/>
-      <c r="U78" s="248" t="s">
-        <v>283</v>
-      </c>
-      <c r="V78" s="248"/>
-      <c r="W78" s="248"/>
-      <c r="X78" s="27"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="167"/>
+      <c r="U78" s="160" t="s">
+        <v>278</v>
+      </c>
+      <c r="V78" s="160"/>
+      <c r="W78" s="160"/>
+      <c r="X78" s="200"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
-      <c r="B79" s="123" t="s">
+      <c r="B79" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="124"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="125"/>
-      <c r="F79" s="30"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="167"/>
       <c r="U79" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="V79" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="W79" s="28"/>
-      <c r="X79" s="27"/>
+      <c r="V79" s="150" t="s">
+        <v>106</v>
+      </c>
+      <c r="W79" s="150"/>
+      <c r="X79" s="200"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="B80" s="123" t="s">
+      <c r="B80" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="124"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="125"/>
-      <c r="F80" s="30"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="167"/>
       <c r="U80" s="12"/>
-      <c r="V80" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="W80" s="28"/>
-      <c r="X80" s="27"/>
+      <c r="V80" s="150" t="s">
+        <v>285</v>
+      </c>
+      <c r="W80" s="150"/>
+      <c r="X80" s="200"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="U81" s="12"/>
-      <c r="V81" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="W81" s="28"/>
-      <c r="X81" s="27"/>
+      <c r="V81" s="150" t="s">
+        <v>286</v>
+      </c>
+      <c r="W81" s="150"/>
+      <c r="X81" s="200"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="U82" s="12"/>
-      <c r="V82" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="W82" s="28"/>
-      <c r="X82" s="27"/>
+      <c r="V82" s="150" t="s">
+        <v>284</v>
+      </c>
+      <c r="W82" s="150"/>
+      <c r="X82" s="200"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A83" s="252" t="s">
-        <v>275</v>
-      </c>
-      <c r="B83" s="252"/>
-      <c r="C83" s="252"/>
-      <c r="D83" s="252"/>
-      <c r="E83" s="27"/>
-    </row>
-    <row r="84" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="186" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" s="186"/>
+      <c r="C83" s="186"/>
+      <c r="D83" s="186"/>
+      <c r="E83" s="200"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="253" t="s">
-        <v>292</v>
-      </c>
-      <c r="D84" s="253"/>
-      <c r="E84" s="27"/>
-    </row>
-    <row r="85" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="157" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" s="157"/>
+      <c r="E84" s="200"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>1</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="119" t="s">
-        <v>132</v>
-      </c>
-      <c r="D85" s="119"/>
-      <c r="E85" s="27"/>
+        <v>129</v>
+      </c>
+      <c r="C85" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="91"/>
+      <c r="E85" s="200"/>
       <c r="G85" s="9"/>
-      <c r="I85" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="J85" s="40"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="41"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>2</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C86" s="119" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" s="119"/>
-      <c r="E86" s="27"/>
-      <c r="I86" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="J86" s="99"/>
-      <c r="K86" s="99"/>
-      <c r="L86" s="99"/>
-      <c r="M86" s="99"/>
-      <c r="V86" s="255" t="s">
-        <v>294</v>
-      </c>
-      <c r="W86" s="255"/>
-      <c r="X86" s="255"/>
+        <v>131</v>
+      </c>
+      <c r="C86" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="91"/>
+      <c r="E86" s="200"/>
+      <c r="V86" s="166" t="s">
+        <v>289</v>
+      </c>
+      <c r="W86" s="166"/>
+      <c r="X86" s="166"/>
     </row>
     <row r="87" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18">
         <v>3</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="119" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="119"/>
-      <c r="E87" s="27"/>
+        <v>132</v>
+      </c>
+      <c r="C87" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="91"/>
+      <c r="E87" s="200"/>
       <c r="V87" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="W87" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="X87" s="28"/>
+      <c r="W87" s="150" t="s">
+        <v>290</v>
+      </c>
+      <c r="X87" s="150"/>
     </row>
     <row r="88" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I88" s="143" t="s">
-        <v>103</v>
-      </c>
-      <c r="J88" s="144"/>
-      <c r="K88" s="144"/>
-      <c r="L88" s="144"/>
-      <c r="M88" s="144"/>
-      <c r="N88" s="144"/>
-      <c r="O88" s="144"/>
-      <c r="P88" s="144"/>
-      <c r="Q88" s="144"/>
-      <c r="R88" s="144"/>
-      <c r="S88" s="144"/>
-      <c r="T88" s="145"/>
+      <c r="I88" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="J88" s="184"/>
+      <c r="K88" s="184"/>
+      <c r="L88" s="184"/>
+      <c r="M88" s="184"/>
+      <c r="N88" s="184"/>
+      <c r="O88" s="184"/>
+      <c r="P88" s="184"/>
+      <c r="Q88" s="184"/>
+      <c r="R88" s="184"/>
+      <c r="S88" s="184"/>
+      <c r="T88" s="185"/>
       <c r="V88" s="20">
         <v>1</v>
       </c>
-      <c r="W88" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="X88" s="28"/>
+      <c r="W88" s="150" t="s">
+        <v>291</v>
+      </c>
+      <c r="X88" s="150"/>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A89" s="252" t="s">
-        <v>274</v>
-      </c>
-      <c r="B89" s="252"/>
-      <c r="C89" s="252"/>
-      <c r="D89" s="27"/>
-      <c r="I89" s="134" t="s">
+      <c r="A89" s="186" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" s="186"/>
+      <c r="C89" s="186"/>
+      <c r="D89" s="200"/>
+      <c r="I89" s="230" t="s">
         <v>17</v>
       </c>
-      <c r="J89" s="135"/>
-      <c r="K89" s="136"/>
-      <c r="L89" s="134" t="s">
+      <c r="J89" s="231"/>
+      <c r="K89" s="232"/>
+      <c r="L89" s="230" t="s">
         <v>18</v>
       </c>
-      <c r="M89" s="135"/>
-      <c r="N89" s="136"/>
-      <c r="O89" s="137" t="s">
+      <c r="M89" s="231"/>
+      <c r="N89" s="232"/>
+      <c r="O89" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="P89" s="138"/>
-      <c r="Q89" s="139"/>
-      <c r="R89" s="137" t="s">
+      <c r="P89" s="234"/>
+      <c r="Q89" s="235"/>
+      <c r="R89" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="S89" s="138"/>
-      <c r="T89" s="139"/>
+      <c r="S89" s="234"/>
+      <c r="T89" s="235"/>
       <c r="V89" s="20">
         <v>2</v>
       </c>
-      <c r="W89" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="X89" s="28"/>
+      <c r="W89" s="150" t="s">
+        <v>292</v>
+      </c>
+      <c r="X89" s="150"/>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="27"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="105"/>
-      <c r="P90" s="106"/>
-      <c r="Q90" s="107"/>
-      <c r="R90" s="105"/>
-      <c r="S90" s="106"/>
-      <c r="T90" s="107"/>
+      <c r="B90" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="150"/>
+      <c r="D90" s="200"/>
+      <c r="I90" s="150"/>
+      <c r="J90" s="150"/>
+      <c r="K90" s="150"/>
+      <c r="L90" s="150"/>
+      <c r="M90" s="150"/>
+      <c r="N90" s="150"/>
+      <c r="O90" s="236"/>
+      <c r="P90" s="237"/>
+      <c r="Q90" s="238"/>
+      <c r="R90" s="236"/>
+      <c r="S90" s="237"/>
+      <c r="T90" s="238"/>
       <c r="V90" s="20">
         <v>3</v>
       </c>
-      <c r="W90" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="X90" s="28"/>
+      <c r="W90" s="150" t="s">
+        <v>293</v>
+      </c>
+      <c r="X90" s="150"/>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" s="12"/>
-      <c r="B91" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="27"/>
-      <c r="I91" s="35" t="s">
+      <c r="B91" s="150" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="150"/>
+      <c r="D91" s="200"/>
+      <c r="I91" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35" t="s">
+      <c r="J91" s="159"/>
+      <c r="K91" s="159"/>
+      <c r="L91" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35" t="s">
+      <c r="M91" s="159"/>
+      <c r="N91" s="159"/>
+      <c r="O91" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="28"/>
-      <c r="S91" s="28"/>
-      <c r="T91" s="28"/>
+      <c r="P91" s="159"/>
+      <c r="Q91" s="159"/>
+      <c r="R91" s="150"/>
+      <c r="S91" s="150"/>
+      <c r="T91" s="150"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="12"/>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="27"/>
-      <c r="I92" s="103" t="s">
+      <c r="C92" s="150"/>
+      <c r="D92" s="200"/>
+      <c r="I92" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="J92" s="103"/>
-      <c r="K92" s="103"/>
-      <c r="L92" s="103" t="s">
+      <c r="J92" s="226"/>
+      <c r="K92" s="226"/>
+      <c r="L92" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="M92" s="103"/>
-      <c r="N92" s="103"/>
-      <c r="O92" s="98"/>
-      <c r="P92" s="98"/>
-      <c r="Q92" s="98"/>
-      <c r="R92" s="28"/>
-      <c r="S92" s="28"/>
-      <c r="T92" s="28"/>
+      <c r="M92" s="226"/>
+      <c r="N92" s="226"/>
+      <c r="O92" s="227"/>
+      <c r="P92" s="227"/>
+      <c r="Q92" s="227"/>
+      <c r="R92" s="150"/>
+      <c r="S92" s="150"/>
+      <c r="T92" s="150"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I93" s="35" t="s">
+      <c r="I93" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35" t="s">
+      <c r="J93" s="159"/>
+      <c r="K93" s="159"/>
+      <c r="L93" s="159"/>
+      <c r="M93" s="159"/>
+      <c r="N93" s="159"/>
+      <c r="O93" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="28"/>
-      <c r="S93" s="28"/>
-      <c r="T93" s="28"/>
+      <c r="P93" s="159"/>
+      <c r="Q93" s="159"/>
+      <c r="R93" s="150"/>
+      <c r="S93" s="150"/>
+      <c r="T93" s="150"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I94" s="35" t="s">
+      <c r="I94" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35" t="s">
+      <c r="J94" s="159"/>
+      <c r="K94" s="159"/>
+      <c r="L94" s="159"/>
+      <c r="M94" s="159"/>
+      <c r="N94" s="159"/>
+      <c r="O94" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="28"/>
-      <c r="S94" s="28"/>
-      <c r="T94" s="28"/>
+      <c r="P94" s="159"/>
+      <c r="Q94" s="159"/>
+      <c r="R94" s="150"/>
+      <c r="S94" s="150"/>
+      <c r="T94" s="150"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I95" s="103" t="s">
+      <c r="I95" s="226" t="s">
         <v>32</v>
       </c>
-      <c r="J95" s="103"/>
-      <c r="K95" s="103"/>
-      <c r="L95" s="103" t="s">
+      <c r="J95" s="226"/>
+      <c r="K95" s="226"/>
+      <c r="L95" s="226" t="s">
         <v>31</v>
       </c>
-      <c r="M95" s="103"/>
-      <c r="N95" s="103"/>
-      <c r="O95" s="98"/>
-      <c r="P95" s="98"/>
-      <c r="Q95" s="98"/>
-      <c r="R95" s="28"/>
-      <c r="S95" s="28"/>
-      <c r="T95" s="28"/>
+      <c r="M95" s="226"/>
+      <c r="N95" s="226"/>
+      <c r="O95" s="227"/>
+      <c r="P95" s="227"/>
+      <c r="Q95" s="227"/>
+      <c r="R95" s="150"/>
+      <c r="S95" s="150"/>
+      <c r="T95" s="150"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A96" s="263" t="s">
-        <v>306</v>
-      </c>
-      <c r="B96" s="263"/>
-      <c r="C96" s="263"/>
-      <c r="D96" s="263"/>
-      <c r="E96" s="263"/>
-      <c r="F96" s="263"/>
-      <c r="G96" s="27"/>
-      <c r="I96" s="32" t="s">
+      <c r="A96" s="193" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" s="193"/>
+      <c r="C96" s="193"/>
+      <c r="D96" s="193"/>
+      <c r="E96" s="193"/>
+      <c r="F96" s="193"/>
+      <c r="G96" s="200"/>
+      <c r="I96" s="151" t="s">
         <v>68</v>
       </c>
-      <c r="J96" s="33"/>
-      <c r="K96" s="34"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="38"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
-      <c r="Q96" s="28"/>
-      <c r="R96" s="28"/>
-      <c r="S96" s="28"/>
-      <c r="T96" s="28"/>
+      <c r="J96" s="152"/>
+      <c r="K96" s="153"/>
+      <c r="L96" s="154"/>
+      <c r="M96" s="155"/>
+      <c r="N96" s="156"/>
+      <c r="O96" s="150"/>
+      <c r="P96" s="150"/>
+      <c r="Q96" s="150"/>
+      <c r="R96" s="150"/>
+      <c r="S96" s="150"/>
+      <c r="T96" s="150"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A97" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="27"/>
-      <c r="I97" s="35" t="s">
+      <c r="A97" s="159" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="159"/>
+      <c r="C97" s="159"/>
+      <c r="D97" s="159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="159"/>
+      <c r="F97" s="159"/>
+      <c r="G97" s="200"/>
+      <c r="I97" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35" t="s">
+      <c r="J97" s="159"/>
+      <c r="K97" s="159"/>
+      <c r="L97" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="28"/>
-      <c r="P97" s="28"/>
-      <c r="Q97" s="28"/>
-      <c r="R97" s="28"/>
-      <c r="S97" s="28"/>
-      <c r="T97" s="28"/>
+      <c r="M97" s="159"/>
+      <c r="N97" s="159"/>
+      <c r="O97" s="150"/>
+      <c r="P97" s="150"/>
+      <c r="Q97" s="150"/>
+      <c r="R97" s="150"/>
+      <c r="S97" s="150"/>
+      <c r="T97" s="150"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A98" s="35" t="s">
+      <c r="A98" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35" t="s">
+      <c r="B98" s="159"/>
+      <c r="C98" s="159"/>
+      <c r="D98" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="27"/>
-      <c r="I98" s="35" t="s">
+      <c r="E98" s="159"/>
+      <c r="F98" s="159"/>
+      <c r="G98" s="200"/>
+      <c r="I98" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
-      <c r="N98" s="28"/>
-      <c r="O98" s="28"/>
-      <c r="P98" s="28"/>
-      <c r="Q98" s="28"/>
-      <c r="R98" s="28"/>
-      <c r="S98" s="28"/>
-      <c r="T98" s="28"/>
+      <c r="J98" s="159"/>
+      <c r="K98" s="159"/>
+      <c r="L98" s="150"/>
+      <c r="M98" s="150"/>
+      <c r="N98" s="150"/>
+      <c r="O98" s="150"/>
+      <c r="P98" s="150"/>
+      <c r="Q98" s="150"/>
+      <c r="R98" s="150"/>
+      <c r="S98" s="150"/>
+      <c r="T98" s="150"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A99" s="35" t="s">
+      <c r="A99" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35" t="s">
+      <c r="B99" s="159"/>
+      <c r="C99" s="159"/>
+      <c r="D99" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="27"/>
-      <c r="I99" s="35" t="s">
+      <c r="E99" s="159"/>
+      <c r="F99" s="159"/>
+      <c r="G99" s="200"/>
+      <c r="I99" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28"/>
-      <c r="N99" s="28"/>
-      <c r="O99" s="28"/>
-      <c r="P99" s="28"/>
-      <c r="Q99" s="28"/>
-      <c r="R99" s="28"/>
-      <c r="S99" s="28"/>
-      <c r="T99" s="28"/>
+      <c r="J99" s="159"/>
+      <c r="K99" s="159"/>
+      <c r="L99" s="150"/>
+      <c r="M99" s="150"/>
+      <c r="N99" s="150"/>
+      <c r="O99" s="150"/>
+      <c r="P99" s="150"/>
+      <c r="Q99" s="150"/>
+      <c r="R99" s="150"/>
+      <c r="S99" s="150"/>
+      <c r="T99" s="150"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A100" s="35" t="s">
+      <c r="A100" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="27"/>
-      <c r="I100" s="35" t="s">
+      <c r="B100" s="159"/>
+      <c r="C100" s="159"/>
+      <c r="D100" s="159" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="159"/>
+      <c r="F100" s="159"/>
+      <c r="G100" s="200"/>
+      <c r="I100" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-      <c r="L100" s="35" t="s">
+      <c r="J100" s="159"/>
+      <c r="K100" s="159"/>
+      <c r="L100" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="35"/>
-      <c r="N100" s="35"/>
-      <c r="O100" s="28"/>
-      <c r="P100" s="28"/>
-      <c r="Q100" s="28"/>
-      <c r="R100" s="28"/>
-      <c r="S100" s="28"/>
-      <c r="T100" s="28"/>
+      <c r="M100" s="159"/>
+      <c r="N100" s="159"/>
+      <c r="O100" s="150"/>
+      <c r="P100" s="150"/>
+      <c r="Q100" s="150"/>
+      <c r="R100" s="150"/>
+      <c r="S100" s="150"/>
+      <c r="T100" s="150"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I101" s="68" t="s">
+      <c r="I101" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="J101" s="69"/>
-      <c r="K101" s="70"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="28"/>
-      <c r="N101" s="28"/>
-      <c r="O101" s="28"/>
-      <c r="P101" s="28"/>
-      <c r="Q101" s="28"/>
-      <c r="R101" s="28"/>
-      <c r="S101" s="28"/>
-      <c r="T101" s="28"/>
+      <c r="J101" s="202"/>
+      <c r="K101" s="203"/>
+      <c r="L101" s="150"/>
+      <c r="M101" s="150"/>
+      <c r="N101" s="150"/>
+      <c r="O101" s="150"/>
+      <c r="P101" s="150"/>
+      <c r="Q101" s="150"/>
+      <c r="R101" s="150"/>
+      <c r="S101" s="150"/>
+      <c r="T101" s="150"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I102" s="94"/>
-      <c r="J102" s="95"/>
-      <c r="K102" s="96"/>
-      <c r="L102" s="28"/>
-      <c r="M102" s="28"/>
-      <c r="N102" s="28"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="28"/>
-      <c r="S102" s="28"/>
-      <c r="T102" s="28"/>
+      <c r="I102" s="216"/>
+      <c r="J102" s="217"/>
+      <c r="K102" s="218"/>
+      <c r="L102" s="150"/>
+      <c r="M102" s="150"/>
+      <c r="N102" s="150"/>
+      <c r="O102" s="150"/>
+      <c r="P102" s="150"/>
+      <c r="Q102" s="150"/>
+      <c r="R102" s="150"/>
+      <c r="S102" s="150"/>
+      <c r="T102" s="150"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I103" s="68" t="s">
+      <c r="I103" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="J103" s="69"/>
-      <c r="K103" s="70"/>
-      <c r="L103" s="74" t="s">
+      <c r="J103" s="202"/>
+      <c r="K103" s="203"/>
+      <c r="L103" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="M103" s="75"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="92"/>
-      <c r="P103" s="31"/>
-      <c r="Q103" s="93"/>
-      <c r="R103" s="92"/>
-      <c r="S103" s="31"/>
-      <c r="T103" s="93"/>
+      <c r="M103" s="208"/>
+      <c r="N103" s="209"/>
+      <c r="O103" s="187"/>
+      <c r="P103" s="188"/>
+      <c r="Q103" s="189"/>
+      <c r="R103" s="187"/>
+      <c r="S103" s="188"/>
+      <c r="T103" s="189"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I104" s="71"/>
-      <c r="J104" s="72"/>
-      <c r="K104" s="73"/>
-      <c r="L104" s="77"/>
-      <c r="M104" s="78"/>
-      <c r="N104" s="79"/>
-      <c r="O104" s="45"/>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="47"/>
-      <c r="R104" s="45"/>
-      <c r="S104" s="46"/>
-      <c r="T104" s="47"/>
+      <c r="I104" s="204"/>
+      <c r="J104" s="205"/>
+      <c r="K104" s="206"/>
+      <c r="L104" s="210"/>
+      <c r="M104" s="211"/>
+      <c r="N104" s="212"/>
+      <c r="O104" s="213"/>
+      <c r="P104" s="214"/>
+      <c r="Q104" s="215"/>
+      <c r="R104" s="213"/>
+      <c r="S104" s="214"/>
+      <c r="T104" s="215"/>
     </row>
     <row r="105" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I105" s="35" t="s">
+      <c r="I105" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
-      <c r="L105" s="35" t="s">
+      <c r="J105" s="159"/>
+      <c r="K105" s="159"/>
+      <c r="L105" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="M105" s="35"/>
-      <c r="N105" s="35"/>
-      <c r="O105" s="146" t="s">
+      <c r="M105" s="159"/>
+      <c r="N105" s="159"/>
+      <c r="O105" s="220" t="s">
         <v>72</v>
       </c>
-      <c r="P105" s="80"/>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="92"/>
-      <c r="S105" s="31"/>
-      <c r="T105" s="93"/>
+      <c r="P105" s="221"/>
+      <c r="Q105" s="222"/>
+      <c r="R105" s="187"/>
+      <c r="S105" s="188"/>
+      <c r="T105" s="189"/>
     </row>
     <row r="106" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="264" t="s">
-        <v>126</v>
-      </c>
-      <c r="B106" s="265"/>
-      <c r="C106" s="265"/>
-      <c r="D106" s="265"/>
-      <c r="E106" s="266"/>
-      <c r="F106" s="30"/>
-      <c r="I106" s="35" t="s">
+      <c r="A106" s="277" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="278"/>
+      <c r="C106" s="278"/>
+      <c r="D106" s="278"/>
+      <c r="E106" s="279"/>
+      <c r="F106" s="167"/>
+      <c r="I106" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="J106" s="35"/>
-      <c r="K106" s="35"/>
-      <c r="L106" s="35" t="s">
+      <c r="J106" s="159"/>
+      <c r="K106" s="159"/>
+      <c r="L106" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="M106" s="35"/>
-      <c r="N106" s="35"/>
-      <c r="O106" s="147"/>
-      <c r="P106" s="148"/>
-      <c r="Q106" s="149"/>
-      <c r="R106" s="150"/>
-      <c r="S106" s="151"/>
-      <c r="T106" s="152"/>
+      <c r="M106" s="159"/>
+      <c r="N106" s="159"/>
+      <c r="O106" s="223"/>
+      <c r="P106" s="224"/>
+      <c r="Q106" s="225"/>
+      <c r="R106" s="190"/>
+      <c r="S106" s="191"/>
+      <c r="T106" s="192"/>
     </row>
     <row r="107" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="132" t="s">
+      <c r="B107" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="C107" s="132"/>
-      <c r="D107" s="132"/>
-      <c r="E107" s="133"/>
-      <c r="F107" s="30"/>
-      <c r="I107" s="35" t="s">
+      <c r="C107" s="175"/>
+      <c r="D107" s="175"/>
+      <c r="E107" s="176"/>
+      <c r="F107" s="167"/>
+      <c r="I107" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="J107" s="35"/>
-      <c r="K107" s="35"/>
-      <c r="L107" s="35" t="s">
+      <c r="J107" s="159"/>
+      <c r="K107" s="159"/>
+      <c r="L107" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="M107" s="35"/>
-      <c r="N107" s="35"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="28"/>
-      <c r="Q107" s="28"/>
-      <c r="R107" s="28"/>
-      <c r="S107" s="28"/>
-      <c r="T107" s="28"/>
+      <c r="M107" s="159"/>
+      <c r="N107" s="159"/>
+      <c r="O107" s="150"/>
+      <c r="P107" s="150"/>
+      <c r="Q107" s="150"/>
+      <c r="R107" s="150"/>
+      <c r="S107" s="150"/>
+      <c r="T107" s="150"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
-      <c r="B108" s="99" t="s">
+      <c r="B108" s="228" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="99"/>
-      <c r="D108" s="99"/>
-      <c r="E108" s="99"/>
-      <c r="F108" s="30"/>
-      <c r="I108" s="157" t="s">
+      <c r="C108" s="228"/>
+      <c r="D108" s="228"/>
+      <c r="E108" s="228"/>
+      <c r="F108" s="167"/>
+      <c r="I108" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="J108" s="157"/>
-      <c r="K108" s="157"/>
-      <c r="L108" s="35" t="s">
+      <c r="J108" s="174"/>
+      <c r="K108" s="174"/>
+      <c r="L108" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="M108" s="35"/>
-      <c r="N108" s="35"/>
-      <c r="O108" s="28"/>
-      <c r="P108" s="28"/>
-      <c r="Q108" s="28"/>
-      <c r="R108" s="28"/>
-      <c r="S108" s="28"/>
-      <c r="T108" s="28"/>
+      <c r="M108" s="159"/>
+      <c r="N108" s="159"/>
+      <c r="O108" s="150"/>
+      <c r="P108" s="150"/>
+      <c r="Q108" s="150"/>
+      <c r="R108" s="150"/>
+      <c r="S108" s="150"/>
+      <c r="T108" s="150"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109" s="12"/>
-      <c r="B109" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="30"/>
+      <c r="B109" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="150"/>
+      <c r="D109" s="150"/>
+      <c r="E109" s="150"/>
+      <c r="F109" s="167"/>
     </row>
     <row r="110" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12"/>
-      <c r="B110" s="28" t="s">
+      <c r="B110" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="30"/>
+      <c r="C110" s="150"/>
+      <c r="D110" s="150"/>
+      <c r="E110" s="150"/>
+      <c r="F110" s="167"/>
     </row>
     <row r="111" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12"/>
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="30"/>
-      <c r="I111" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="J111" s="144"/>
-      <c r="K111" s="144"/>
-      <c r="L111" s="144"/>
-      <c r="M111" s="144"/>
-      <c r="N111" s="145"/>
-      <c r="O111" s="30"/>
+      <c r="C111" s="150"/>
+      <c r="D111" s="150"/>
+      <c r="E111" s="150"/>
+      <c r="F111" s="167"/>
+      <c r="I111" s="183" t="s">
+        <v>136</v>
+      </c>
+      <c r="J111" s="184"/>
+      <c r="K111" s="184"/>
+      <c r="L111" s="184"/>
+      <c r="M111" s="184"/>
+      <c r="N111" s="185"/>
+      <c r="O111" s="167"/>
       <c r="R111" s="16"/>
-      <c r="S111" s="28" t="s">
+      <c r="S111" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="T111" s="28"/>
-      <c r="U111" s="28"/>
-      <c r="V111" s="99" t="s">
+      <c r="T111" s="150"/>
+      <c r="U111" s="150"/>
+      <c r="V111" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="W111" s="99"/>
-      <c r="X111" s="99"/>
+      <c r="W111" s="228"/>
+      <c r="X111" s="228"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112" s="12"/>
-      <c r="B112" s="28" t="s">
+      <c r="B112" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="30"/>
-      <c r="I112" s="140" t="s">
+      <c r="C112" s="150"/>
+      <c r="D112" s="150"/>
+      <c r="E112" s="150"/>
+      <c r="F112" s="167"/>
+      <c r="I112" s="219" t="s">
         <v>42</v>
       </c>
-      <c r="J112" s="140"/>
-      <c r="K112" s="140"/>
-      <c r="L112" s="140" t="s">
+      <c r="J112" s="219"/>
+      <c r="K112" s="219"/>
+      <c r="L112" s="219" t="s">
         <v>43</v>
       </c>
-      <c r="M112" s="140"/>
-      <c r="N112" s="140"/>
-      <c r="O112" s="30"/>
+      <c r="M112" s="219"/>
+      <c r="N112" s="219"/>
+      <c r="O112" s="167"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="12"/>
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="30"/>
-      <c r="I113" s="35" t="s">
+      <c r="C113" s="150"/>
+      <c r="D113" s="150"/>
+      <c r="E113" s="150"/>
+      <c r="F113" s="167"/>
+      <c r="I113" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="J113" s="35"/>
-      <c r="K113" s="35"/>
-      <c r="L113" s="35" t="s">
+      <c r="J113" s="159"/>
+      <c r="K113" s="159"/>
+      <c r="L113" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="M113" s="35"/>
-      <c r="N113" s="35"/>
-      <c r="O113" s="30"/>
+      <c r="M113" s="159"/>
+      <c r="N113" s="159"/>
+      <c r="O113" s="167"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="12"/>
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="30"/>
-      <c r="I114" s="35" t="s">
+      <c r="C114" s="150"/>
+      <c r="D114" s="150"/>
+      <c r="E114" s="150"/>
+      <c r="F114" s="167"/>
+      <c r="I114" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="J114" s="35"/>
-      <c r="K114" s="35"/>
-      <c r="L114" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="M114" s="28"/>
-      <c r="N114" s="28"/>
-      <c r="O114" s="30"/>
+      <c r="J114" s="159"/>
+      <c r="K114" s="159"/>
+      <c r="L114" s="164" t="s">
+        <v>123</v>
+      </c>
+      <c r="M114" s="150"/>
+      <c r="N114" s="150"/>
+      <c r="O114" s="167"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="12"/>
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="30"/>
-      <c r="I115" s="35" t="s">
+      <c r="C115" s="150"/>
+      <c r="D115" s="150"/>
+      <c r="E115" s="150"/>
+      <c r="F115" s="167"/>
+      <c r="I115" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="J115" s="35"/>
-      <c r="K115" s="35"/>
-      <c r="L115" s="29" t="s">
+      <c r="J115" s="159"/>
+      <c r="K115" s="159"/>
+      <c r="L115" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="M115" s="28"/>
-      <c r="N115" s="28"/>
-      <c r="O115" s="30"/>
+      <c r="M115" s="150"/>
+      <c r="N115" s="150"/>
+      <c r="O115" s="167"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="12"/>
-      <c r="B116" s="28" t="s">
+      <c r="B116" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="30"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
-      <c r="K116" s="31"/>
+      <c r="C116" s="150"/>
+      <c r="D116" s="150"/>
+      <c r="E116" s="150"/>
+      <c r="F116" s="167"/>
+      <c r="I116" s="188"/>
+      <c r="J116" s="188"/>
+      <c r="K116" s="188"/>
     </row>
     <row r="117" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="260" t="s">
-        <v>143</v>
-      </c>
-      <c r="B118" s="261"/>
-      <c r="C118" s="262"/>
-      <c r="D118" s="27"/>
+      <c r="A118" s="171" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="172"/>
+      <c r="C118" s="173"/>
+      <c r="D118" s="200"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B119" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" s="228" t="s">
         <v>84</v>
       </c>
-      <c r="C119" s="99"/>
-      <c r="D119" s="27"/>
-      <c r="I119" s="120" t="s">
+      <c r="C119" s="228"/>
+      <c r="D119" s="200"/>
+      <c r="I119" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="J119" s="120"/>
-      <c r="K119" s="120"/>
-      <c r="L119" s="120"/>
-      <c r="M119" s="120"/>
-      <c r="N119" s="120"/>
-      <c r="O119" s="120"/>
-      <c r="P119" s="118" t="s">
-        <v>307</v>
+      <c r="J119" s="177"/>
+      <c r="K119" s="177"/>
+      <c r="L119" s="177"/>
+      <c r="M119" s="177"/>
+      <c r="N119" s="177"/>
+      <c r="O119" s="177"/>
+      <c r="P119" s="229" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C120" s="28"/>
-      <c r="D120" s="27"/>
+        <v>130</v>
+      </c>
+      <c r="B120" s="150" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="150"/>
+      <c r="D120" s="200"/>
       <c r="I120" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J120" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="K120" s="28"/>
-      <c r="L120" s="28"/>
-      <c r="M120" s="28" t="s">
+      <c r="J120" s="150" t="s">
+        <v>101</v>
+      </c>
+      <c r="K120" s="150"/>
+      <c r="L120" s="150"/>
+      <c r="M120" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="N120" s="28"/>
-      <c r="O120" s="28"/>
-      <c r="P120" s="118"/>
+      <c r="N120" s="150"/>
+      <c r="O120" s="150"/>
+      <c r="P120" s="229"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C121" s="28"/>
-      <c r="D121" s="27"/>
+        <v>134</v>
+      </c>
+      <c r="B121" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" s="150"/>
+      <c r="D121" s="200"/>
       <c r="I121" s="16"/>
-      <c r="J121" s="36" t="s">
+      <c r="J121" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="K121" s="37"/>
-      <c r="L121" s="38"/>
-      <c r="M121" s="36" t="s">
+      <c r="K121" s="155"/>
+      <c r="L121" s="156"/>
+      <c r="M121" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="N121" s="37"/>
-      <c r="O121" s="38"/>
-      <c r="P121" s="118"/>
+      <c r="N121" s="155"/>
+      <c r="O121" s="156"/>
+      <c r="P121" s="229"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="C122" s="28"/>
-      <c r="D122" s="27"/>
+        <v>135</v>
+      </c>
+      <c r="B122" s="150" t="s">
+        <v>298</v>
+      </c>
+      <c r="C122" s="150"/>
+      <c r="D122" s="200"/>
       <c r="I122" s="16"/>
-      <c r="J122" s="98" t="s">
+      <c r="J122" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="K122" s="98"/>
-      <c r="L122" s="98"/>
-      <c r="M122" s="28" t="s">
+      <c r="K122" s="227"/>
+      <c r="L122" s="227"/>
+      <c r="M122" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="N122" s="28"/>
-      <c r="O122" s="28"/>
-      <c r="P122" s="118"/>
+      <c r="N122" s="150"/>
+      <c r="O122" s="150"/>
+      <c r="P122" s="229"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I123" s="16"/>
-      <c r="J123" s="28" t="s">
+      <c r="J123" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="28"/>
-      <c r="L123" s="28"/>
-      <c r="M123" s="28" t="s">
+      <c r="K123" s="150"/>
+      <c r="L123" s="150"/>
+      <c r="M123" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="N123" s="28"/>
-      <c r="O123" s="28"/>
-      <c r="P123" s="118"/>
+      <c r="N123" s="150"/>
+      <c r="O123" s="150"/>
+      <c r="P123" s="229"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I124" s="16"/>
-      <c r="J124" s="28" t="s">
+      <c r="J124" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="K124" s="28"/>
-      <c r="L124" s="28"/>
-      <c r="M124" s="28" t="s">
+      <c r="K124" s="150"/>
+      <c r="L124" s="150"/>
+      <c r="M124" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N124" s="28"/>
-      <c r="O124" s="28"/>
-      <c r="P124" s="118"/>
+      <c r="N124" s="150"/>
+      <c r="O124" s="150"/>
+      <c r="P124" s="229"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I125" s="16"/>
-      <c r="J125" s="28" t="s">
+      <c r="J125" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="K125" s="28"/>
-      <c r="L125" s="28"/>
-      <c r="M125" s="28" t="s">
+      <c r="K125" s="150"/>
+      <c r="L125" s="150"/>
+      <c r="M125" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="N125" s="28"/>
-      <c r="O125" s="28"/>
-      <c r="P125" s="118"/>
+      <c r="N125" s="150"/>
+      <c r="O125" s="150"/>
+      <c r="P125" s="229"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I126" s="16"/>
-      <c r="J126" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="K126" s="28"/>
-      <c r="L126" s="28"/>
-      <c r="M126" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="N126" s="99"/>
-      <c r="O126" s="99"/>
-      <c r="P126" s="118"/>
+      <c r="J126" s="150" t="s">
+        <v>299</v>
+      </c>
+      <c r="K126" s="150"/>
+      <c r="L126" s="150"/>
+      <c r="M126" s="228" t="s">
+        <v>172</v>
+      </c>
+      <c r="N126" s="228"/>
+      <c r="O126" s="228"/>
+      <c r="P126" s="229"/>
     </row>
   </sheetData>
-  <mergeCells count="346">
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="R95:T95"/>
-    <mergeCell ref="I96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="R96:T96"/>
+  <mergeCells count="351">
+    <mergeCell ref="X78:X82"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="O111:O115"/>
+    <mergeCell ref="W73:W76"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="X31:X33"/>
+    <mergeCell ref="X23:X26"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="S68:S71"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="R99:T99"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G96:G100"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="J27:L28"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D41:F42"/>
+    <mergeCell ref="G41:I42"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="M41:O42"/>
+    <mergeCell ref="D38:F39"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:L26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="J41:L42"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M27:O28"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="R98:T98"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="O89:Q90"/>
+    <mergeCell ref="R89:T90"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="M19:O20"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="R97:T97"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="V111:X111"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="I119:O119"/>
+    <mergeCell ref="F106:F116"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="J120:L120"/>
+    <mergeCell ref="S111:U111"/>
+    <mergeCell ref="P119:P126"/>
+    <mergeCell ref="I116:K116"/>
+    <mergeCell ref="J126:L126"/>
+    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="J124:L124"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="R92:T92"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="O95:Q95"/>
     <mergeCell ref="I97:K97"/>
     <mergeCell ref="L97:N97"/>
     <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="W87:X87"/>
-    <mergeCell ref="W88:X88"/>
-    <mergeCell ref="W89:X89"/>
-    <mergeCell ref="W90:X90"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="I107:K107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="O107:Q107"/>
-    <mergeCell ref="R107:T107"/>
-    <mergeCell ref="I108:K108"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="O108:Q108"/>
-    <mergeCell ref="R108:T108"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="I112:K112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="I111:N111"/>
+    <mergeCell ref="O105:Q106"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="O99:Q99"/>
     <mergeCell ref="R105:T106"/>
     <mergeCell ref="I106:K106"/>
     <mergeCell ref="L106:N106"/>
@@ -9621,6 +9925,19 @@
     <mergeCell ref="R101:T101"/>
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="B90:C90"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M31:O31"/>
     <mergeCell ref="P68:R68"/>
     <mergeCell ref="Q69:R69"/>
     <mergeCell ref="B91:C91"/>
@@ -9632,10 +9949,61 @@
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="I107:K107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="R107:T107"/>
+    <mergeCell ref="I108:K108"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="O108:Q108"/>
+    <mergeCell ref="R108:T108"/>
+    <mergeCell ref="I113:K113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="I115:K115"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="U78:W78"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="W87:X87"/>
+    <mergeCell ref="W88:X88"/>
+    <mergeCell ref="W89:X89"/>
+    <mergeCell ref="W90:X90"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="R91:T91"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="I96:K96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="R96:T96"/>
     <mergeCell ref="C84:D84"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="I85:M85"/>
     <mergeCell ref="M37:O37"/>
     <mergeCell ref="M36:O36"/>
     <mergeCell ref="J36:L36"/>
@@ -9645,260 +10013,11 @@
     <mergeCell ref="M59:O59"/>
     <mergeCell ref="M64:O64"/>
     <mergeCell ref="P55:P64"/>
-    <mergeCell ref="I113:K113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="L114:N114"/>
-    <mergeCell ref="I115:K115"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="I93:K93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="I94:K94"/>
-    <mergeCell ref="L94:N94"/>
     <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="I112:K112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="I111:N111"/>
-    <mergeCell ref="O105:Q106"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="I105:K105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="R98:T98"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="I89:K89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="O89:Q90"/>
-    <mergeCell ref="R89:T90"/>
-    <mergeCell ref="I90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="I91:K91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="O91:Q91"/>
-    <mergeCell ref="R91:T91"/>
-    <mergeCell ref="R97:T97"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="R92:T92"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="R99:T99"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="J124:L124"/>
-    <mergeCell ref="M124:O124"/>
-    <mergeCell ref="J125:L125"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="J121:L121"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="J126:L126"/>
-    <mergeCell ref="M126:O126"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="V111:X111"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="I119:O119"/>
-    <mergeCell ref="F106:F116"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="J120:L120"/>
-    <mergeCell ref="S111:U111"/>
     <mergeCell ref="B76:E76"/>
     <mergeCell ref="B77:E77"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="A25:C26"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="J19:L20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="M19:O20"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M27:O28"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="J41:L42"/>
-    <mergeCell ref="M41:O42"/>
-    <mergeCell ref="D38:F39"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D41:F42"/>
-    <mergeCell ref="G41:I42"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G96:G100"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:L26"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="J27:L28"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="P119:P126"/>
-    <mergeCell ref="I116:K116"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="U78:W78"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="S68:S71"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="X78:X82"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="O111:O115"/>
-    <mergeCell ref="W73:W76"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="U73:V73"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A59:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9914,6 +10033,8 @@
     <hyperlink ref="A118:C118" location="'ED01'!A24" display="TYPE" xr:uid="{A9827336-5156-45C6-8A7D-42C9A58589C3}"/>
     <hyperlink ref="A96:F96" location="'ED01'!A43" display="ETAPE" xr:uid="{6BF08628-CA84-45BA-AEC5-ECDA64E26D82}"/>
     <hyperlink ref="A106:E106" location="'ED01'!A56" display="PROCESSUS" xr:uid="{BB1B986A-A143-4609-BD2D-0A4DE233F295}"/>
+    <hyperlink ref="R31:W31" location="'ED01'!A54" display="PER_DOCMENTATION" xr:uid="{B1C69F82-86BA-461F-9D7E-3C1E1BBFE617}"/>
+    <hyperlink ref="R23:W23" location="'ED01'!A51" display="Documentation Projet" xr:uid="{6DFD7547-690C-43AD-9C85-10F0DBB7D811}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Projet Active .xlsx
+++ b/Projet Active .xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Documents\4 Formation CDA\2 Exercice Prof\2 ECF 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C98165-22A3-4CFF-939A-E65DFB388FE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6A1BA2-E228-4B47-A1A4-C2B081597D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ED01" sheetId="2" r:id="rId1"/>
-    <sheet name="table" sheetId="1" r:id="rId2"/>
+    <sheet name="table 2" sheetId="3" r:id="rId2"/>
+    <sheet name="table" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -681,6 +682,65 @@
     <author>Maxime</author>
   </authors>
   <commentList>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{9C06837D-5F10-44ED-A050-54AE020B8D2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Maxime:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+STATUS des collaborateur
+ </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="0" shapeId="0" xr:uid="{9C033AAE-BDA2-4AD3-A815-8FAE800F0EFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Maxime:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Exemple : (« agro »,…), </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maxime</author>
+  </authors>
+  <commentList>
     <comment ref="U68" authorId="0" shapeId="0" xr:uid="{C58BE76A-1E98-4017-9CF3-D5C2AC7EFFAD}">
       <text>
         <r>
@@ -759,7 +819,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="323">
   <si>
     <t>type de données</t>
   </si>
@@ -3382,6 +3442,24 @@
   </si>
   <si>
     <t>retour d'expérience (dans étape )</t>
+  </si>
+  <si>
+    <t>Table : PERMISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table : PROCESSUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table : CYCLE_VIE </t>
+  </si>
+  <si>
+    <t>Table : SECTEUR</t>
+  </si>
+  <si>
+    <t>TABEL : CLIENT</t>
+  </si>
+  <si>
+    <t>ENUM</t>
   </si>
 </sst>
 </file>
@@ -4091,7 +4169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4246,12 +4324,228 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4300,209 +4594,372 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4510,67 +4967,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4591,317 +5000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5192,45 +5291,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FE0FAB-9E98-47D7-A836-A5D2B83CA8C9}">
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="11.5546875" style="25"/>
-    <col min="12" max="12" width="12.6640625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="25" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="25"/>
+    <col min="1" max="1" width="42.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11.5703125" style="25"/>
+    <col min="12" max="12" width="12.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="25" customWidth="1"/>
+    <col min="14" max="16384" width="11.5703125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="146" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="E2" s="134" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="E2" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="16" t="s">
         <v>202</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>158</v>
       </c>
@@ -5238,23 +5337,23 @@
       <c r="C3" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="38" t="s">
         <v>203</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>274</v>
       </c>
@@ -5262,23 +5361,23 @@
       <c r="C4" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="137"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="73"/>
       <c r="M4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>146</v>
       </c>
@@ -5286,23 +5385,23 @@
       <c r="C5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>297</v>
       </c>
@@ -5310,21 +5409,23 @@
       <c r="C6" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="21"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="62" t="s">
+        <v>1</v>
+      </c>
       <c r="N6"/>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>288</v>
       </c>
@@ -5332,23 +5433,23 @@
       <c r="C7" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="139"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
       <c r="M7" s="22" t="s">
         <v>1</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>149</v>
       </c>
@@ -5356,19 +5457,19 @@
       <c r="C8" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="129"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>150</v>
       </c>
@@ -5376,19 +5477,19 @@
       <c r="C9" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="132"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="90"/>
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>152</v>
       </c>
@@ -5397,25 +5498,25 @@
         <v>153</v>
       </c>
       <c r="D10" s="37"/>
-      <c r="E10" s="144" t="s">
+      <c r="E10" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144" t="s">
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="91" t="s">
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="96" t="s">
         <v>1</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>228</v>
       </c>
@@ -5423,23 +5524,23 @@
       <c r="C11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="136" t="s">
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="91"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="96"/>
       <c r="N11"/>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>229</v>
       </c>
@@ -5447,21 +5548,21 @@
       <c r="C12" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="144" t="s">
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="91"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="96"/>
       <c r="N12"/>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>266</v>
       </c>
@@ -5469,19 +5570,19 @@
       <c r="C13" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
       <c r="N13"/>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>267</v>
       </c>
@@ -5490,19 +5591,19 @@
         <v>147</v>
       </c>
       <c r="D14" s="47"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="83"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>154</v>
       </c>
@@ -5511,44 +5612,44 @@
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="113"/>
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="59" t="s">
         <v>313</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="47"/>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="143" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="L16" s="143"/>
-      <c r="M16" s="91" t="s">
+      <c r="L16" s="79"/>
+      <c r="M16" s="96" t="s">
         <v>1</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>156</v>
       </c>
@@ -5559,21 +5660,21 @@
         <v>148</v>
       </c>
       <c r="D17" s="47"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="136" t="s">
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="136"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="91"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="96"/>
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="39" t="s">
         <v>160</v>
@@ -5581,75 +5682,75 @@
       <c r="C18" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="136" t="s">
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="136"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="91"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="96"/>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="Q18" s="62" t="s">
+      <c r="Q18" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-    </row>
-    <row r="19" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="116"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="136" t="s">
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+    </row>
+    <row r="19" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="J19" s="136"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="91"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="147" t="s">
+      <c r="J19" s="72"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="96"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="136" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="136"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="91"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J20" s="72"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="96"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>295</v>
       </c>
@@ -5657,19 +5758,19 @@
       <c r="C21" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="136" t="s">
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="136"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="91"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J21" s="72"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="96"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>20</v>
       </c>
@@ -5679,7 +5780,7 @@
       </c>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>21</v>
       </c>
@@ -5688,7 +5789,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>163</v>
       </c>
@@ -5697,7 +5798,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>23</v>
       </c>
@@ -5705,30 +5806,30 @@
       <c r="C25" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="101" t="s">
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="N25" s="62" t="s">
+      <c r="N25" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>24</v>
       </c>
@@ -5736,24 +5837,24 @@
       <c r="C26" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-    </row>
-    <row r="27" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+    </row>
+    <row r="27" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>204</v>
       </c>
@@ -5761,31 +5862,31 @@
       <c r="C27" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="107" t="s">
+      <c r="E27" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="122" t="s">
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="N27" s="62" t="s">
+      <c r="N27" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>165</v>
       </c>
@@ -5793,25 +5894,25 @@
       <c r="C28" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E28" s="120"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>205</v>
       </c>
@@ -5819,31 +5920,31 @@
       <c r="C29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="106" t="s">
+      <c r="E29" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
       <c r="M29" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="64" t="s">
+      <c r="N29" s="136" t="s">
         <v>279</v>
       </c>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>166</v>
       </c>
@@ -5851,21 +5952,21 @@
       <c r="C30" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="105" t="s">
+      <c r="E30" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
       <c r="M30" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>167</v>
       </c>
@@ -5873,21 +5974,21 @@
       <c r="C31" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="105" t="s">
+      <c r="E31" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
       <c r="M31" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>169</v>
       </c>
@@ -5895,21 +5996,21 @@
       <c r="C32" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="104" t="s">
+      <c r="E32" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="91" t="s">
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>33</v>
       </c>
@@ -5917,17 +6018,17 @@
       <c r="C33" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="91"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="96"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>34</v>
       </c>
@@ -5935,93 +6036,93 @@
       <c r="C34" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="105" t="s">
+      <c r="E34" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
       <c r="M34" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
         <v>314</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
-      <c r="E35" s="104" t="s">
+      <c r="E35" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="91" t="s">
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
         <v>258</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="91"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="96"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>259</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
-      <c r="E37" s="104" t="s">
+      <c r="E37" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="91" t="s">
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>315</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="91"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="96"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>236</v>
       </c>
@@ -6029,72 +6130,72 @@
       <c r="C39" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="104" t="s">
+      <c r="E39" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="91" t="s">
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>316</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="61"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="91"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E41" s="105" t="s">
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="96"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E41" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
       <c r="M41" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="147" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147"/>
-      <c r="E42" s="102" t="s">
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="E42" s="123" t="s">
         <v>272</v>
       </c>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="102"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="101" t="s">
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="116" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>170</v>
       </c>
@@ -6102,17 +6203,17 @@
       <c r="C43" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="102"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="101"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="116"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>261</v>
       </c>
@@ -6120,21 +6221,21 @@
       <c r="C44" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="101" t="s">
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="116" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>262</v>
       </c>
@@ -6142,17 +6243,17 @@
       <c r="C45" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="101"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="116"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>263</v>
       </c>
@@ -6160,21 +6261,21 @@
       <c r="C46" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E46" s="92" t="s">
+      <c r="E46" s="124" t="s">
         <v>224</v>
       </c>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
       <c r="M46" s="21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="s">
         <v>173</v>
       </c>
@@ -6183,21 +6284,21 @@
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
-      <c r="E47" s="100" t="s">
+      <c r="E47" s="125" t="s">
         <v>225</v>
       </c>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
       <c r="M47" s="38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="45" t="s">
         <v>175</v>
@@ -6205,72 +6306,72 @@
       <c r="C48" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="92" t="s">
+      <c r="E48" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
       <c r="M48" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="45" t="s">
         <v>176</v>
       </c>
       <c r="C49" s="45"/>
-      <c r="E49" s="80" t="s">
+      <c r="E49" s="126" t="s">
         <v>227</v>
       </c>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="92"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
       <c r="M49" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E50" s="100" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E50" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="100"/>
-      <c r="M50" s="101" t="s">
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="116" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="147" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="147"/>
-      <c r="C51" s="147"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="101"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
+      <c r="M51" s="116"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
         <v>42</v>
       </c>
@@ -6278,21 +6379,21 @@
       <c r="C52" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="80" t="s">
+      <c r="E52" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="91" t="s">
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="126"/>
+      <c r="K52" s="126"/>
+      <c r="L52" s="126"/>
+      <c r="M52" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
         <v>177</v>
       </c>
@@ -6300,17 +6401,17 @@
       <c r="C53" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="91"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="126"/>
+      <c r="M53" s="96"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
         <v>178</v>
       </c>
@@ -6318,17 +6419,17 @@
       <c r="C54" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="79"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="150"/>
+      <c r="K54" s="150"/>
+      <c r="L54" s="150"/>
+      <c r="M54" s="151"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>45</v>
       </c>
@@ -6336,21 +6437,21 @@
       <c r="C55" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="72" t="s">
+      <c r="E55" s="144" t="s">
         <v>230</v>
       </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="91" t="s">
+      <c r="F55" s="145"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
+      <c r="J55" s="145"/>
+      <c r="K55" s="145"/>
+      <c r="L55" s="146"/>
+      <c r="M55" s="96" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="39" t="s">
         <v>221</v>
       </c>
@@ -6358,113 +6459,113 @@
       <c r="C56" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E56" s="92" t="s">
+      <c r="E56" s="124" t="s">
         <v>231</v>
       </c>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="91"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="147" t="s">
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="96"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="B57" s="147"/>
-      <c r="C57" s="147"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="92"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
-      <c r="E58" s="104" t="s">
+      <c r="E58" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="104"/>
-      <c r="M58" s="91" t="s">
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="39" t="s">
         <v>179</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="104"/>
-      <c r="K59" s="104"/>
-      <c r="L59" s="104"/>
-      <c r="M59" s="91"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="96"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
         <v>180</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="77"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E60" s="147"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="148"/>
+      <c r="L60" s="148"/>
+      <c r="M60" s="149"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="39" t="s">
         <v>181</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
-      <c r="E61" s="94" t="s">
+      <c r="E61" s="127" t="s">
         <v>237</v>
       </c>
-      <c r="F61" s="94"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="94"/>
-      <c r="J61" s="94"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="127"/>
       <c r="K61" s="28"/>
       <c r="L61" s="28"/>
       <c r="M61" s="32"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
-      <c r="E62" s="92" t="s">
+      <c r="E62" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="F62" s="92"/>
+      <c r="F62" s="124"/>
       <c r="G62" s="30" t="s">
         <v>241</v>
       </c>
@@ -6475,51 +6576,51 @@
       <c r="L62" s="31"/>
       <c r="M62" s="28"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
         <v>182</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="97" t="s">
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="133" t="s">
         <v>239</v>
       </c>
-      <c r="H63" s="98"/>
-      <c r="I63" s="98"/>
-      <c r="J63" s="99"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="135"/>
       <c r="K63" s="28"/>
       <c r="L63" s="28"/>
       <c r="M63" s="24"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
         <v>183</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="88"/>
-      <c r="M64" s="89"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E64" s="130"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="131"/>
+      <c r="J64" s="131"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="131"/>
+      <c r="M64" s="132"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
         <v>184</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
-      <c r="E65" s="92" t="s">
+      <c r="E65" s="124" t="s">
         <v>242</v>
       </c>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="124"/>
       <c r="H65" s="28" t="s">
         <v>247</v>
       </c>
@@ -6529,15 +6630,15 @@
       <c r="L65" s="28"/>
       <c r="M65" s="29"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="39" t="s">
         <v>185</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
       <c r="H66" s="29" t="s">
         <v>248</v>
       </c>
@@ -6547,17 +6648,17 @@
       <c r="L66" s="29"/>
       <c r="M66" s="28"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
         <v>186</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
-      <c r="E67" s="95" t="s">
+      <c r="E67" s="128" t="s">
         <v>246</v>
       </c>
-      <c r="F67" s="95"/>
-      <c r="G67" s="95"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
       <c r="H67" s="28" t="s">
         <v>243</v>
       </c>
@@ -6567,12 +6668,12 @@
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E68" s="95" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E68" s="128" t="s">
         <v>246</v>
       </c>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
       <c r="H68" s="28" t="s">
         <v>244</v>
       </c>
@@ -6582,27 +6683,27 @@
       <c r="L68" s="28"/>
       <c r="M68" s="33"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="133" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="133"/>
-      <c r="C69" s="133"/>
-      <c r="E69" s="96" t="s">
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+      <c r="E69" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="F69" s="96"/>
-      <c r="G69" s="96"/>
-      <c r="H69" s="87" t="s">
+      <c r="F69" s="129"/>
+      <c r="G69" s="129"/>
+      <c r="H69" s="130" t="s">
         <v>245</v>
       </c>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="89"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I69" s="131"/>
+      <c r="J69" s="131"/>
+      <c r="K69" s="131"/>
+      <c r="L69" s="131"/>
+      <c r="M69" s="132"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="59" t="s">
         <v>48</v>
       </c>
@@ -6610,9 +6711,9 @@
       <c r="C70" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="91"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="96"/>
       <c r="H70" s="29" t="s">
         <v>249</v>
       </c>
@@ -6622,7 +6723,7 @@
       <c r="L70" s="29"/>
       <c r="M70" s="29"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
         <v>190</v>
       </c>
@@ -6630,9 +6731,9 @@
       <c r="C71" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
       <c r="H71" s="29" t="s">
         <v>250</v>
       </c>
@@ -6642,7 +6743,7 @@
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
         <v>191</v>
       </c>
@@ -6650,11 +6751,11 @@
       <c r="C72" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="E72" s="92" t="s">
+      <c r="E72" s="124" t="s">
         <v>251</v>
       </c>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="124"/>
       <c r="H72" s="29" t="s">
         <v>252</v>
       </c>
@@ -6664,7 +6765,7 @@
       <c r="L72" s="29"/>
       <c r="M72" s="29"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
         <v>53</v>
       </c>
@@ -6672,9 +6773,9 @@
       <c r="C73" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="153"/>
+      <c r="G73" s="153"/>
       <c r="H73" s="29" t="s">
         <v>253</v>
       </c>
@@ -6684,7 +6785,7 @@
       <c r="L73" s="29"/>
       <c r="M73" s="23"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="36" t="s">
         <v>54</v>
       </c>
@@ -6692,17 +6793,17 @@
       <c r="C74" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
-      <c r="M74" s="79"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E74" s="150"/>
+      <c r="F74" s="150"/>
+      <c r="G74" s="150"/>
+      <c r="H74" s="150"/>
+      <c r="I74" s="150"/>
+      <c r="J74" s="150"/>
+      <c r="K74" s="150"/>
+      <c r="L74" s="150"/>
+      <c r="M74" s="151"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
@@ -6710,21 +6811,21 @@
       <c r="C75" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="91" t="s">
+      <c r="E75" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="F75" s="91"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="87" t="s">
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="130" t="s">
         <v>255</v>
       </c>
-      <c r="I75" s="88"/>
-      <c r="J75" s="88"/>
-      <c r="K75" s="88"/>
-      <c r="L75" s="89"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="131"/>
+      <c r="K75" s="131"/>
+      <c r="L75" s="132"/>
       <c r="M75" s="34"/>
     </row>
-    <row r="76" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
         <v>58</v>
       </c>
@@ -6732,16 +6833,16 @@
       <c r="C76" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="H76" s="81" t="s">
+      <c r="H76" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="83"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109"/>
+      <c r="K76" s="109"/>
+      <c r="L76" s="110"/>
       <c r="M76" s="35"/>
     </row>
-    <row r="77" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="36" t="s">
         <v>12</v>
       </c>
@@ -6749,13 +6850,13 @@
       <c r="C77" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="84"/>
-      <c r="I77" s="85"/>
-      <c r="J77" s="85"/>
-      <c r="K77" s="85"/>
-      <c r="L77" s="86"/>
-    </row>
-    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H77" s="111"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="112"/>
+      <c r="K77" s="112"/>
+      <c r="L77" s="113"/>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="56" t="s">
         <v>196</v>
       </c>
@@ -6765,7 +6866,7 @@
       </c>
       <c r="M78" s="26"/>
     </row>
-    <row r="79" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="39" t="s">
         <v>198</v>
       </c>
@@ -6773,19 +6874,19 @@
       <c r="C79" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="90" t="s">
+      <c r="E79" s="152" t="s">
         <v>257</v>
       </c>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-      <c r="J79" s="90"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="90"/>
+      <c r="F79" s="152"/>
+      <c r="G79" s="152"/>
+      <c r="H79" s="152"/>
+      <c r="I79" s="152"/>
+      <c r="J79" s="152"/>
+      <c r="K79" s="152"/>
+      <c r="L79" s="152"/>
       <c r="M79" s="26"/>
     </row>
-    <row r="80" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
         <v>200</v>
       </c>
@@ -6793,16 +6894,16 @@
       <c r="C80" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
-      <c r="I80" s="90"/>
-      <c r="J80" s="90"/>
-      <c r="K80" s="90"/>
-      <c r="L80" s="90"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E80" s="152"/>
+      <c r="F80" s="152"/>
+      <c r="G80" s="152"/>
+      <c r="H80" s="152"/>
+      <c r="I80" s="152"/>
+      <c r="J80" s="152"/>
+      <c r="K80" s="152"/>
+      <c r="L80" s="152"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="39" t="s">
         <v>271</v>
       </c>
@@ -6811,7 +6912,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="39" t="s">
         <v>64</v>
       </c>
@@ -6824,7 +6925,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="39" t="s">
         <v>264</v>
       </c>
@@ -6836,14 +6937,14 @@
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
-      <c r="J83" s="66" t="s">
+      <c r="J83" s="138" t="s">
         <v>268</v>
       </c>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="68"/>
-    </row>
-    <row r="84" spans="1:13" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K83" s="139"/>
+      <c r="L83" s="139"/>
+      <c r="M83" s="140"/>
+    </row>
+    <row r="84" spans="1:13" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="48" t="s">
         <v>312</v>
       </c>
@@ -6855,42 +6956,42 @@
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70"/>
-      <c r="M84" s="71"/>
-    </row>
-    <row r="85" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J84" s="141"/>
+      <c r="K84" s="142"/>
+      <c r="L84" s="142"/>
+      <c r="M84" s="143"/>
+    </row>
+    <row r="85" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
@@ -6898,11 +6999,75 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="N27:U28"/>
+    <mergeCell ref="N29:U29"/>
+    <mergeCell ref="J83:M84"/>
+    <mergeCell ref="E55:L55"/>
+    <mergeCell ref="E60:M60"/>
+    <mergeCell ref="E54:M54"/>
+    <mergeCell ref="E52:L53"/>
+    <mergeCell ref="H76:L77"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="E79:L80"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="E74:M74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E70:G71"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="E56:L57"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="E50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="E47:L47"/>
+    <mergeCell ref="E48:L48"/>
+    <mergeCell ref="E49:L49"/>
+    <mergeCell ref="E42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="E44:L45"/>
+    <mergeCell ref="E46:L46"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="E39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="E41:L41"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="E29:L29"/>
+    <mergeCell ref="E30:L30"/>
+    <mergeCell ref="E31:L31"/>
+    <mergeCell ref="E27:L28"/>
+    <mergeCell ref="E37:L38"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="E16:H21"/>
+    <mergeCell ref="E14:M15"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="E8:M9"/>
+    <mergeCell ref="N25:T26"/>
+    <mergeCell ref="Q18:W20"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="M16:M21"/>
+    <mergeCell ref="E58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="E32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="E34:L34"/>
+    <mergeCell ref="E11:H13"/>
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="E7:L7"/>
@@ -6919,75 +7084,11 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="E8:M9"/>
-    <mergeCell ref="N25:T26"/>
-    <mergeCell ref="Q18:W20"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="M16:M21"/>
-    <mergeCell ref="E58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="E32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="E34:L34"/>
-    <mergeCell ref="E11:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="E16:H21"/>
-    <mergeCell ref="E14:M15"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="E29:L29"/>
-    <mergeCell ref="E30:L30"/>
-    <mergeCell ref="E31:L31"/>
-    <mergeCell ref="E27:L28"/>
-    <mergeCell ref="E37:L38"/>
-    <mergeCell ref="E42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="E44:L45"/>
-    <mergeCell ref="E46:L46"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="E39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="E41:L41"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="E56:L57"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="E50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="E47:L47"/>
-    <mergeCell ref="E48:L48"/>
-    <mergeCell ref="E49:L49"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="H69:M69"/>
-    <mergeCell ref="N27:U28"/>
-    <mergeCell ref="N29:U29"/>
-    <mergeCell ref="J83:M84"/>
-    <mergeCell ref="E55:L55"/>
-    <mergeCell ref="E60:M60"/>
-    <mergeCell ref="E54:M54"/>
-    <mergeCell ref="E52:L53"/>
-    <mergeCell ref="H76:L77"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="E79:L80"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="E74:M74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E70:G71"/>
-    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A57:C57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7019,23 +7120,529 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64259B26-03B7-4B66-903E-B3BD718B2C47}">
+  <dimension ref="A1:Q62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F1" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+    </row>
+    <row r="2" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="154"/>
+    </row>
+    <row r="3" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F3" s="12"/>
+      <c r="G3" s="154" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="154"/>
+    </row>
+    <row r="4" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F4" s="12"/>
+      <c r="G4" s="154" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="154"/>
+    </row>
+    <row r="5" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F5" s="12"/>
+      <c r="G5" s="154" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="154"/>
+    </row>
+    <row r="7" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F7" s="158" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+    </row>
+    <row r="8" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F8" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="156" t="s">
+        <v>287</v>
+      </c>
+      <c r="I8" s="156"/>
+    </row>
+    <row r="9" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F9" s="63">
+        <v>1</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F10" s="63">
+        <v>2</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F11" s="63">
+        <v>3</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="96"/>
+    </row>
+    <row r="13" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F13" s="158" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+    </row>
+    <row r="14" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="154"/>
+    </row>
+    <row r="15" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F15" s="12"/>
+      <c r="G15" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="154"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F16" s="12"/>
+      <c r="G16" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="154"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F18" s="159" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="160" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22" s="161"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="67" t="s">
+        <v>276</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F24" s="41">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F25" s="64">
+        <v>2</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F27" s="157" t="s">
+        <v>289</v>
+      </c>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F28" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="154" t="s">
+        <v>290</v>
+      </c>
+      <c r="H28" s="154"/>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F29" s="64">
+        <v>1</v>
+      </c>
+      <c r="G29" s="154" t="s">
+        <v>291</v>
+      </c>
+      <c r="H29" s="154"/>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="64">
+        <v>2</v>
+      </c>
+      <c r="G30" s="154" t="s">
+        <v>292</v>
+      </c>
+      <c r="H30" s="154"/>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="64">
+        <v>3</v>
+      </c>
+      <c r="G31" s="154" t="s">
+        <v>293</v>
+      </c>
+      <c r="H31" s="154"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="162" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="154" t="s">
+        <v>283</v>
+      </c>
+      <c r="H35" s="154"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="64">
+        <v>1</v>
+      </c>
+      <c r="G36" s="154" t="s">
+        <v>282</v>
+      </c>
+      <c r="H36" s="154"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="F38" s="159" t="s">
+        <v>318</v>
+      </c>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="F42" s="159" t="s">
+        <v>319</v>
+      </c>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="159" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="166" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="167"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="168"/>
+    </row>
+    <row r="49" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="169" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="171"/>
+    </row>
+    <row r="50" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="8"/>
+      <c r="G50" s="169" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="170"/>
+      <c r="I50" s="170"/>
+      <c r="J50" s="171"/>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F51" s="66"/>
+      <c r="G51" s="172" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="173"/>
+      <c r="I51" s="173"/>
+      <c r="J51" s="174"/>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F52" s="65"/>
+      <c r="G52" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="165"/>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F53" s="65"/>
+      <c r="G53" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="165"/>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F54" s="65"/>
+      <c r="G54" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="165"/>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F55" s="65"/>
+      <c r="G55" s="163" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="164"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="165"/>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F56" s="65"/>
+      <c r="G56" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="132"/>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F57" s="65"/>
+      <c r="G57" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="132"/>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F58" s="65"/>
+      <c r="G58" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="132"/>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F59" s="65"/>
+      <c r="G59" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="132"/>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F60" s="65"/>
+      <c r="G60" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="131"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="132"/>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F62" s="159" t="s">
+        <v>321</v>
+      </c>
+      <c r="G62" s="159"/>
+      <c r="H62" s="159"/>
+      <c r="I62" s="159"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F27:H27" location="'ED01'!A11" display="NATURE " xr:uid="{D5112699-9CD2-48C8-9B43-3B2F96BA80DC}"/>
+    <hyperlink ref="F1:H1" location="'ED01'!A83" display="TYPE_CONTRAT" xr:uid="{30C33BD7-5C6A-4BA9-A734-2BD74343BDF6}"/>
+    <hyperlink ref="F7:I7" location="'ED01'!A13" display="ETAT_CIVIlE" xr:uid="{C26BC673-0CD8-4CAC-916D-E2F2B97604FB}"/>
+    <hyperlink ref="H8:I8" location="'ED01'!A14" display="sex" xr:uid="{AE4EB200-09E1-4035-9357-742781CC2B58}"/>
+    <hyperlink ref="F13:H13" location="'ED01'!A77" display="STATUS" xr:uid="{98D0CB79-BE27-4EE6-8E5A-83C714DA85F0}"/>
+    <hyperlink ref="F22:G22" location="'ED01'!A6" display="Type client" xr:uid="{2C75A35F-0450-4449-8101-BF2B480EA4E4}"/>
+    <hyperlink ref="F48:J48" location="'ED01'!A79" display="FONCTION" xr:uid="{8E5F426F-C945-43F9-A155-0F684484D193}"/>
+    <hyperlink ref="F34:H34" location="'ED01'!A7" display="ACTIVITE" xr:uid="{B247C819-EA96-4436-BB69-D41E6B751D03}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" customWidth="1"/>
-    <col min="29" max="29" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -7067,7 +7674,7 @@
       <c r="AD1" s="9"/>
       <c r="AE1" s="9"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -7099,7 +7706,7 @@
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
     </row>
-    <row r="3" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -7131,18 +7738,18 @@
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="247" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="242" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="247"/>
-      <c r="C4" s="247"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-      <c r="I4" s="228"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -7165,20 +7772,20 @@
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="150"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="239" t="s">
+    <row r="5" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="240"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="239" t="s">
+      <c r="E5" s="255"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="254" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="240"/>
-      <c r="I5" s="241"/>
+      <c r="H5" s="255"/>
+      <c r="I5" s="256"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -7197,20 +7804,20 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="150"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="248" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="244" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248" t="s">
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="248"/>
-      <c r="I6" s="248"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -7229,20 +7836,20 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="150"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="247" t="s">
+    <row r="7" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="242" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247" t="s">
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="247"/>
-      <c r="I7" s="247"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -7261,20 +7868,20 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="150"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="177" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177" t="s">
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -7293,20 +7900,20 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="150"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="177" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="243" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177" t="s">
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -7325,20 +7932,20 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="150"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="177" t="s">
+    <row r="10" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177" t="s">
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
+      <c r="H10" s="243"/>
+      <c r="I10" s="243"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -7357,20 +7964,20 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="150"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="177" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="243" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177" t="s">
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -7389,20 +7996,20 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:31" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="150"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="177" t="s">
+    <row r="12" spans="1:31" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="243" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177" t="s">
+      <c r="E12" s="243"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
+      <c r="H12" s="243"/>
+      <c r="I12" s="243"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -7421,20 +8028,20 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="225" t="s">
         <v>302</v>
       </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162" t="s">
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="226" t="s">
         <v>303</v>
       </c>
-      <c r="H13" s="162"/>
-      <c r="I13" s="163"/>
+      <c r="H13" s="226"/>
+      <c r="I13" s="227"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -7453,20 +8060,20 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" spans="1:31" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="225" t="s">
         <v>304</v>
       </c>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162" t="s">
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="162"/>
-      <c r="I14" s="163"/>
+      <c r="H14" s="226"/>
+      <c r="I14" s="227"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -7485,7 +8092,7 @@
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7513,7 +8120,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7541,7 +8148,7 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -7569,12 +8176,12 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="178" t="s">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="178"/>
-      <c r="C18" s="178"/>
+      <c r="B18" s="277"/>
+      <c r="C18" s="277"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -7599,27 +8206,27 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D19" s="151" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D19" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="152"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="179" t="s">
+      <c r="E19" s="187"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="278" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="180"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="242" t="s">
+      <c r="H19" s="279"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="236" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="243"/>
-      <c r="L19" s="244"/>
-      <c r="M19" s="242" t="s">
+      <c r="K19" s="237"/>
+      <c r="L19" s="257"/>
+      <c r="M19" s="236" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="243"/>
-      <c r="O19" s="244"/>
+      <c r="N19" s="237"/>
+      <c r="O19" s="257"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
@@ -7632,19 +8239,19 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="236"/>
-      <c r="N20" s="237"/>
-      <c r="O20" s="238"/>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="251"/>
+      <c r="K20" s="252"/>
+      <c r="L20" s="253"/>
+      <c r="M20" s="251"/>
+      <c r="N20" s="252"/>
+      <c r="O20" s="253"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -7657,25 +8264,25 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D21" s="159" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D21" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159" t="s">
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159" t="s">
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="150"/>
-      <c r="O21" s="150"/>
+      <c r="K21" s="184"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -7688,413 +8295,413 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D22" s="226" t="s">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D22" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226" t="s">
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="226"/>
-      <c r="I22" s="226"/>
-      <c r="J22" s="227"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="227"/>
-      <c r="M22" s="150"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="150"/>
-    </row>
-    <row r="23" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R23" s="193" t="s">
+      <c r="H22" s="190"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+    </row>
+    <row r="23" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="S23" s="193"/>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="200"/>
-    </row>
-    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R24" s="150" t="s">
+      <c r="S23" s="178"/>
+      <c r="T23" s="178"/>
+      <c r="U23" s="178"/>
+      <c r="V23" s="178"/>
+      <c r="W23" s="178"/>
+      <c r="X23" s="175"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="S24" s="150"/>
-      <c r="T24" s="150" t="s">
+      <c r="S24" s="154"/>
+      <c r="T24" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="U24" s="150"/>
-      <c r="V24" s="150"/>
-      <c r="W24" s="150"/>
-      <c r="X24" s="200"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="148"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="245" t="s">
+      <c r="U24" s="154"/>
+      <c r="V24" s="154"/>
+      <c r="W24" s="154"/>
+      <c r="X24" s="175"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="275"/>
+      <c r="B25" s="275"/>
+      <c r="C25" s="276"/>
+      <c r="D25" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="246"/>
-      <c r="F25" s="246"/>
-      <c r="G25" s="246" t="s">
+      <c r="E25" s="259"/>
+      <c r="F25" s="259"/>
+      <c r="G25" s="259" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="246"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="264" t="s">
+      <c r="H25" s="259"/>
+      <c r="I25" s="259"/>
+      <c r="J25" s="230" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="265"/>
-      <c r="L25" s="266"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="R25" s="150" t="s">
+      <c r="K25" s="231"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
+      <c r="R25" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="S25" s="150"/>
-      <c r="T25" s="150" t="s">
+      <c r="S25" s="154"/>
+      <c r="T25" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="150"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="150"/>
-      <c r="X25" s="200"/>
+      <c r="U25" s="154"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="154"/>
+      <c r="X25" s="175"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="148"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="262"/>
-      <c r="E26" s="263"/>
-      <c r="F26" s="263"/>
-      <c r="G26" s="263"/>
-      <c r="H26" s="263"/>
-      <c r="I26" s="263"/>
-      <c r="J26" s="267"/>
-      <c r="K26" s="268"/>
-      <c r="L26" s="269"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="150"/>
-      <c r="R26" s="150" t="s">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="275"/>
+      <c r="B26" s="275"/>
+      <c r="C26" s="276"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="229"/>
+      <c r="H26" s="229"/>
+      <c r="I26" s="229"/>
+      <c r="J26" s="233"/>
+      <c r="K26" s="234"/>
+      <c r="L26" s="235"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="R26" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="S26" s="150"/>
-      <c r="T26" s="150" t="s">
+      <c r="S26" s="154"/>
+      <c r="T26" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="150"/>
-      <c r="V26" s="150"/>
-      <c r="W26" s="150"/>
-      <c r="X26" s="200"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="148"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="255" t="s">
+      <c r="U26" s="154"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="154"/>
+      <c r="X26" s="175"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="275"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="276"/>
+      <c r="D27" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="250"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="249" t="s">
+      <c r="E27" s="218"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="250"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="242" t="s">
+      <c r="H27" s="218"/>
+      <c r="I27" s="219"/>
+      <c r="J27" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="243"/>
-      <c r="L27" s="271"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="221"/>
-      <c r="O27" s="222"/>
-    </row>
-    <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="148"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="256"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="254"/>
-      <c r="G28" s="252"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="254"/>
-      <c r="J28" s="272"/>
-      <c r="K28" s="273"/>
-      <c r="L28" s="274"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="79"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D29" s="228"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="228"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="228"/>
-      <c r="J29" s="228"/>
-      <c r="K29" s="228"/>
-      <c r="L29" s="228"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="150"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D30" s="159" t="s">
+      <c r="K27" s="237"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="215"/>
+      <c r="N27" s="215"/>
+      <c r="O27" s="216"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="275"/>
+      <c r="B28" s="275"/>
+      <c r="C28" s="276"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="222"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="222"/>
+      <c r="J28" s="239"/>
+      <c r="K28" s="240"/>
+      <c r="L28" s="241"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="151"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D30" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="258" t="s">
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159" t="s">
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="150"/>
-      <c r="O30" s="150"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D31" s="159" t="s">
+      <c r="K30" s="184"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D31" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="258" t="s">
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="159" t="s">
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="150"/>
-      <c r="R31" s="193" t="s">
+      <c r="K31" s="184"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="154"/>
+      <c r="R31" s="178" t="s">
         <v>306</v>
       </c>
-      <c r="S31" s="193"/>
-      <c r="T31" s="193"/>
-      <c r="U31" s="193"/>
-      <c r="V31" s="193"/>
-      <c r="W31" s="193"/>
-      <c r="X31" s="200"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D32" s="159" t="s">
+      <c r="S31" s="178"/>
+      <c r="T31" s="178"/>
+      <c r="U31" s="178"/>
+      <c r="V31" s="178"/>
+      <c r="W31" s="178"/>
+      <c r="X31" s="175"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D32" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159" t="s">
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="150"/>
-      <c r="R32" s="150" t="s">
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="154"/>
+      <c r="R32" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="S32" s="150"/>
-      <c r="T32" s="164" t="s">
+      <c r="S32" s="154"/>
+      <c r="T32" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="U32" s="150"/>
-      <c r="V32" s="150"/>
-      <c r="W32" s="150"/>
-      <c r="X32" s="200"/>
-    </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
-      <c r="N33" s="150"/>
-      <c r="O33" s="150"/>
-      <c r="R33" s="150" t="s">
+      <c r="U32" s="154"/>
+      <c r="V32" s="154"/>
+      <c r="W32" s="154"/>
+      <c r="X32" s="175"/>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="R33" s="154" t="s">
         <v>305</v>
       </c>
-      <c r="S33" s="150"/>
-      <c r="T33" s="164" t="s">
+      <c r="S33" s="154"/>
+      <c r="T33" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="U33" s="150"/>
-      <c r="V33" s="150"/>
-      <c r="W33" s="150"/>
-      <c r="X33" s="200"/>
-    </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="D34" s="159" t="s">
+      <c r="U33" s="154"/>
+      <c r="V33" s="154"/>
+      <c r="W33" s="154"/>
+      <c r="X33" s="175"/>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D34" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="150" t="s">
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
-      <c r="N34" s="150"/>
-      <c r="O34" s="150"/>
-    </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="D35" s="159" t="s">
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="154"/>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D35" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="150"/>
-      <c r="O35" s="150"/>
-    </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="150"/>
-    </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="D37" s="159" t="s">
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
+      <c r="N35" s="154"/>
+      <c r="O35" s="154"/>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D37" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159" t="s">
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="159"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
-      <c r="N37" s="150"/>
-      <c r="O37" s="150"/>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="D38" s="201" t="s">
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
+      <c r="N37" s="154"/>
+      <c r="O37" s="154"/>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D38" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="202"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
-      <c r="N38" s="150"/>
-      <c r="O38" s="150"/>
-    </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="D39" s="216"/>
-      <c r="E39" s="217"/>
-      <c r="F39" s="218"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="150"/>
-      <c r="O39" s="150"/>
-    </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
-      <c r="N40" s="150"/>
-      <c r="O40" s="150"/>
-    </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="D41" s="201" t="s">
+      <c r="E38" s="193"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="154"/>
+      <c r="O38" s="154"/>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D39" s="208"/>
+      <c r="E39" s="209"/>
+      <c r="F39" s="210"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="154"/>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="154"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="154"/>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D41" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="202"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="207" t="s">
+      <c r="E41" s="193"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="208"/>
-      <c r="I41" s="209"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="189"/>
-      <c r="M41" s="187"/>
-      <c r="N41" s="188"/>
-      <c r="O41" s="189"/>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="D42" s="204"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="206"/>
-      <c r="G42" s="210"/>
-      <c r="H42" s="211"/>
-      <c r="I42" s="212"/>
-      <c r="J42" s="213"/>
-      <c r="K42" s="214"/>
-      <c r="L42" s="215"/>
-      <c r="M42" s="213"/>
-      <c r="N42" s="214"/>
-      <c r="O42" s="215"/>
-    </row>
-    <row r="45" spans="3:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="199"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="205"/>
+      <c r="K41" s="206"/>
+      <c r="L41" s="207"/>
+      <c r="M41" s="205"/>
+      <c r="N41" s="206"/>
+      <c r="O41" s="207"/>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D42" s="195"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="201"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="203"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="174"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="174"/>
+    </row>
+    <row r="45" spans="3:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -8110,7 +8717,7 @@
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
     </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -8126,7 +8733,7 @@
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -8141,7 +8748,7 @@
       <c r="O47" s="17"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -8156,7 +8763,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -8171,7 +8778,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -8186,7 +8793,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -8201,7 +8808,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -8216,7 +8823,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -8231,232 +8838,232 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="194" t="s">
+    <row r="54" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="272" t="s">
         <v>139</v>
       </c>
-      <c r="B55" s="195"/>
-      <c r="C55" s="195"/>
-      <c r="D55" s="195"/>
-      <c r="E55" s="195"/>
-      <c r="F55" s="195"/>
-      <c r="G55" s="195"/>
-      <c r="H55" s="195"/>
-      <c r="I55" s="195"/>
-      <c r="J55" s="195"/>
-      <c r="K55" s="195"/>
-      <c r="L55" s="195"/>
-      <c r="M55" s="195"/>
-      <c r="N55" s="195"/>
-      <c r="O55" s="196"/>
-      <c r="P55" s="158"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="259" t="s">
+      <c r="B55" s="273"/>
+      <c r="C55" s="273"/>
+      <c r="D55" s="273"/>
+      <c r="E55" s="273"/>
+      <c r="F55" s="273"/>
+      <c r="G55" s="273"/>
+      <c r="H55" s="273"/>
+      <c r="I55" s="273"/>
+      <c r="J55" s="273"/>
+      <c r="K55" s="273"/>
+      <c r="L55" s="273"/>
+      <c r="M55" s="273"/>
+      <c r="N55" s="273"/>
+      <c r="O55" s="274"/>
+      <c r="P55" s="288"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="260"/>
-      <c r="C56" s="260"/>
-      <c r="D56" s="260"/>
-      <c r="E56" s="260"/>
-      <c r="F56" s="261"/>
-      <c r="G56" s="270"/>
-      <c r="H56" s="270"/>
-      <c r="I56" s="270"/>
-      <c r="J56" s="270"/>
-      <c r="K56" s="270"/>
-      <c r="L56" s="270"/>
-      <c r="M56" s="270"/>
-      <c r="N56" s="270"/>
-      <c r="O56" s="270"/>
-      <c r="P56" s="158"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="257" t="s">
+      <c r="B56" s="212"/>
+      <c r="C56" s="212"/>
+      <c r="D56" s="212"/>
+      <c r="E56" s="212"/>
+      <c r="F56" s="213"/>
+      <c r="G56" s="191"/>
+      <c r="H56" s="191"/>
+      <c r="I56" s="191"/>
+      <c r="J56" s="191"/>
+      <c r="K56" s="191"/>
+      <c r="L56" s="191"/>
+      <c r="M56" s="191"/>
+      <c r="N56" s="191"/>
+      <c r="O56" s="191"/>
+      <c r="P56" s="288"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="257"/>
-      <c r="C57" s="257"/>
-      <c r="D57" s="257" t="s">
+      <c r="B57" s="179"/>
+      <c r="C57" s="179"/>
+      <c r="D57" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="257"/>
-      <c r="F57" s="257"/>
-      <c r="G57" s="257" t="s">
+      <c r="E57" s="179"/>
+      <c r="F57" s="179"/>
+      <c r="G57" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="257"/>
-      <c r="I57" s="257"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
-      <c r="L57" s="150"/>
-      <c r="M57" s="150"/>
-      <c r="N57" s="150"/>
-      <c r="O57" s="150"/>
-      <c r="P57" s="158"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="150"/>
-      <c r="B58" s="150"/>
-      <c r="C58" s="150"/>
-      <c r="D58" s="257" t="s">
+      <c r="H57" s="179"/>
+      <c r="I57" s="179"/>
+      <c r="J57" s="154"/>
+      <c r="K57" s="154"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154"/>
+      <c r="N57" s="154"/>
+      <c r="O57" s="154"/>
+      <c r="P57" s="288"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" s="154"/>
+      <c r="B58" s="154"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="257"/>
-      <c r="F58" s="257"/>
-      <c r="G58" s="257" t="s">
+      <c r="E58" s="179"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="H58" s="257"/>
-      <c r="I58" s="257"/>
-      <c r="J58" s="257" t="s">
+      <c r="H58" s="179"/>
+      <c r="I58" s="179"/>
+      <c r="J58" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="K58" s="257"/>
-      <c r="L58" s="257"/>
-      <c r="M58" s="276"/>
-      <c r="N58" s="276"/>
-      <c r="O58" s="276"/>
-      <c r="P58" s="158"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="150"/>
-      <c r="B59" s="150"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="257" t="s">
+      <c r="K58" s="179"/>
+      <c r="L58" s="179"/>
+      <c r="M58" s="185"/>
+      <c r="N58" s="185"/>
+      <c r="O58" s="185"/>
+      <c r="P58" s="288"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="154"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="257"/>
-      <c r="F59" s="257"/>
-      <c r="G59" s="257" t="s">
+      <c r="E59" s="179"/>
+      <c r="F59" s="179"/>
+      <c r="G59" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="H59" s="257"/>
-      <c r="I59" s="257"/>
-      <c r="J59" s="150"/>
-      <c r="K59" s="150"/>
-      <c r="L59" s="150"/>
-      <c r="M59" s="150"/>
-      <c r="N59" s="150"/>
-      <c r="O59" s="150"/>
-      <c r="P59" s="158"/>
-    </row>
-    <row r="60" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="150"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="150"/>
-      <c r="D60" s="257" t="s">
+      <c r="H59" s="179"/>
+      <c r="I59" s="179"/>
+      <c r="J59" s="154"/>
+      <c r="K59" s="154"/>
+      <c r="L59" s="154"/>
+      <c r="M59" s="154"/>
+      <c r="N59" s="154"/>
+      <c r="O59" s="154"/>
+      <c r="P59" s="288"/>
+    </row>
+    <row r="60" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="154"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="257"/>
-      <c r="F60" s="257"/>
-      <c r="G60" s="257" t="s">
+      <c r="E60" s="179"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="H60" s="257"/>
-      <c r="I60" s="257"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="150"/>
-      <c r="L60" s="150"/>
-      <c r="M60" s="150"/>
-      <c r="N60" s="150"/>
-      <c r="O60" s="150"/>
-      <c r="P60" s="158"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="150"/>
-      <c r="B61" s="150"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="257" t="s">
+      <c r="H60" s="179"/>
+      <c r="I60" s="179"/>
+      <c r="J60" s="154"/>
+      <c r="K60" s="154"/>
+      <c r="L60" s="154"/>
+      <c r="M60" s="154"/>
+      <c r="N60" s="154"/>
+      <c r="O60" s="154"/>
+      <c r="P60" s="288"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="154"/>
+      <c r="B61" s="154"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="257"/>
-      <c r="F61" s="257"/>
-      <c r="G61" s="257" t="s">
+      <c r="E61" s="179"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="257"/>
-      <c r="I61" s="257"/>
-      <c r="J61" s="150"/>
-      <c r="K61" s="150"/>
-      <c r="L61" s="150"/>
-      <c r="M61" s="150"/>
-      <c r="N61" s="150"/>
-      <c r="O61" s="150"/>
-      <c r="P61" s="158"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="150"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="257" t="s">
+      <c r="H61" s="179"/>
+      <c r="I61" s="179"/>
+      <c r="J61" s="154"/>
+      <c r="K61" s="154"/>
+      <c r="L61" s="154"/>
+      <c r="M61" s="154"/>
+      <c r="N61" s="154"/>
+      <c r="O61" s="154"/>
+      <c r="P61" s="288"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" s="154"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="257"/>
-      <c r="F62" s="257"/>
-      <c r="G62" s="257" t="s">
+      <c r="E62" s="179"/>
+      <c r="F62" s="179"/>
+      <c r="G62" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="H62" s="257"/>
-      <c r="I62" s="257"/>
-      <c r="J62" s="150"/>
-      <c r="K62" s="150"/>
-      <c r="L62" s="150"/>
-      <c r="M62" s="150"/>
-      <c r="N62" s="150"/>
-      <c r="O62" s="150"/>
-      <c r="P62" s="158"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="150"/>
-      <c r="B63" s="150"/>
-      <c r="C63" s="150"/>
-      <c r="D63" s="257" t="s">
+      <c r="H62" s="179"/>
+      <c r="I62" s="179"/>
+      <c r="J62" s="154"/>
+      <c r="K62" s="154"/>
+      <c r="L62" s="154"/>
+      <c r="M62" s="154"/>
+      <c r="N62" s="154"/>
+      <c r="O62" s="154"/>
+      <c r="P62" s="288"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" s="154"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="257"/>
-      <c r="F63" s="257"/>
-      <c r="G63" s="257" t="s">
+      <c r="E63" s="179"/>
+      <c r="F63" s="179"/>
+      <c r="G63" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="257"/>
-      <c r="I63" s="257"/>
-      <c r="J63" s="150"/>
-      <c r="K63" s="150"/>
-      <c r="L63" s="150"/>
-      <c r="M63" s="150"/>
-      <c r="N63" s="150"/>
-      <c r="O63" s="150"/>
-      <c r="P63" s="158"/>
+      <c r="H63" s="179"/>
+      <c r="I63" s="179"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="154"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
+      <c r="N63" s="154"/>
+      <c r="O63" s="154"/>
+      <c r="P63" s="288"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="150"/>
-      <c r="B64" s="150"/>
-      <c r="C64" s="150"/>
-      <c r="D64" s="257" t="s">
+    <row r="64" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="154"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="154"/>
+      <c r="D64" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="257"/>
-      <c r="F64" s="257"/>
-      <c r="G64" s="257" t="s">
+      <c r="E64" s="179"/>
+      <c r="F64" s="179"/>
+      <c r="G64" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="H64" s="257"/>
-      <c r="I64" s="257"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="150"/>
-      <c r="M64" s="150"/>
-      <c r="N64" s="150"/>
-      <c r="O64" s="150"/>
-      <c r="P64" s="158"/>
+      <c r="H64" s="179"/>
+      <c r="I64" s="179"/>
+      <c r="J64" s="154"/>
+      <c r="K64" s="154"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="154"/>
+      <c r="N64" s="154"/>
+      <c r="O64" s="154"/>
+      <c r="P64" s="288"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -8479,7 +9086,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -8501,7 +9108,7 @@
       <c r="W66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -8516,167 +9123,170 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="168" t="s">
+    <row r="68" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="169"/>
-      <c r="C68" s="169"/>
-      <c r="D68" s="169"/>
-      <c r="E68" s="170"/>
-      <c r="F68" s="167"/>
+      <c r="B68" s="167"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="167"/>
+      <c r="E68" s="168"/>
+      <c r="F68" s="177"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="151" t="s">
+      <c r="H68" s="186" t="s">
         <v>311</v>
       </c>
-      <c r="I68" s="152"/>
-      <c r="J68" s="152"/>
-      <c r="K68" s="153"/>
-      <c r="L68" s="200"/>
+      <c r="I68" s="187"/>
+      <c r="J68" s="187"/>
+      <c r="K68" s="188"/>
+      <c r="L68" s="175"/>
       <c r="M68" s="9"/>
-      <c r="P68" s="182" t="s">
+      <c r="P68" s="281" t="s">
         <v>310</v>
       </c>
-      <c r="Q68" s="182"/>
-      <c r="R68" s="182"/>
-      <c r="S68" s="200"/>
-      <c r="U68" s="165" t="s">
+      <c r="Q68" s="281"/>
+      <c r="R68" s="281"/>
+      <c r="S68" s="175"/>
+      <c r="U68" s="162" t="s">
         <v>294</v>
       </c>
-      <c r="V68" s="165"/>
-      <c r="W68" s="165"/>
-      <c r="X68" s="167"/>
-    </row>
-    <row r="69" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V68" s="162"/>
+      <c r="W68" s="162"/>
+      <c r="X68" s="177"/>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="197" t="s">
+      <c r="B69" s="169" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="198"/>
-      <c r="D69" s="198"/>
-      <c r="E69" s="199"/>
-      <c r="F69" s="167"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="170"/>
+      <c r="E69" s="171"/>
+      <c r="F69" s="177"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="275" t="s">
+      <c r="H69" s="189" t="s">
         <v>307</v>
       </c>
-      <c r="I69" s="275"/>
-      <c r="J69" s="275"/>
-      <c r="K69" s="275"/>
-      <c r="L69" s="200"/>
+      <c r="I69" s="189"/>
+      <c r="J69" s="189"/>
+      <c r="K69" s="189"/>
+      <c r="L69" s="175"/>
       <c r="M69" s="9"/>
       <c r="P69" s="12"/>
-      <c r="Q69" s="150" t="s">
+      <c r="Q69" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="R69" s="150"/>
-      <c r="S69" s="200"/>
+      <c r="R69" s="154"/>
+      <c r="S69" s="175"/>
       <c r="U69" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="V69" s="150" t="s">
+      <c r="V69" s="154" t="s">
         <v>283</v>
       </c>
-      <c r="W69" s="150"/>
-      <c r="X69" s="167"/>
-    </row>
-    <row r="70" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W69" s="154"/>
+      <c r="X69" s="177"/>
+    </row>
+    <row r="70" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
-      <c r="B70" s="197" t="s">
+      <c r="B70" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="198"/>
-      <c r="D70" s="198"/>
-      <c r="E70" s="199"/>
-      <c r="F70" s="167"/>
+      <c r="C70" s="170"/>
+      <c r="D70" s="170"/>
+      <c r="E70" s="171"/>
+      <c r="F70" s="177"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="275" t="s">
+      <c r="H70" s="189" t="s">
         <v>308</v>
       </c>
-      <c r="I70" s="275"/>
-      <c r="J70" s="275"/>
-      <c r="K70" s="275"/>
-      <c r="L70" s="200"/>
+      <c r="I70" s="189"/>
+      <c r="J70" s="189"/>
+      <c r="K70" s="189"/>
+      <c r="L70" s="175"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
       <c r="P70" s="12"/>
-      <c r="Q70" s="150" t="s">
+      <c r="Q70" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="R70" s="150"/>
-      <c r="S70" s="200"/>
+      <c r="R70" s="154"/>
+      <c r="S70" s="175"/>
       <c r="U70" s="20">
         <v>1</v>
       </c>
-      <c r="V70" s="150" t="s">
+      <c r="V70" s="154" t="s">
         <v>282</v>
       </c>
-      <c r="W70" s="150"/>
-      <c r="X70" s="167"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W70" s="154"/>
+      <c r="X70" s="177"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="213" t="s">
+      <c r="B71" s="172" t="s">
         <v>77</v>
       </c>
-      <c r="C71" s="214"/>
-      <c r="D71" s="214"/>
-      <c r="E71" s="215"/>
-      <c r="F71" s="167"/>
-      <c r="H71" s="275" t="s">
+      <c r="C71" s="173"/>
+      <c r="D71" s="173"/>
+      <c r="E71" s="174"/>
+      <c r="F71" s="177"/>
+      <c r="H71" s="189" t="s">
         <v>309</v>
       </c>
-      <c r="I71" s="275"/>
-      <c r="J71" s="275"/>
-      <c r="K71" s="275"/>
-      <c r="L71" s="200"/>
+      <c r="I71" s="189"/>
+      <c r="J71" s="189"/>
+      <c r="K71" s="189"/>
+      <c r="L71" s="175"/>
       <c r="N71" s="27"/>
       <c r="P71" s="12"/>
-      <c r="Q71" s="150" t="s">
+      <c r="Q71" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="R71" s="150"/>
-      <c r="S71" s="200"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="R71" s="154"/>
+      <c r="S71" s="175"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="154" t="s">
+      <c r="B72" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="155"/>
-      <c r="D72" s="155"/>
-      <c r="E72" s="156"/>
-      <c r="F72" s="167"/>
+      <c r="C72" s="164"/>
+      <c r="D72" s="164"/>
+      <c r="E72" s="165"/>
+      <c r="F72" s="177"/>
       <c r="N72" s="27"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="154" t="s">
+      <c r="B73" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="155"/>
-      <c r="D73" s="155"/>
-      <c r="E73" s="156"/>
-      <c r="F73" s="167"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="164"/>
+      <c r="E73" s="165"/>
+      <c r="F73" s="177"/>
       <c r="N73" s="27"/>
-      <c r="U73" s="280" t="s">
+      <c r="U73" s="160" t="s">
         <v>275</v>
       </c>
-      <c r="V73" s="281"/>
-      <c r="W73" s="167"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="V73" s="161"/>
+      <c r="W73" s="177"/>
+      <c r="X73" s="153" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="154" t="s">
+      <c r="B74" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="C74" s="155"/>
-      <c r="D74" s="155"/>
-      <c r="E74" s="156"/>
-      <c r="F74" s="167"/>
+      <c r="C74" s="164"/>
+      <c r="D74" s="164"/>
+      <c r="E74" s="165"/>
+      <c r="F74" s="177"/>
       <c r="N74" s="27"/>
       <c r="U74" s="7" t="s">
         <v>276</v>
@@ -8684,17 +9294,18 @@
       <c r="V74" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="W74" s="167"/>
-    </row>
-    <row r="75" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W74" s="177"/>
+      <c r="X74" s="153"/>
+    </row>
+    <row r="75" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="154" t="s">
+      <c r="B75" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="155"/>
-      <c r="D75" s="155"/>
-      <c r="E75" s="156"/>
-      <c r="F75" s="167"/>
+      <c r="C75" s="164"/>
+      <c r="D75" s="164"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="177"/>
       <c r="N75" s="27"/>
       <c r="U75" s="41">
         <v>1</v>
@@ -8702,17 +9313,18 @@
       <c r="V75" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="W75" s="167"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W75" s="177"/>
+      <c r="X75" s="153"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="87" t="s">
+      <c r="B76" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="88"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="167"/>
+      <c r="C76" s="131"/>
+      <c r="D76" s="131"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="177"/>
       <c r="N76" s="27"/>
       <c r="U76" s="6">
         <v>2</v>
@@ -8720,953 +9332,1315 @@
       <c r="V76" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="W76" s="167"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W76" s="177"/>
+      <c r="X76" s="153"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="87" t="s">
+      <c r="B77" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="88"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="167"/>
+      <c r="C77" s="131"/>
+      <c r="D77" s="131"/>
+      <c r="E77" s="132"/>
+      <c r="F77" s="177"/>
       <c r="N77" s="27"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X77" s="153"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="87" t="s">
+      <c r="B78" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="167"/>
-      <c r="U78" s="160" t="s">
+      <c r="C78" s="131"/>
+      <c r="D78" s="131"/>
+      <c r="E78" s="132"/>
+      <c r="F78" s="177"/>
+      <c r="U78" s="155" t="s">
         <v>278</v>
       </c>
-      <c r="V78" s="160"/>
-      <c r="W78" s="160"/>
-      <c r="X78" s="200"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="V78" s="155"/>
+      <c r="W78" s="155"/>
+      <c r="X78" s="175"/>
+      <c r="Y78" s="153" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="87" t="s">
+      <c r="B79" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="88"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="89"/>
-      <c r="F79" s="167"/>
+      <c r="C79" s="131"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="132"/>
+      <c r="F79" s="177"/>
       <c r="U79" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="V79" s="150" t="s">
+      <c r="V79" s="154" t="s">
         <v>106</v>
       </c>
-      <c r="W79" s="150"/>
-      <c r="X79" s="200"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="W79" s="154"/>
+      <c r="X79" s="175"/>
+      <c r="Y79" s="153"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="87" t="s">
+      <c r="B80" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="89"/>
-      <c r="F80" s="167"/>
+      <c r="C80" s="131"/>
+      <c r="D80" s="131"/>
+      <c r="E80" s="132"/>
+      <c r="F80" s="177"/>
       <c r="U80" s="12"/>
-      <c r="V80" s="150" t="s">
+      <c r="V80" s="154" t="s">
         <v>285</v>
       </c>
-      <c r="W80" s="150"/>
-      <c r="X80" s="200"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W80" s="154"/>
+      <c r="X80" s="175"/>
+      <c r="Y80" s="153"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U81" s="12"/>
-      <c r="V81" s="150" t="s">
+      <c r="V81" s="154" t="s">
         <v>286</v>
       </c>
-      <c r="W81" s="150"/>
-      <c r="X81" s="200"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W81" s="154"/>
+      <c r="X81" s="175"/>
+      <c r="Y81" s="153"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U82" s="12"/>
-      <c r="V82" s="150" t="s">
+      <c r="V82" s="154" t="s">
         <v>284</v>
       </c>
-      <c r="W82" s="150"/>
-      <c r="X82" s="200"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A83" s="186" t="s">
+      <c r="W82" s="154"/>
+      <c r="X82" s="175"/>
+      <c r="Y82" s="153"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A83" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="B83" s="186"/>
-      <c r="C83" s="186"/>
-      <c r="D83" s="186"/>
-      <c r="E83" s="200"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B83" s="158"/>
+      <c r="C83" s="158"/>
+      <c r="D83" s="158"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="153" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="157" t="s">
+      <c r="C84" s="156" t="s">
         <v>287</v>
       </c>
-      <c r="D84" s="157"/>
-      <c r="E84" s="200"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D84" s="156"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="153"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="18">
         <v>1</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C85" s="91" t="s">
+      <c r="C85" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="D85" s="91"/>
-      <c r="E85" s="200"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="153"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="18">
         <v>2</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="D86" s="91"/>
-      <c r="E86" s="200"/>
-      <c r="V86" s="166" t="s">
+      <c r="D86" s="96"/>
+      <c r="E86" s="175"/>
+      <c r="F86" s="153"/>
+      <c r="V86" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="W86" s="166"/>
-      <c r="X86" s="166"/>
-    </row>
-    <row r="87" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W86" s="157"/>
+      <c r="X86" s="157"/>
+      <c r="Y86" s="266" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>3</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="91" t="s">
+      <c r="C87" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="D87" s="91"/>
-      <c r="E87" s="200"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="153"/>
       <c r="V87" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="W87" s="150" t="s">
+      <c r="W87" s="154" t="s">
         <v>290</v>
       </c>
-      <c r="X87" s="150"/>
-    </row>
-    <row r="88" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I88" s="183" t="s">
+      <c r="X87" s="154"/>
+      <c r="Y87" s="266"/>
+    </row>
+    <row r="88" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I88" s="262" t="s">
         <v>102</v>
       </c>
-      <c r="J88" s="184"/>
-      <c r="K88" s="184"/>
-      <c r="L88" s="184"/>
-      <c r="M88" s="184"/>
-      <c r="N88" s="184"/>
-      <c r="O88" s="184"/>
-      <c r="P88" s="184"/>
-      <c r="Q88" s="184"/>
-      <c r="R88" s="184"/>
-      <c r="S88" s="184"/>
-      <c r="T88" s="185"/>
+      <c r="J88" s="263"/>
+      <c r="K88" s="263"/>
+      <c r="L88" s="263"/>
+      <c r="M88" s="263"/>
+      <c r="N88" s="263"/>
+      <c r="O88" s="263"/>
+      <c r="P88" s="263"/>
+      <c r="Q88" s="263"/>
+      <c r="R88" s="263"/>
+      <c r="S88" s="263"/>
+      <c r="T88" s="264"/>
       <c r="V88" s="20">
         <v>1</v>
       </c>
-      <c r="W88" s="150" t="s">
+      <c r="W88" s="154" t="s">
         <v>291</v>
       </c>
-      <c r="X88" s="150"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A89" s="186" t="s">
+      <c r="X88" s="154"/>
+      <c r="Y88" s="266"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A89" s="158" t="s">
         <v>269</v>
       </c>
-      <c r="B89" s="186"/>
-      <c r="C89" s="186"/>
-      <c r="D89" s="200"/>
-      <c r="I89" s="230" t="s">
+      <c r="B89" s="158"/>
+      <c r="C89" s="158"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="153" t="s">
+        <v>322</v>
+      </c>
+      <c r="I89" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="J89" s="231"/>
-      <c r="K89" s="232"/>
-      <c r="L89" s="230" t="s">
+      <c r="J89" s="246"/>
+      <c r="K89" s="247"/>
+      <c r="L89" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="M89" s="231"/>
-      <c r="N89" s="232"/>
-      <c r="O89" s="233" t="s">
+      <c r="M89" s="246"/>
+      <c r="N89" s="247"/>
+      <c r="O89" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="P89" s="234"/>
-      <c r="Q89" s="235"/>
-      <c r="R89" s="233" t="s">
+      <c r="P89" s="249"/>
+      <c r="Q89" s="250"/>
+      <c r="R89" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="S89" s="234"/>
-      <c r="T89" s="235"/>
+      <c r="S89" s="249"/>
+      <c r="T89" s="250"/>
       <c r="V89" s="20">
         <v>2</v>
       </c>
-      <c r="W89" s="150" t="s">
+      <c r="W89" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="X89" s="150"/>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X89" s="154"/>
+      <c r="Y89" s="266"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="150" t="s">
+      <c r="B90" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="C90" s="150"/>
-      <c r="D90" s="200"/>
-      <c r="I90" s="150"/>
-      <c r="J90" s="150"/>
-      <c r="K90" s="150"/>
-      <c r="L90" s="150"/>
-      <c r="M90" s="150"/>
-      <c r="N90" s="150"/>
-      <c r="O90" s="236"/>
-      <c r="P90" s="237"/>
-      <c r="Q90" s="238"/>
-      <c r="R90" s="236"/>
-      <c r="S90" s="237"/>
-      <c r="T90" s="238"/>
+      <c r="C90" s="154"/>
+      <c r="D90" s="175"/>
+      <c r="E90" s="153"/>
+      <c r="I90" s="154"/>
+      <c r="J90" s="154"/>
+      <c r="K90" s="154"/>
+      <c r="L90" s="154"/>
+      <c r="M90" s="154"/>
+      <c r="N90" s="154"/>
+      <c r="O90" s="251"/>
+      <c r="P90" s="252"/>
+      <c r="Q90" s="253"/>
+      <c r="R90" s="251"/>
+      <c r="S90" s="252"/>
+      <c r="T90" s="253"/>
       <c r="V90" s="20">
         <v>3</v>
       </c>
-      <c r="W90" s="150" t="s">
+      <c r="W90" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="X90" s="150"/>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X90" s="154"/>
+      <c r="Y90" s="266"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
-      <c r="B91" s="150" t="s">
+      <c r="B91" s="154" t="s">
         <v>103</v>
       </c>
-      <c r="C91" s="150"/>
-      <c r="D91" s="200"/>
-      <c r="I91" s="159" t="s">
+      <c r="C91" s="154"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="153"/>
+      <c r="I91" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="J91" s="159"/>
-      <c r="K91" s="159"/>
-      <c r="L91" s="159" t="s">
+      <c r="J91" s="184"/>
+      <c r="K91" s="184"/>
+      <c r="L91" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="159"/>
-      <c r="N91" s="159"/>
-      <c r="O91" s="159" t="s">
+      <c r="M91" s="184"/>
+      <c r="N91" s="184"/>
+      <c r="O91" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="P91" s="159"/>
-      <c r="Q91" s="159"/>
-      <c r="R91" s="150"/>
-      <c r="S91" s="150"/>
-      <c r="T91" s="150"/>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P91" s="184"/>
+      <c r="Q91" s="184"/>
+      <c r="R91" s="154"/>
+      <c r="S91" s="154"/>
+      <c r="T91" s="154"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
-      <c r="B92" s="150" t="s">
+      <c r="B92" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="150"/>
-      <c r="D92" s="200"/>
-      <c r="I92" s="226" t="s">
+      <c r="C92" s="154"/>
+      <c r="D92" s="175"/>
+      <c r="E92" s="153"/>
+      <c r="I92" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="J92" s="226"/>
-      <c r="K92" s="226"/>
-      <c r="L92" s="226" t="s">
+      <c r="J92" s="190"/>
+      <c r="K92" s="190"/>
+      <c r="L92" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="M92" s="226"/>
-      <c r="N92" s="226"/>
-      <c r="O92" s="227"/>
-      <c r="P92" s="227"/>
-      <c r="Q92" s="227"/>
-      <c r="R92" s="150"/>
-      <c r="S92" s="150"/>
-      <c r="T92" s="150"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I93" s="159" t="s">
+      <c r="M92" s="190"/>
+      <c r="N92" s="190"/>
+      <c r="O92" s="214"/>
+      <c r="P92" s="214"/>
+      <c r="Q92" s="214"/>
+      <c r="R92" s="154"/>
+      <c r="S92" s="154"/>
+      <c r="T92" s="154"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E93" s="153"/>
+      <c r="I93" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="J93" s="159"/>
-      <c r="K93" s="159"/>
-      <c r="L93" s="159"/>
-      <c r="M93" s="159"/>
-      <c r="N93" s="159"/>
-      <c r="O93" s="159" t="s">
+      <c r="J93" s="184"/>
+      <c r="K93" s="184"/>
+      <c r="L93" s="184"/>
+      <c r="M93" s="184"/>
+      <c r="N93" s="184"/>
+      <c r="O93" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="P93" s="159"/>
-      <c r="Q93" s="159"/>
-      <c r="R93" s="150"/>
-      <c r="S93" s="150"/>
-      <c r="T93" s="150"/>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I94" s="159" t="s">
+      <c r="P93" s="184"/>
+      <c r="Q93" s="184"/>
+      <c r="R93" s="154"/>
+      <c r="S93" s="154"/>
+      <c r="T93" s="154"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I94" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="J94" s="159"/>
-      <c r="K94" s="159"/>
-      <c r="L94" s="159"/>
-      <c r="M94" s="159"/>
-      <c r="N94" s="159"/>
-      <c r="O94" s="159" t="s">
+      <c r="J94" s="184"/>
+      <c r="K94" s="184"/>
+      <c r="L94" s="184"/>
+      <c r="M94" s="184"/>
+      <c r="N94" s="184"/>
+      <c r="O94" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="P94" s="159"/>
-      <c r="Q94" s="159"/>
-      <c r="R94" s="150"/>
-      <c r="S94" s="150"/>
-      <c r="T94" s="150"/>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I95" s="226" t="s">
+      <c r="P94" s="184"/>
+      <c r="Q94" s="184"/>
+      <c r="R94" s="154"/>
+      <c r="S94" s="154"/>
+      <c r="T94" s="154"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I95" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="J95" s="226"/>
-      <c r="K95" s="226"/>
-      <c r="L95" s="226" t="s">
+      <c r="J95" s="190"/>
+      <c r="K95" s="190"/>
+      <c r="L95" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="M95" s="226"/>
-      <c r="N95" s="226"/>
-      <c r="O95" s="227"/>
-      <c r="P95" s="227"/>
-      <c r="Q95" s="227"/>
-      <c r="R95" s="150"/>
-      <c r="S95" s="150"/>
-      <c r="T95" s="150"/>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A96" s="193" t="s">
+      <c r="M95" s="190"/>
+      <c r="N95" s="190"/>
+      <c r="O95" s="214"/>
+      <c r="P95" s="214"/>
+      <c r="Q95" s="214"/>
+      <c r="R95" s="154"/>
+      <c r="S95" s="154"/>
+      <c r="T95" s="154"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A96" s="178" t="s">
         <v>300</v>
       </c>
-      <c r="B96" s="193"/>
-      <c r="C96" s="193"/>
-      <c r="D96" s="193"/>
-      <c r="E96" s="193"/>
-      <c r="F96" s="193"/>
-      <c r="G96" s="200"/>
-      <c r="I96" s="151" t="s">
+      <c r="B96" s="178"/>
+      <c r="C96" s="178"/>
+      <c r="D96" s="178"/>
+      <c r="E96" s="178"/>
+      <c r="F96" s="178"/>
+      <c r="G96" s="175"/>
+      <c r="I96" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="J96" s="152"/>
-      <c r="K96" s="153"/>
-      <c r="L96" s="154"/>
-      <c r="M96" s="155"/>
-      <c r="N96" s="156"/>
-      <c r="O96" s="150"/>
-      <c r="P96" s="150"/>
-      <c r="Q96" s="150"/>
-      <c r="R96" s="150"/>
-      <c r="S96" s="150"/>
-      <c r="T96" s="150"/>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A97" s="159" t="s">
+      <c r="J96" s="187"/>
+      <c r="K96" s="188"/>
+      <c r="L96" s="163"/>
+      <c r="M96" s="164"/>
+      <c r="N96" s="165"/>
+      <c r="O96" s="154"/>
+      <c r="P96" s="154"/>
+      <c r="Q96" s="154"/>
+      <c r="R96" s="154"/>
+      <c r="S96" s="154"/>
+      <c r="T96" s="154"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A97" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="B97" s="159"/>
-      <c r="C97" s="159"/>
-      <c r="D97" s="159" t="s">
+      <c r="B97" s="184"/>
+      <c r="C97" s="184"/>
+      <c r="D97" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="E97" s="159"/>
-      <c r="F97" s="159"/>
-      <c r="G97" s="200"/>
-      <c r="I97" s="159" t="s">
+      <c r="E97" s="184"/>
+      <c r="F97" s="184"/>
+      <c r="G97" s="175"/>
+      <c r="I97" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="J97" s="159"/>
-      <c r="K97" s="159"/>
-      <c r="L97" s="159" t="s">
+      <c r="J97" s="184"/>
+      <c r="K97" s="184"/>
+      <c r="L97" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="M97" s="159"/>
-      <c r="N97" s="159"/>
-      <c r="O97" s="150"/>
-      <c r="P97" s="150"/>
-      <c r="Q97" s="150"/>
-      <c r="R97" s="150"/>
-      <c r="S97" s="150"/>
-      <c r="T97" s="150"/>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A98" s="159" t="s">
+      <c r="M97" s="184"/>
+      <c r="N97" s="184"/>
+      <c r="O97" s="154"/>
+      <c r="P97" s="154"/>
+      <c r="Q97" s="154"/>
+      <c r="R97" s="154"/>
+      <c r="S97" s="154"/>
+      <c r="T97" s="154"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A98" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="159"/>
-      <c r="C98" s="159"/>
-      <c r="D98" s="159" t="s">
+      <c r="B98" s="184"/>
+      <c r="C98" s="184"/>
+      <c r="D98" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="E98" s="159"/>
-      <c r="F98" s="159"/>
-      <c r="G98" s="200"/>
-      <c r="I98" s="159" t="s">
+      <c r="E98" s="184"/>
+      <c r="F98" s="184"/>
+      <c r="G98" s="175"/>
+      <c r="I98" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="J98" s="159"/>
-      <c r="K98" s="159"/>
-      <c r="L98" s="150"/>
-      <c r="M98" s="150"/>
-      <c r="N98" s="150"/>
-      <c r="O98" s="150"/>
-      <c r="P98" s="150"/>
-      <c r="Q98" s="150"/>
-      <c r="R98" s="150"/>
-      <c r="S98" s="150"/>
-      <c r="T98" s="150"/>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A99" s="159" t="s">
+      <c r="J98" s="184"/>
+      <c r="K98" s="184"/>
+      <c r="L98" s="154"/>
+      <c r="M98" s="154"/>
+      <c r="N98" s="154"/>
+      <c r="O98" s="154"/>
+      <c r="P98" s="154"/>
+      <c r="Q98" s="154"/>
+      <c r="R98" s="154"/>
+      <c r="S98" s="154"/>
+      <c r="T98" s="154"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A99" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B99" s="159"/>
-      <c r="C99" s="159"/>
-      <c r="D99" s="159" t="s">
+      <c r="B99" s="184"/>
+      <c r="C99" s="184"/>
+      <c r="D99" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="159"/>
-      <c r="F99" s="159"/>
-      <c r="G99" s="200"/>
-      <c r="I99" s="159" t="s">
+      <c r="E99" s="184"/>
+      <c r="F99" s="184"/>
+      <c r="G99" s="175"/>
+      <c r="I99" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="J99" s="159"/>
-      <c r="K99" s="159"/>
-      <c r="L99" s="150"/>
-      <c r="M99" s="150"/>
-      <c r="N99" s="150"/>
-      <c r="O99" s="150"/>
-      <c r="P99" s="150"/>
-      <c r="Q99" s="150"/>
-      <c r="R99" s="150"/>
-      <c r="S99" s="150"/>
-      <c r="T99" s="150"/>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A100" s="159" t="s">
+      <c r="J99" s="184"/>
+      <c r="K99" s="184"/>
+      <c r="L99" s="154"/>
+      <c r="M99" s="154"/>
+      <c r="N99" s="154"/>
+      <c r="O99" s="154"/>
+      <c r="P99" s="154"/>
+      <c r="Q99" s="154"/>
+      <c r="R99" s="154"/>
+      <c r="S99" s="154"/>
+      <c r="T99" s="154"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A100" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="159"/>
-      <c r="C100" s="159"/>
-      <c r="D100" s="159" t="s">
+      <c r="B100" s="184"/>
+      <c r="C100" s="184"/>
+      <c r="D100" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="159"/>
-      <c r="F100" s="159"/>
-      <c r="G100" s="200"/>
-      <c r="I100" s="159" t="s">
+      <c r="E100" s="184"/>
+      <c r="F100" s="184"/>
+      <c r="G100" s="175"/>
+      <c r="I100" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="J100" s="159"/>
-      <c r="K100" s="159"/>
-      <c r="L100" s="159" t="s">
+      <c r="J100" s="184"/>
+      <c r="K100" s="184"/>
+      <c r="L100" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="159"/>
-      <c r="N100" s="159"/>
-      <c r="O100" s="150"/>
-      <c r="P100" s="150"/>
-      <c r="Q100" s="150"/>
-      <c r="R100" s="150"/>
-      <c r="S100" s="150"/>
-      <c r="T100" s="150"/>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I101" s="201" t="s">
+      <c r="M100" s="184"/>
+      <c r="N100" s="184"/>
+      <c r="O100" s="154"/>
+      <c r="P100" s="154"/>
+      <c r="Q100" s="154"/>
+      <c r="R100" s="154"/>
+      <c r="S100" s="154"/>
+      <c r="T100" s="154"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I101" s="192" t="s">
         <v>35</v>
       </c>
-      <c r="J101" s="202"/>
-      <c r="K101" s="203"/>
-      <c r="L101" s="150"/>
-      <c r="M101" s="150"/>
-      <c r="N101" s="150"/>
-      <c r="O101" s="150"/>
-      <c r="P101" s="150"/>
-      <c r="Q101" s="150"/>
-      <c r="R101" s="150"/>
-      <c r="S101" s="150"/>
-      <c r="T101" s="150"/>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I102" s="216"/>
-      <c r="J102" s="217"/>
-      <c r="K102" s="218"/>
-      <c r="L102" s="150"/>
-      <c r="M102" s="150"/>
-      <c r="N102" s="150"/>
-      <c r="O102" s="150"/>
-      <c r="P102" s="150"/>
-      <c r="Q102" s="150"/>
-      <c r="R102" s="150"/>
-      <c r="S102" s="150"/>
-      <c r="T102" s="150"/>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I103" s="201" t="s">
+      <c r="J101" s="193"/>
+      <c r="K101" s="194"/>
+      <c r="L101" s="154"/>
+      <c r="M101" s="154"/>
+      <c r="N101" s="154"/>
+      <c r="O101" s="154"/>
+      <c r="P101" s="154"/>
+      <c r="Q101" s="154"/>
+      <c r="R101" s="154"/>
+      <c r="S101" s="154"/>
+      <c r="T101" s="154"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I102" s="208"/>
+      <c r="J102" s="209"/>
+      <c r="K102" s="210"/>
+      <c r="L102" s="154"/>
+      <c r="M102" s="154"/>
+      <c r="N102" s="154"/>
+      <c r="O102" s="154"/>
+      <c r="P102" s="154"/>
+      <c r="Q102" s="154"/>
+      <c r="R102" s="154"/>
+      <c r="S102" s="154"/>
+      <c r="T102" s="154"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I103" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="J103" s="202"/>
-      <c r="K103" s="203"/>
-      <c r="L103" s="207" t="s">
+      <c r="J103" s="193"/>
+      <c r="K103" s="194"/>
+      <c r="L103" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="M103" s="208"/>
-      <c r="N103" s="209"/>
-      <c r="O103" s="187"/>
-      <c r="P103" s="188"/>
-      <c r="Q103" s="189"/>
-      <c r="R103" s="187"/>
-      <c r="S103" s="188"/>
-      <c r="T103" s="189"/>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="I104" s="204"/>
-      <c r="J104" s="205"/>
-      <c r="K104" s="206"/>
-      <c r="L104" s="210"/>
-      <c r="M104" s="211"/>
-      <c r="N104" s="212"/>
-      <c r="O104" s="213"/>
-      <c r="P104" s="214"/>
-      <c r="Q104" s="215"/>
-      <c r="R104" s="213"/>
-      <c r="S104" s="214"/>
-      <c r="T104" s="215"/>
-    </row>
-    <row r="105" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I105" s="159" t="s">
+      <c r="M103" s="199"/>
+      <c r="N103" s="200"/>
+      <c r="O103" s="205"/>
+      <c r="P103" s="206"/>
+      <c r="Q103" s="207"/>
+      <c r="R103" s="205"/>
+      <c r="S103" s="206"/>
+      <c r="T103" s="207"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I104" s="195"/>
+      <c r="J104" s="196"/>
+      <c r="K104" s="197"/>
+      <c r="L104" s="201"/>
+      <c r="M104" s="202"/>
+      <c r="N104" s="203"/>
+      <c r="O104" s="172"/>
+      <c r="P104" s="173"/>
+      <c r="Q104" s="174"/>
+      <c r="R104" s="172"/>
+      <c r="S104" s="173"/>
+      <c r="T104" s="174"/>
+    </row>
+    <row r="105" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I105" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="J105" s="159"/>
-      <c r="K105" s="159"/>
-      <c r="L105" s="159" t="s">
+      <c r="J105" s="184"/>
+      <c r="K105" s="184"/>
+      <c r="L105" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="M105" s="159"/>
-      <c r="N105" s="159"/>
-      <c r="O105" s="220" t="s">
+      <c r="M105" s="184"/>
+      <c r="N105" s="184"/>
+      <c r="O105" s="265" t="s">
         <v>72</v>
       </c>
-      <c r="P105" s="221"/>
-      <c r="Q105" s="222"/>
-      <c r="R105" s="187"/>
-      <c r="S105" s="188"/>
-      <c r="T105" s="189"/>
-    </row>
-    <row r="106" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="277" t="s">
+      <c r="P105" s="215"/>
+      <c r="Q105" s="216"/>
+      <c r="R105" s="205"/>
+      <c r="S105" s="206"/>
+      <c r="T105" s="207"/>
+    </row>
+    <row r="106" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="B106" s="278"/>
-      <c r="C106" s="278"/>
-      <c r="D106" s="278"/>
-      <c r="E106" s="279"/>
-      <c r="F106" s="167"/>
-      <c r="I106" s="159" t="s">
+      <c r="B106" s="181"/>
+      <c r="C106" s="181"/>
+      <c r="D106" s="181"/>
+      <c r="E106" s="182"/>
+      <c r="F106" s="177"/>
+      <c r="I106" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="J106" s="159"/>
-      <c r="K106" s="159"/>
-      <c r="L106" s="159" t="s">
+      <c r="J106" s="184"/>
+      <c r="K106" s="184"/>
+      <c r="L106" s="184" t="s">
         <v>38</v>
       </c>
-      <c r="M106" s="159"/>
-      <c r="N106" s="159"/>
-      <c r="O106" s="223"/>
-      <c r="P106" s="224"/>
-      <c r="Q106" s="225"/>
-      <c r="R106" s="190"/>
-      <c r="S106" s="191"/>
-      <c r="T106" s="192"/>
-    </row>
-    <row r="107" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M106" s="184"/>
+      <c r="N106" s="184"/>
+      <c r="O106" s="266"/>
+      <c r="P106" s="267"/>
+      <c r="Q106" s="268"/>
+      <c r="R106" s="269"/>
+      <c r="S106" s="270"/>
+      <c r="T106" s="271"/>
+    </row>
+    <row r="107" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="175" t="s">
+      <c r="B107" s="286" t="s">
         <v>84</v>
       </c>
-      <c r="C107" s="175"/>
-      <c r="D107" s="175"/>
-      <c r="E107" s="176"/>
-      <c r="F107" s="167"/>
-      <c r="I107" s="159" t="s">
+      <c r="C107" s="286"/>
+      <c r="D107" s="286"/>
+      <c r="E107" s="287"/>
+      <c r="F107" s="177"/>
+      <c r="I107" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="J107" s="159"/>
-      <c r="K107" s="159"/>
-      <c r="L107" s="159" t="s">
+      <c r="J107" s="184"/>
+      <c r="K107" s="184"/>
+      <c r="L107" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="M107" s="159"/>
-      <c r="N107" s="159"/>
-      <c r="O107" s="150"/>
-      <c r="P107" s="150"/>
-      <c r="Q107" s="150"/>
-      <c r="R107" s="150"/>
-      <c r="S107" s="150"/>
-      <c r="T107" s="150"/>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M107" s="184"/>
+      <c r="N107" s="184"/>
+      <c r="O107" s="154"/>
+      <c r="P107" s="154"/>
+      <c r="Q107" s="154"/>
+      <c r="R107" s="154"/>
+      <c r="S107" s="154"/>
+      <c r="T107" s="154"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
-      <c r="B108" s="228" t="s">
+      <c r="B108" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="C108" s="228"/>
-      <c r="D108" s="228"/>
-      <c r="E108" s="228"/>
-      <c r="F108" s="167"/>
-      <c r="I108" s="174" t="s">
+      <c r="C108" s="183"/>
+      <c r="D108" s="183"/>
+      <c r="E108" s="183"/>
+      <c r="F108" s="177"/>
+      <c r="I108" s="285" t="s">
         <v>95</v>
       </c>
-      <c r="J108" s="174"/>
-      <c r="K108" s="174"/>
-      <c r="L108" s="159" t="s">
+      <c r="J108" s="285"/>
+      <c r="K108" s="285"/>
+      <c r="L108" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="M108" s="159"/>
-      <c r="N108" s="159"/>
-      <c r="O108" s="150"/>
-      <c r="P108" s="150"/>
-      <c r="Q108" s="150"/>
-      <c r="R108" s="150"/>
-      <c r="S108" s="150"/>
-      <c r="T108" s="150"/>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M108" s="184"/>
+      <c r="N108" s="184"/>
+      <c r="O108" s="154"/>
+      <c r="P108" s="154"/>
+      <c r="Q108" s="154"/>
+      <c r="R108" s="154"/>
+      <c r="S108" s="154"/>
+      <c r="T108" s="154"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
-      <c r="B109" s="150" t="s">
+      <c r="B109" s="154" t="s">
         <v>137</v>
       </c>
-      <c r="C109" s="150"/>
-      <c r="D109" s="150"/>
-      <c r="E109" s="150"/>
-      <c r="F109" s="167"/>
-    </row>
-    <row r="110" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C109" s="154"/>
+      <c r="D109" s="154"/>
+      <c r="E109" s="154"/>
+      <c r="F109" s="177"/>
+    </row>
+    <row r="110" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12"/>
-      <c r="B110" s="150" t="s">
+      <c r="B110" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="150"/>
-      <c r="D110" s="150"/>
-      <c r="E110" s="150"/>
-      <c r="F110" s="167"/>
-    </row>
-    <row r="111" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C110" s="154"/>
+      <c r="D110" s="154"/>
+      <c r="E110" s="154"/>
+      <c r="F110" s="177"/>
+    </row>
+    <row r="111" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12"/>
-      <c r="B111" s="150" t="s">
+      <c r="B111" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="C111" s="150"/>
-      <c r="D111" s="150"/>
-      <c r="E111" s="150"/>
-      <c r="F111" s="167"/>
-      <c r="I111" s="183" t="s">
+      <c r="C111" s="154"/>
+      <c r="D111" s="154"/>
+      <c r="E111" s="154"/>
+      <c r="F111" s="177"/>
+      <c r="I111" s="262" t="s">
         <v>136</v>
       </c>
-      <c r="J111" s="184"/>
-      <c r="K111" s="184"/>
-      <c r="L111" s="184"/>
-      <c r="M111" s="184"/>
-      <c r="N111" s="185"/>
-      <c r="O111" s="167"/>
+      <c r="J111" s="263"/>
+      <c r="K111" s="263"/>
+      <c r="L111" s="263"/>
+      <c r="M111" s="263"/>
+      <c r="N111" s="264"/>
+      <c r="O111" s="177"/>
       <c r="R111" s="16"/>
-      <c r="S111" s="150" t="s">
+      <c r="S111" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="T111" s="150"/>
-      <c r="U111" s="150"/>
-      <c r="V111" s="228" t="s">
+      <c r="T111" s="154"/>
+      <c r="U111" s="154"/>
+      <c r="V111" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="W111" s="228"/>
-      <c r="X111" s="228"/>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W111" s="183"/>
+      <c r="X111" s="183"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
-      <c r="B112" s="150" t="s">
+      <c r="B112" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="C112" s="150"/>
-      <c r="D112" s="150"/>
-      <c r="E112" s="150"/>
-      <c r="F112" s="167"/>
-      <c r="I112" s="219" t="s">
+      <c r="C112" s="154"/>
+      <c r="D112" s="154"/>
+      <c r="E112" s="154"/>
+      <c r="F112" s="177"/>
+      <c r="I112" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="J112" s="219"/>
-      <c r="K112" s="219"/>
-      <c r="L112" s="219" t="s">
+      <c r="J112" s="261"/>
+      <c r="K112" s="261"/>
+      <c r="L112" s="261" t="s">
         <v>43</v>
       </c>
-      <c r="M112" s="219"/>
-      <c r="N112" s="219"/>
-      <c r="O112" s="167"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M112" s="261"/>
+      <c r="N112" s="261"/>
+      <c r="O112" s="177"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
-      <c r="B113" s="150" t="s">
+      <c r="B113" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="150"/>
-      <c r="D113" s="150"/>
-      <c r="E113" s="150"/>
-      <c r="F113" s="167"/>
-      <c r="I113" s="159" t="s">
+      <c r="C113" s="154"/>
+      <c r="D113" s="154"/>
+      <c r="E113" s="154"/>
+      <c r="F113" s="177"/>
+      <c r="I113" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="J113" s="159"/>
-      <c r="K113" s="159"/>
-      <c r="L113" s="159" t="s">
+      <c r="J113" s="184"/>
+      <c r="K113" s="184"/>
+      <c r="L113" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="M113" s="159"/>
-      <c r="N113" s="159"/>
-      <c r="O113" s="167"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M113" s="184"/>
+      <c r="N113" s="184"/>
+      <c r="O113" s="177"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
-      <c r="B114" s="150" t="s">
+      <c r="B114" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="C114" s="150"/>
-      <c r="D114" s="150"/>
-      <c r="E114" s="150"/>
-      <c r="F114" s="167"/>
-      <c r="I114" s="159" t="s">
+      <c r="C114" s="154"/>
+      <c r="D114" s="154"/>
+      <c r="E114" s="154"/>
+      <c r="F114" s="177"/>
+      <c r="I114" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="J114" s="159"/>
-      <c r="K114" s="159"/>
-      <c r="L114" s="164" t="s">
+      <c r="J114" s="184"/>
+      <c r="K114" s="184"/>
+      <c r="L114" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="M114" s="150"/>
-      <c r="N114" s="150"/>
-      <c r="O114" s="167"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M114" s="154"/>
+      <c r="N114" s="154"/>
+      <c r="O114" s="177"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
-      <c r="B115" s="150" t="s">
+      <c r="B115" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="C115" s="150"/>
-      <c r="D115" s="150"/>
-      <c r="E115" s="150"/>
-      <c r="F115" s="167"/>
-      <c r="I115" s="159" t="s">
+      <c r="C115" s="154"/>
+      <c r="D115" s="154"/>
+      <c r="E115" s="154"/>
+      <c r="F115" s="177"/>
+      <c r="I115" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="J115" s="159"/>
-      <c r="K115" s="159"/>
-      <c r="L115" s="164" t="s">
+      <c r="J115" s="184"/>
+      <c r="K115" s="184"/>
+      <c r="L115" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="M115" s="150"/>
-      <c r="N115" s="150"/>
-      <c r="O115" s="167"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M115" s="154"/>
+      <c r="N115" s="154"/>
+      <c r="O115" s="177"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
-      <c r="B116" s="150" t="s">
+      <c r="B116" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="C116" s="150"/>
-      <c r="D116" s="150"/>
-      <c r="E116" s="150"/>
-      <c r="F116" s="167"/>
-      <c r="I116" s="188"/>
-      <c r="J116" s="188"/>
-      <c r="K116" s="188"/>
-    </row>
-    <row r="117" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="118" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="171" t="s">
+      <c r="C116" s="154"/>
+      <c r="D116" s="154"/>
+      <c r="E116" s="154"/>
+      <c r="F116" s="177"/>
+      <c r="I116" s="206"/>
+      <c r="J116" s="206"/>
+      <c r="K116" s="206"/>
+    </row>
+    <row r="117" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="282" t="s">
         <v>141</v>
       </c>
-      <c r="B118" s="172"/>
-      <c r="C118" s="173"/>
-      <c r="D118" s="200"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B118" s="283"/>
+      <c r="C118" s="284"/>
+      <c r="D118" s="175"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B119" s="228" t="s">
+      <c r="B119" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="C119" s="228"/>
-      <c r="D119" s="200"/>
-      <c r="I119" s="177" t="s">
+      <c r="C119" s="183"/>
+      <c r="D119" s="175"/>
+      <c r="I119" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="J119" s="177"/>
-      <c r="K119" s="177"/>
-      <c r="L119" s="177"/>
-      <c r="M119" s="177"/>
-      <c r="N119" s="177"/>
-      <c r="O119" s="177"/>
-      <c r="P119" s="229" t="s">
+      <c r="J119" s="243"/>
+      <c r="K119" s="243"/>
+      <c r="L119" s="243"/>
+      <c r="M119" s="243"/>
+      <c r="N119" s="243"/>
+      <c r="O119" s="243"/>
+      <c r="P119" s="260" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B120" s="150" t="s">
+      <c r="B120" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="C120" s="150"/>
-      <c r="D120" s="200"/>
+      <c r="C120" s="154"/>
+      <c r="D120" s="175"/>
       <c r="I120" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J120" s="150" t="s">
+      <c r="J120" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="K120" s="150"/>
-      <c r="L120" s="150"/>
-      <c r="M120" s="150" t="s">
+      <c r="K120" s="154"/>
+      <c r="L120" s="154"/>
+      <c r="M120" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="N120" s="150"/>
-      <c r="O120" s="150"/>
-      <c r="P120" s="229"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N120" s="154"/>
+      <c r="O120" s="154"/>
+      <c r="P120" s="260"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B121" s="150" t="s">
+      <c r="B121" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="C121" s="150"/>
-      <c r="D121" s="200"/>
+      <c r="C121" s="154"/>
+      <c r="D121" s="175"/>
       <c r="I121" s="16"/>
-      <c r="J121" s="154" t="s">
+      <c r="J121" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="K121" s="155"/>
-      <c r="L121" s="156"/>
-      <c r="M121" s="154" t="s">
+      <c r="K121" s="164"/>
+      <c r="L121" s="165"/>
+      <c r="M121" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="N121" s="155"/>
-      <c r="O121" s="156"/>
-      <c r="P121" s="229"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N121" s="164"/>
+      <c r="O121" s="165"/>
+      <c r="P121" s="260"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B122" s="150" t="s">
+      <c r="B122" s="154" t="s">
         <v>298</v>
       </c>
-      <c r="C122" s="150"/>
-      <c r="D122" s="200"/>
+      <c r="C122" s="154"/>
+      <c r="D122" s="175"/>
       <c r="I122" s="16"/>
-      <c r="J122" s="227" t="s">
+      <c r="J122" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="K122" s="227"/>
-      <c r="L122" s="227"/>
-      <c r="M122" s="150" t="s">
+      <c r="K122" s="214"/>
+      <c r="L122" s="214"/>
+      <c r="M122" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="N122" s="150"/>
-      <c r="O122" s="150"/>
-      <c r="P122" s="229"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N122" s="154"/>
+      <c r="O122" s="154"/>
+      <c r="P122" s="260"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I123" s="16"/>
-      <c r="J123" s="150" t="s">
+      <c r="J123" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="150"/>
-      <c r="L123" s="150"/>
-      <c r="M123" s="150" t="s">
+      <c r="K123" s="154"/>
+      <c r="L123" s="154"/>
+      <c r="M123" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="N123" s="150"/>
-      <c r="O123" s="150"/>
-      <c r="P123" s="229"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N123" s="154"/>
+      <c r="O123" s="154"/>
+      <c r="P123" s="260"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I124" s="16"/>
-      <c r="J124" s="150" t="s">
+      <c r="J124" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="K124" s="150"/>
-      <c r="L124" s="150"/>
-      <c r="M124" s="150" t="s">
+      <c r="K124" s="154"/>
+      <c r="L124" s="154"/>
+      <c r="M124" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="N124" s="150"/>
-      <c r="O124" s="150"/>
-      <c r="P124" s="229"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N124" s="154"/>
+      <c r="O124" s="154"/>
+      <c r="P124" s="260"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I125" s="16"/>
-      <c r="J125" s="150" t="s">
+      <c r="J125" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="K125" s="150"/>
-      <c r="L125" s="150"/>
-      <c r="M125" s="150" t="s">
+      <c r="K125" s="154"/>
+      <c r="L125" s="154"/>
+      <c r="M125" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="N125" s="150"/>
-      <c r="O125" s="150"/>
-      <c r="P125" s="229"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N125" s="154"/>
+      <c r="O125" s="154"/>
+      <c r="P125" s="260"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I126" s="16"/>
-      <c r="J126" s="150" t="s">
+      <c r="J126" s="154" t="s">
         <v>299</v>
       </c>
-      <c r="K126" s="150"/>
-      <c r="L126" s="150"/>
-      <c r="M126" s="228" t="s">
+      <c r="K126" s="154"/>
+      <c r="L126" s="154"/>
+      <c r="M126" s="183" t="s">
         <v>172</v>
       </c>
-      <c r="N126" s="228"/>
-      <c r="O126" s="228"/>
-      <c r="P126" s="229"/>
+      <c r="N126" s="183"/>
+      <c r="O126" s="183"/>
+      <c r="P126" s="260"/>
     </row>
   </sheetData>
-  <mergeCells count="351">
+  <mergeCells count="356">
+    <mergeCell ref="Y86:Y90"/>
+    <mergeCell ref="Y78:Y82"/>
+    <mergeCell ref="X73:X77"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="I96:K96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="R96:T96"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="P55:P64"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="U78:W78"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="R95:T95"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V86:X86"/>
+    <mergeCell ref="W87:X87"/>
+    <mergeCell ref="W88:X88"/>
+    <mergeCell ref="W89:X89"/>
+    <mergeCell ref="W90:X90"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="R91:T91"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="I107:K107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="O107:Q107"/>
+    <mergeCell ref="R107:T107"/>
+    <mergeCell ref="I108:K108"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="O108:Q108"/>
+    <mergeCell ref="R108:T108"/>
+    <mergeCell ref="I113:K113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="I115:K115"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="D118:D122"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="R102:T102"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="I88:T88"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="R105:T106"/>
+    <mergeCell ref="I106:K106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A55:O55"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F68:F80"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="I103:K104"/>
+    <mergeCell ref="L103:N104"/>
+    <mergeCell ref="O103:Q104"/>
+    <mergeCell ref="R103:T104"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="L100:N100"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="I101:K102"/>
+    <mergeCell ref="L101:N101"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="R101:T101"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="I112:K112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="I111:N111"/>
+    <mergeCell ref="O105:Q106"/>
+    <mergeCell ref="L102:N102"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="L105:N105"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="R92:T92"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="I97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="I94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="V111:X111"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="I119:O119"/>
+    <mergeCell ref="F106:F116"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="J120:L120"/>
+    <mergeCell ref="S111:U111"/>
+    <mergeCell ref="P119:P126"/>
+    <mergeCell ref="I116:K116"/>
+    <mergeCell ref="J126:L126"/>
+    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="J124:L124"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="R98:T98"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:N99"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="O89:Q90"/>
+    <mergeCell ref="R89:T90"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="M19:O20"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="R97:T97"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M27:O28"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="D27:F28"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:L26"/>
+    <mergeCell ref="J27:L28"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="J41:L42"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D41:F42"/>
+    <mergeCell ref="G41:I42"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="M41:O42"/>
+    <mergeCell ref="D38:F39"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G96:G100"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
     <mergeCell ref="X78:X82"/>
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="T25:W25"/>
@@ -9691,338 +10665,10 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="T24:W24"/>
     <mergeCell ref="R99:T99"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="G96:G100"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="L68:L71"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="J27:L28"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D41:F42"/>
-    <mergeCell ref="G41:I42"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="M41:O42"/>
-    <mergeCell ref="D38:F39"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:L26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="J41:L42"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M27:O28"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="R98:T98"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:N99"/>
-    <mergeCell ref="I89:K89"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="O89:Q90"/>
-    <mergeCell ref="R89:T90"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="J19:L20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="M19:O20"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="R97:T97"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="V111:X111"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="I119:O119"/>
-    <mergeCell ref="F106:F116"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="J120:L120"/>
-    <mergeCell ref="S111:U111"/>
-    <mergeCell ref="P119:P126"/>
-    <mergeCell ref="I116:K116"/>
-    <mergeCell ref="J126:L126"/>
-    <mergeCell ref="M126:O126"/>
-    <mergeCell ref="J124:L124"/>
-    <mergeCell ref="M124:O124"/>
-    <mergeCell ref="J125:L125"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="J121:L121"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="R92:T92"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R94:T94"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="I97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="I93:K93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="I94:K94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="I112:K112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="I111:N111"/>
-    <mergeCell ref="O105:Q106"/>
-    <mergeCell ref="L102:N102"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="I105:K105"/>
-    <mergeCell ref="L105:N105"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="R105:T106"/>
-    <mergeCell ref="I106:K106"/>
-    <mergeCell ref="L106:N106"/>
-    <mergeCell ref="I100:K100"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A55:O55"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="F68:F80"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="I103:K104"/>
-    <mergeCell ref="L103:N104"/>
-    <mergeCell ref="O103:Q104"/>
-    <mergeCell ref="R103:T104"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="L100:N100"/>
-    <mergeCell ref="O100:Q100"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="I101:K102"/>
-    <mergeCell ref="L101:N101"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="R101:T101"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="R102:T102"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A27:C28"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="I88:T88"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="I107:K107"/>
-    <mergeCell ref="L107:N107"/>
-    <mergeCell ref="O107:Q107"/>
-    <mergeCell ref="R107:T107"/>
-    <mergeCell ref="I108:K108"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="O108:Q108"/>
-    <mergeCell ref="R108:T108"/>
-    <mergeCell ref="I113:K113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="L114:N114"/>
-    <mergeCell ref="I115:K115"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="D118:D122"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="U78:W78"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="R95:T95"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="V86:X86"/>
-    <mergeCell ref="W87:X87"/>
-    <mergeCell ref="W88:X88"/>
-    <mergeCell ref="W89:X89"/>
-    <mergeCell ref="W90:X90"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="I90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="I91:K91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="O91:Q91"/>
-    <mergeCell ref="R91:T91"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A25:C26"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="I96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="R96:T96"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="P55:P64"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="U78:W78" location="'ED01'!A83" display="TYPE_CONTRAT" xr:uid="{CE37C2D3-8063-4311-AE26-42B19D66B5AF}"/>
-    <hyperlink ref="A68:E68" location="'ED01'!A79" display="FONCTION" xr:uid="{F208DCD3-CC93-4B5C-B45B-C78E03BD5DE0}"/>
     <hyperlink ref="A89:C89" location="'ED01'!A77" display="STATUS" xr:uid="{B04BA4FF-1E97-4E78-8CFE-E1927EE85E67}"/>
     <hyperlink ref="A83:D83" location="'ED01'!A13" display="ETAT_CIVIlE" xr:uid="{1E8E7C43-41F3-406D-98F2-394EEA845356}"/>
     <hyperlink ref="C84:D84" location="'ED01'!A14" display="sex" xr:uid="{5817A09A-F861-4510-8011-011E2D5E5611}"/>
@@ -10035,6 +10681,7 @@
     <hyperlink ref="A106:E106" location="'ED01'!A56" display="PROCESSUS" xr:uid="{BB1B986A-A143-4609-BD2D-0A4DE233F295}"/>
     <hyperlink ref="R31:W31" location="'ED01'!A54" display="PER_DOCMENTATION" xr:uid="{B1C69F82-86BA-461F-9D7E-3C1E1BBFE617}"/>
     <hyperlink ref="R23:W23" location="'ED01'!A51" display="Documentation Projet" xr:uid="{6DFD7547-690C-43AD-9C85-10F0DBB7D811}"/>
+    <hyperlink ref="A68:E68" location="'ED01'!A79" display="FONCTION" xr:uid="{F208DCD3-CC93-4B5C-B45B-C78E03BD5DE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Projet Active .xlsx
+++ b/Projet Active .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Documents\4 Formation CDA\2 Exercice Prof\2 ECF 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Documents\4 Formation CDA\5 ECF\2 ECF 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DFA557-579B-40D4-87D8-3DF56459CD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F358F924-48BD-4579-BF8F-E15DEABA6042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire des données " sheetId="2" r:id="rId1"/>
@@ -4257,6 +4257,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4270,131 +4278,212 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4422,77 +4511,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4500,33 +4724,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4536,204 +4733,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5024,36 +5024,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FE0FAB-9E98-47D7-A836-A5D2B83CA8C9}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="11.5546875" style="12"/>
-    <col min="12" max="12" width="12.6640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="12"/>
+    <col min="1" max="1" width="47.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="11.5703125" style="12"/>
+    <col min="12" max="12" width="12.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="11.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>81</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>191</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>69</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>196</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>193</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>72</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>73</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>75</v>
       </c>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>150</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>151</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>187</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>188</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>77</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="33" t="s">
         <v>198</v>
@@ -5184,7 +5184,7 @@
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>79</v>
       </c>
@@ -5197,7 +5197,7 @@
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="33" t="s">
         <v>83</v>
@@ -5206,15 +5206,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+    <row r="19" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>194</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>10</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>11</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>86</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>12</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>13</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>127</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>88</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>128</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>89</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>90</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>92</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>17</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>18</v>
       </c>
@@ -5340,35 +5340,35 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>199</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>200</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>158</v>
       </c>
@@ -5377,21 +5377,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="35"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>93</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>182</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>183</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>184</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>96</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="C47" s="21"/>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="21" t="s">
         <v>98</v>
@@ -5446,21 +5446,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
       <c r="B49" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="21"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="55" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>21</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>100</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>101</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>22</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>143</v>
       </c>
@@ -5505,91 +5505,91 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="55" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>44</v>
       </c>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>107</v>
       </c>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>108</v>
       </c>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="56" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>23</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>113</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>114</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>24</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>25</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>26</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>27</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>7</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>119</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>121</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>123</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
         <v>189</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>29</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
         <v>185</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="46" t="s">
         <v>197</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A57:C57"/>
@@ -5746,498 +5746,498 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D982F9B-8C60-4CC4-82AF-7E67AEA0A789}">
   <dimension ref="A1:S132"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="201" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="57" t="s">
         <v>125</v>
       </c>
       <c r="J1" s="1"/>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="200"/>
-    </row>
-    <row r="2" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+    </row>
+    <row r="2" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="197" t="s">
+      <c r="K2" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197" t="s">
+      <c r="L2" s="78"/>
+      <c r="M2" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="197" t="s">
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="S2" s="197"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="100" t="s">
+      <c r="S2" s="78"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="114"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="93" t="s">
+      <c r="L3" s="63"/>
+      <c r="M3" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="60" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="S3" s="60"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="S3" s="64"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="122"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="65" t="s">
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="60" t="s">
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="S4" s="60"/>
-    </row>
-    <row r="5" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="115" t="s">
+      <c r="S4" s="64"/>
+    </row>
+    <row r="5" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="65" t="s">
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="60" t="s">
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="S5" s="60"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="125"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="100" t="s">
+      <c r="S5" s="64"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="91"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="76" t="s">
         <v>297</v>
       </c>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="60" t="s">
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="S6" s="60"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="126"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="s">
+      <c r="S6" s="64"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="60" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65" t="s">
+      <c r="L8" s="63"/>
+      <c r="M8" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="60" t="s">
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="S8" s="60"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="S8" s="64"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="100" t="s">
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="60"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="119" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="64"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="60"/>
-      <c r="K10" s="65" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="64"/>
+      <c r="K10" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65" t="s">
+      <c r="L10" s="63"/>
+      <c r="M10" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="60" t="s">
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="S10" s="60"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="65" t="s">
+      <c r="S10" s="64"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="60" t="s">
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="S11" s="60"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77"/>
-      <c r="K12" s="199"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="65" t="s">
+      <c r="S11" s="64"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="96"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="60" t="s">
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="S12" s="60"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="80"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="84"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="101" t="s">
+      <c r="S12" s="64"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="68"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="130" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="130"/>
-      <c r="I14" s="60" t="s">
+      <c r="H14" s="103"/>
+      <c r="I14" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65" t="s">
+      <c r="L14" s="63"/>
+      <c r="M14" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="60" t="s">
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="S14" s="60"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="100" t="s">
+      <c r="S14" s="64"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="135"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="60"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="45"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="104"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="100" t="s">
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="135"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="60"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="45"/>
-      <c r="K16" s="60" t="s">
+      <c r="K16" s="64" t="s">
         <v>309</v>
       </c>
-      <c r="L16" s="60"/>
-      <c r="M16" s="65" t="s">
+      <c r="L16" s="64"/>
+      <c r="M16" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="60" t="s">
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="S16" s="60"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="104"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="100" t="s">
+      <c r="S16" s="64"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="135"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="60"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="65" t="s">
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="60" t="s">
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="S17" s="60"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="100" t="s">
+      <c r="S17" s="64"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="135"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="60"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="107"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="100" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="60"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -6257,7 +6257,7 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -6272,7 +6272,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -6287,73 +6287,73 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="63" t="s">
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="110" t="s">
         <v>126</v>
       </c>
       <c r="J23" s="12"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="87"/>
-    </row>
-    <row r="24" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="63"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="130"/>
+    </row>
+    <row r="24" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="110"/>
       <c r="J24" s="45"/>
-      <c r="K24" s="81" t="s">
+      <c r="K24" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="94" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="110" t="s">
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="119" t="s">
         <v>126</v>
       </c>
       <c r="J25" s="45"/>
-      <c r="K25" s="65" t="s">
+      <c r="K25" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="L25" s="65"/>
+      <c r="L25" s="63"/>
       <c r="M25" s="17" t="s">
         <v>163</v>
       </c>
@@ -6364,74 +6364,74 @@
       <c r="R25" s="18"/>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="111"/>
+    <row r="26" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="116"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="120"/>
       <c r="J26" s="45"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="90" t="s">
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="92"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="109"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="11"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="89" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
       <c r="I27" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J27" s="45"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="70"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="61" t="s">
+      <c r="K27" s="123"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="124"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="124"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="125"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
       <c r="I28" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="196"/>
-      <c r="K28" s="65" t="s">
+      <c r="J28" s="56"/>
+      <c r="K28" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
       <c r="N28" s="15" t="s">
         <v>169</v>
       </c>
@@ -6441,24 +6441,24 @@
       <c r="R28" s="15"/>
       <c r="S28" s="16"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
       <c r="I29" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J29" s="12"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="16" t="s">
         <v>170</v>
       </c>
@@ -6468,26 +6468,26 @@
       <c r="R29" s="16"/>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60" t="s">
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="64" t="s">
         <v>0</v>
       </c>
       <c r="J30" s="12"/>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
       <c r="N30" s="15" t="s">
         <v>165</v>
       </c>
@@ -6497,22 +6497,22 @@
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="106"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="64"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="66" t="s">
+      <c r="K31" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
       <c r="N31" s="15" t="s">
         <v>166</v>
       </c>
@@ -6522,53 +6522,53 @@
       <c r="R31" s="15"/>
       <c r="S31" s="20"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
       <c r="I32" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J32" s="12"/>
-      <c r="K32" s="67" t="s">
+      <c r="K32" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="68" t="s">
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="70"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+      <c r="O32" s="124"/>
+      <c r="P32" s="124"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="125"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60" t="s">
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="64" t="s">
         <v>0</v>
       </c>
       <c r="J33" s="12"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
       <c r="N33" s="16" t="s">
         <v>171</v>
       </c>
@@ -6578,20 +6578,20 @@
       <c r="R33" s="16"/>
       <c r="S33" s="42"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="106"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="64"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="16" t="s">
         <v>172</v>
       </c>
@@ -6601,26 +6601,26 @@
       <c r="R34" s="16"/>
       <c r="S34" s="42"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60" t="s">
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="64" t="s">
         <v>0</v>
       </c>
       <c r="J35" s="12"/>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
       <c r="N35" s="16" t="s">
         <v>174</v>
       </c>
@@ -6630,20 +6630,20 @@
       <c r="R35" s="16"/>
       <c r="S35" s="42"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="106"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="64"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
       <c r="N36" s="16" t="s">
         <v>175</v>
       </c>
@@ -6653,67 +6653,67 @@
       <c r="R36" s="16"/>
       <c r="S36" s="42"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="59" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60" t="s">
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="64" t="s">
         <v>0</v>
       </c>
       <c r="J37" s="12"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="73"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="60"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="72"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="106"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="64"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="60" t="s">
+      <c r="K38" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="68" t="s">
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="70"/>
+      <c r="O38" s="124"/>
+      <c r="P38" s="124"/>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="125"/>
       <c r="S38" s="42"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
       <c r="I39" s="9" t="s">
         <v>0</v>
       </c>
@@ -6721,50 +6721,50 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
-      <c r="N39" s="75" t="s">
+      <c r="N39" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="77"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="97"/>
+      <c r="R39" s="98"/>
       <c r="S39" s="42"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="62" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63" t="s">
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="110" t="s">
         <v>0</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="80"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="101"/>
       <c r="S40" s="42"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="63"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="131"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="110"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
@@ -6776,65 +6776,65 @@
       <c r="R41" s="12"/>
       <c r="S41" s="13"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="64" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="63" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="110" t="s">
         <v>0</v>
       </c>
       <c r="J42" s="12"/>
-      <c r="K42" s="71" t="s">
+      <c r="K42" s="126" t="s">
         <v>312</v>
       </c>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="126"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="126"/>
       <c r="S42" s="13"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="63"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="95"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="110"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="126"/>
+      <c r="O43" s="126"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="126"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="65" t="s">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
       <c r="I44" s="9" t="s">
         <v>126</v>
       </c>
@@ -6849,17 +6849,17 @@
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="88" t="s">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
       <c r="I45" s="23" t="s">
         <v>126</v>
       </c>
@@ -6874,17 +6874,17 @@
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
       <c r="I46" s="9" t="s">
         <v>0</v>
       </c>
@@ -6899,17 +6899,17 @@
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="93" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
       <c r="I47" s="9" t="s">
         <v>0</v>
       </c>
@@ -6924,18 +6924,18 @@
       <c r="R47" s="12"/>
       <c r="S47" s="12"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="88" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="63" t="s">
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="110" t="s">
         <v>0</v>
       </c>
       <c r="J48" s="12"/>
@@ -6949,16 +6949,16 @@
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="63"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="110"/>
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
@@ -6970,18 +6970,18 @@
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="93" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="60" t="s">
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="64" t="s">
         <v>0</v>
       </c>
       <c r="J50" s="12"/>
@@ -6995,16 +6995,16 @@
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="93"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="60"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="77"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="64"/>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
@@ -7016,16 +7016,16 @@
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="73"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
@@ -7037,18 +7037,18 @@
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="82" t="s">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="60" t="s">
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="64" t="s">
         <v>1</v>
       </c>
       <c r="J53" s="12"/>
@@ -7062,18 +7062,18 @@
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="65" t="s">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="60"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="64"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
@@ -7085,15 +7085,15 @@
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
@@ -7106,18 +7106,18 @@
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="59" t="s">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="60" t="s">
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="64" t="s">
         <v>0</v>
       </c>
       <c r="J56" s="12"/>
@@ -7131,16 +7131,16 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="60"/>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="106"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="64"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
@@ -7152,7 +7152,7 @@
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
@@ -7164,7 +7164,7 @@
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
@@ -7176,7 +7176,7 @@
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
@@ -7188,7 +7188,7 @@
       <c r="R60" s="12"/>
       <c r="S60" s="12"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
@@ -7200,7 +7200,7 @@
       <c r="R61" s="12"/>
       <c r="S61" s="12"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
@@ -7212,7 +7212,7 @@
       <c r="R62" s="12"/>
       <c r="S62" s="12"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -7224,7 +7224,7 @@
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
@@ -7236,7 +7236,7 @@
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -7248,7 +7248,7 @@
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
@@ -7260,7 +7260,7 @@
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
@@ -7272,7 +7272,7 @@
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
@@ -7284,7 +7284,7 @@
       <c r="R68" s="12"/>
       <c r="S68" s="12"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
@@ -7296,7 +7296,7 @@
       <c r="R69" s="12"/>
       <c r="S69" s="12"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
@@ -7308,7 +7308,7 @@
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
@@ -7320,7 +7320,7 @@
       <c r="R71" s="12"/>
       <c r="S71" s="12"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
@@ -7332,7 +7332,7 @@
       <c r="R72" s="12"/>
       <c r="S72" s="12"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
@@ -7344,7 +7344,7 @@
       <c r="R73" s="12"/>
       <c r="S73" s="12"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
@@ -7356,7 +7356,7 @@
       <c r="R74" s="12"/>
       <c r="S74" s="12"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J75" s="12"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
@@ -7368,7 +7368,7 @@
       <c r="R75" s="12"/>
       <c r="S75" s="12"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J76" s="12"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
@@ -7380,7 +7380,7 @@
       <c r="R76" s="12"/>
       <c r="S76" s="12"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
@@ -7392,7 +7392,7 @@
       <c r="R77" s="12"/>
       <c r="S77" s="12"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
@@ -7404,7 +7404,7 @@
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -7425,7 +7425,7 @@
       <c r="R79" s="12"/>
       <c r="S79" s="12"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -7446,7 +7446,7 @@
       <c r="R80" s="12"/>
       <c r="S80" s="12"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -7467,7 +7467,7 @@
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -7479,7 +7479,7 @@
       <c r="I82" s="48"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -7491,7 +7491,7 @@
       <c r="I83" s="48"/>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -7503,7 +7503,7 @@
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -7515,7 +7515,7 @@
       <c r="I85" s="50"/>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -7527,7 +7527,7 @@
       <c r="I86" s="50"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -7539,7 +7539,7 @@
       <c r="I87" s="50"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="51"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
@@ -7551,7 +7551,7 @@
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="49"/>
       <c r="B89" s="49"/>
       <c r="C89" s="49"/>
@@ -7563,7 +7563,7 @@
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="49"/>
       <c r="B90" s="49"/>
       <c r="C90" s="49"/>
@@ -7575,15 +7575,15 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -7595,10 +7595,10 @@
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -7610,7 +7610,7 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -7622,7 +7622,7 @@
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -7634,7 +7634,7 @@
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -7646,7 +7646,7 @@
       <c r="I98" s="50"/>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="50"/>
       <c r="B99" s="50"/>
       <c r="C99" s="50"/>
@@ -7667,7 +7667,7 @@
       <c r="R99" s="12"/>
       <c r="S99" s="12"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -7688,7 +7688,7 @@
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="50"/>
       <c r="B101" s="50"/>
       <c r="C101" s="50"/>
@@ -7709,7 +7709,7 @@
       <c r="R101" s="12"/>
       <c r="S101" s="12"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -7730,7 +7730,7 @@
       <c r="R102" s="12"/>
       <c r="S102" s="12"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -7751,7 +7751,7 @@
       <c r="R103" s="12"/>
       <c r="S103" s="12"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -7772,7 +7772,7 @@
       <c r="R104" s="12"/>
       <c r="S104" s="12"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -7793,7 +7793,7 @@
       <c r="R105" s="12"/>
       <c r="S105" s="12"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -7814,7 +7814,7 @@
       <c r="R106" s="12"/>
       <c r="S106" s="12"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -7835,7 +7835,7 @@
       <c r="R107" s="12"/>
       <c r="S107" s="12"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -7856,7 +7856,7 @@
       <c r="R108" s="12"/>
       <c r="S108" s="12"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -7877,7 +7877,7 @@
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -7898,7 +7898,7 @@
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -7919,7 +7919,7 @@
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -7940,7 +7940,7 @@
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -7961,7 +7961,7 @@
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -7982,7 +7982,7 @@
       <c r="R114" s="12"/>
       <c r="S114" s="12"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -8003,7 +8003,7 @@
       <c r="R115" s="12"/>
       <c r="S115" s="12"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -8024,7 +8024,7 @@
       <c r="R116" s="12"/>
       <c r="S116" s="12"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -8045,7 +8045,7 @@
       <c r="R117" s="12"/>
       <c r="S117" s="12"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -8066,7 +8066,7 @@
       <c r="R118" s="12"/>
       <c r="S118" s="12"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -8087,7 +8087,7 @@
       <c r="R119" s="12"/>
       <c r="S119" s="12"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -8108,7 +8108,7 @@
       <c r="R120" s="12"/>
       <c r="S120" s="12"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -8129,7 +8129,7 @@
       <c r="R121" s="12"/>
       <c r="S121" s="12"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -8150,7 +8150,7 @@
       <c r="R122" s="12"/>
       <c r="S122" s="12"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -8171,7 +8171,7 @@
       <c r="R123" s="12"/>
       <c r="S123" s="12"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -8192,7 +8192,7 @@
       <c r="R124" s="12"/>
       <c r="S124" s="12"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -8213,7 +8213,7 @@
       <c r="R125" s="12"/>
       <c r="S125" s="12"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -8234,7 +8234,7 @@
       <c r="R126" s="12"/>
       <c r="S126" s="12"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -8255,7 +8255,7 @@
       <c r="R127" s="12"/>
       <c r="S127" s="12"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -8276,7 +8276,7 @@
       <c r="R128" s="12"/>
       <c r="S128" s="12"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -8297,7 +8297,7 @@
       <c r="R129" s="12"/>
       <c r="S129" s="12"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -8318,7 +8318,7 @@
       <c r="R130" s="12"/>
       <c r="S130" s="12"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -8339,7 +8339,7 @@
       <c r="R131" s="12"/>
       <c r="S131" s="12"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J132" s="12"/>
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
@@ -8353,43 +8353,61 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="K15:S15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K13:S13"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="K7:S7"/>
-    <mergeCell ref="K4:L6"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="N39:R40"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="K24:P24"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="A54:H55"/>
+    <mergeCell ref="A30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A35:H36"/>
+    <mergeCell ref="A40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A42:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="A37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A50:H51"/>
+    <mergeCell ref="A56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A48:H49"/>
+    <mergeCell ref="A23:H24"/>
+    <mergeCell ref="A33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K42:R43"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N32:S32"/>
     <mergeCell ref="K9:S9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
@@ -8410,65 +8428,47 @@
     <mergeCell ref="G14:H19"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="I14:I19"/>
-    <mergeCell ref="A48:H49"/>
-    <mergeCell ref="A23:H24"/>
-    <mergeCell ref="A33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="A50:H51"/>
-    <mergeCell ref="A56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K27:S27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K42:R43"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N32:S32"/>
-    <mergeCell ref="N39:R40"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="K24:P24"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="K23:S23"/>
-    <mergeCell ref="A54:H55"/>
-    <mergeCell ref="A30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A35:H36"/>
-    <mergeCell ref="A40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A42:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="A37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="I42:I43"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="A14:D19"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="K7:S7"/>
+    <mergeCell ref="K4:L6"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="K15:S15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K13:S13"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8484,343 +8484,334 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="192" t="s">
+    <row r="1" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="146" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="194" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="141" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="193"/>
-      <c r="K1" s="195"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+      <c r="J1" s="142"/>
+      <c r="K1" s="143"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="145" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="191" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="144" t="s">
         <v>322</v>
       </c>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="129" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-    </row>
-    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119" t="s">
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
         <v>326</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="129" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="102" t="s">
         <v>325</v>
       </c>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="s">
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="s">
         <v>328</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="129" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="119"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="119"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="119"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="119"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="119"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="119"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="119"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-    </row>
-    <row r="22" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I22:K23"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I10:K11"/>
-    <mergeCell ref="I12:K13"/>
-    <mergeCell ref="I14:K15"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="I8:K9"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="I2:K3"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A22:H23"/>
     <mergeCell ref="I18:K19"/>
     <mergeCell ref="I20:K21"/>
@@ -8834,7 +8825,16 @@
     <mergeCell ref="A16:H17"/>
     <mergeCell ref="A18:H19"/>
     <mergeCell ref="A20:H21"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I22:K23"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I10:K11"/>
+    <mergeCell ref="I12:K13"/>
+    <mergeCell ref="I14:K15"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="I6:K7"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="I2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8844,21 +8844,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -8890,7 +8890,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8922,7 +8922,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8954,7 +8954,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -8983,83 +8983,83 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
     </row>
-    <row r="5" spans="1:31" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="149" t="s">
+    <row r="5" spans="1:31" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="150"/>
       <c r="G5" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="H5" s="178"/>
-      <c r="J5" s="140" t="s">
+      <c r="H5" s="55"/>
+      <c r="J5" s="176" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="178"/>
       <c r="P5" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="Q5" s="178"/>
-      <c r="S5" s="158" t="s">
+      <c r="Q5" s="55"/>
+      <c r="S5" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="174"/>
+      <c r="T5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="187"/>
+      <c r="W5" s="187"/>
+      <c r="X5" s="188"/>
       <c r="Y5" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="Z5" s="178"/>
+      <c r="Z5" s="55"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" s="144" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="151" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="152" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="205" t="s">
         <v>249</v>
       </c>
-      <c r="E6" s="153"/>
+      <c r="E6" s="206"/>
       <c r="F6" s="44">
         <v>4</v>
       </c>
       <c r="G6" s="38"/>
-      <c r="J6" s="143" t="s">
+      <c r="J6" s="179" t="s">
         <v>247</v>
       </c>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="164" t="s">
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
+      <c r="M6" s="180" t="s">
         <v>244</v>
       </c>
-      <c r="N6" s="165"/>
+      <c r="N6" s="181"/>
       <c r="O6" s="40">
         <v>20</v>
       </c>
       <c r="P6" s="38"/>
-      <c r="S6" s="161" t="s">
+      <c r="S6" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="162"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="60" t="s">
+      <c r="T6" s="165"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="W6" s="60"/>
+      <c r="W6" s="64"/>
       <c r="X6" s="37">
         <v>4</v>
       </c>
@@ -9069,42 +9069,42 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148" t="s">
+    <row r="7" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="138" t="s">
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="139"/>
+      <c r="E7" s="183"/>
       <c r="F7" s="38">
         <v>100</v>
       </c>
       <c r="G7" s="38"/>
-      <c r="J7" s="143" t="s">
+      <c r="J7" s="179" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="164" t="s">
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="180" t="s">
         <v>230</v>
       </c>
-      <c r="N7" s="165"/>
+      <c r="N7" s="181"/>
       <c r="O7" s="40">
         <v>20</v>
       </c>
       <c r="P7" s="38"/>
-      <c r="S7" s="161" t="s">
+      <c r="S7" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="T7" s="162"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="60" t="s">
+      <c r="T7" s="165"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="W7" s="60"/>
+      <c r="W7" s="64"/>
       <c r="X7" s="37">
         <v>50</v>
       </c>
@@ -9114,42 +9114,42 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" s="148" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="138" t="s">
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="139"/>
+      <c r="E8" s="183"/>
       <c r="F8" s="38">
         <v>100</v>
       </c>
       <c r="G8" s="38"/>
-      <c r="J8" s="172" t="s">
+      <c r="J8" s="186" t="s">
         <v>217</v>
       </c>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="138" t="s">
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N8" s="139"/>
+      <c r="N8" s="183"/>
       <c r="O8" s="38">
         <v>20</v>
       </c>
       <c r="P8" s="38"/>
-      <c r="S8" s="175" t="s">
+      <c r="S8" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="60" t="s">
+      <c r="T8" s="189"/>
+      <c r="U8" s="189"/>
+      <c r="V8" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="W8" s="60"/>
+      <c r="W8" s="64"/>
       <c r="X8" s="37">
         <v>10</v>
       </c>
@@ -9159,42 +9159,42 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" s="148" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="138" t="s">
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="E9" s="139"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="38">
         <v>100</v>
       </c>
       <c r="G9" s="38"/>
-      <c r="J9" s="172" t="s">
+      <c r="J9" s="186" t="s">
         <v>218</v>
       </c>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="138" t="s">
+      <c r="K9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N9" s="139"/>
+      <c r="N9" s="183"/>
       <c r="O9" s="38">
         <v>25</v>
       </c>
       <c r="P9" s="38"/>
-      <c r="S9" s="176" t="s">
+      <c r="S9" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="60" t="s">
+      <c r="T9" s="191"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="W9" s="60"/>
+      <c r="W9" s="64"/>
       <c r="X9" s="37">
         <v>50</v>
       </c>
@@ -9204,42 +9204,42 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="148" t="s">
+    <row r="10" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="138" t="s">
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="139"/>
+      <c r="E10" s="183"/>
       <c r="F10" s="38">
         <v>10</v>
       </c>
       <c r="G10" s="38"/>
-      <c r="J10" s="172" t="s">
+      <c r="J10" s="186" t="s">
         <v>219</v>
       </c>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="138" t="s">
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N10" s="139"/>
+      <c r="N10" s="183"/>
       <c r="O10" s="38">
         <v>25</v>
       </c>
       <c r="P10" s="38"/>
-      <c r="S10" s="175" t="s">
+      <c r="S10" s="189" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="60" t="s">
+      <c r="T10" s="189"/>
+      <c r="U10" s="189"/>
+      <c r="V10" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="W10" s="60"/>
+      <c r="W10" s="64"/>
       <c r="X10" s="37" t="s">
         <v>237</v>
       </c>
@@ -9249,219 +9249,219 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" s="148" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="138" t="s">
+      <c r="B11" s="190"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="182" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="139"/>
+      <c r="E11" s="183"/>
       <c r="F11" s="38">
         <v>10.199999999999999</v>
       </c>
       <c r="G11" s="38"/>
-      <c r="J11" s="172" t="s">
+      <c r="J11" s="186" t="s">
         <v>220</v>
       </c>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="138" t="s">
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N11" s="139"/>
+      <c r="N11" s="183"/>
       <c r="O11" s="38">
         <v>10</v>
       </c>
       <c r="P11" s="38"/>
-      <c r="S11" s="175" t="s">
+      <c r="S11" s="189" t="s">
         <v>234</v>
       </c>
-      <c r="T11" s="175"/>
-      <c r="U11" s="175"/>
-      <c r="V11" s="60" t="s">
+      <c r="T11" s="189"/>
+      <c r="U11" s="189"/>
+      <c r="V11" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="W11" s="60"/>
+      <c r="W11" s="64"/>
       <c r="X11" s="37" t="s">
         <v>237</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="148" t="s">
+    <row r="12" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="148"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="138" t="s">
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="139"/>
+      <c r="E12" s="183"/>
       <c r="F12" s="38">
         <v>100</v>
       </c>
       <c r="G12" s="38"/>
-      <c r="J12" s="172" t="s">
+      <c r="J12" s="186" t="s">
         <v>221</v>
       </c>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="138" t="s">
+      <c r="K12" s="186"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N12" s="139"/>
+      <c r="N12" s="183"/>
       <c r="O12" s="38">
         <v>5</v>
       </c>
       <c r="P12" s="38"/>
-      <c r="S12" s="175" t="s">
+      <c r="S12" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="T12" s="175"/>
-      <c r="U12" s="175"/>
-      <c r="V12" s="60" t="s">
+      <c r="T12" s="189"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="W12" s="60"/>
+      <c r="W12" s="64"/>
       <c r="X12" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="Y12" s="129" t="s">
+      <c r="Y12" s="102" t="s">
         <v>238</v>
       </c>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" s="148" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="138" t="s">
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="139"/>
+      <c r="E13" s="183"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="J13" s="172" t="s">
+      <c r="J13" s="186" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="172"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="138" t="s">
+      <c r="K13" s="186"/>
+      <c r="L13" s="186"/>
+      <c r="M13" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N13" s="139"/>
+      <c r="N13" s="183"/>
       <c r="O13" s="38">
         <v>10</v>
       </c>
       <c r="P13" s="38"/>
-      <c r="S13" s="175" t="s">
+      <c r="S13" s="189" t="s">
         <v>233</v>
       </c>
-      <c r="T13" s="175"/>
-      <c r="U13" s="175"/>
-      <c r="V13" s="60" t="s">
+      <c r="T13" s="189"/>
+      <c r="U13" s="189"/>
+      <c r="V13" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="W13" s="60"/>
+      <c r="W13" s="64"/>
       <c r="X13" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="Y13" s="129"/>
+      <c r="Y13" s="102"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="148" t="s">
+    <row r="14" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="190" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="138" t="s">
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="E14" s="139"/>
+      <c r="E14" s="183"/>
       <c r="F14" s="38">
         <v>20</v>
       </c>
       <c r="G14" s="38"/>
-      <c r="J14" s="172" t="s">
+      <c r="J14" s="186" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="138" t="s">
+      <c r="K14" s="186"/>
+      <c r="L14" s="186"/>
+      <c r="M14" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N14" s="139"/>
+      <c r="N14" s="183"/>
       <c r="O14" s="38">
         <v>4</v>
       </c>
       <c r="P14" s="38"/>
-      <c r="S14" s="156" t="s">
+      <c r="S14" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156"/>
-      <c r="V14" s="60" t="s">
+      <c r="T14" s="192"/>
+      <c r="U14" s="192"/>
+      <c r="V14" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="W14" s="60"/>
+      <c r="W14" s="64"/>
       <c r="X14" s="37">
         <v>8</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="148" t="s">
+    <row r="15" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="138" t="s">
+      <c r="B15" s="190"/>
+      <c r="C15" s="190"/>
+      <c r="D15" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="E15" s="139"/>
+      <c r="E15" s="183"/>
       <c r="F15" s="38">
         <v>20</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="172" t="s">
+      <c r="J15" s="186" t="s">
         <v>224</v>
       </c>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="138" t="s">
+      <c r="K15" s="186"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="139"/>
+      <c r="N15" s="183"/>
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
-      <c r="S15" s="132" t="s">
+      <c r="S15" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="60" t="s">
+      <c r="T15" s="193"/>
+      <c r="U15" s="193"/>
+      <c r="V15" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="W15" s="60"/>
+      <c r="W15" s="64"/>
       <c r="X15" s="37">
         <v>8</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -9471,44 +9471,44 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="172" t="s">
+      <c r="J16" s="186" t="s">
         <v>225</v>
       </c>
-      <c r="K16" s="172"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="138" t="s">
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="N16" s="139"/>
+      <c r="N16" s="183"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
-      <c r="S16" s="132" t="s">
+      <c r="S16" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="60" t="s">
+      <c r="T16" s="193"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="W16" s="60"/>
+      <c r="W16" s="64"/>
       <c r="X16" s="37">
         <v>100</v>
       </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="172" t="s">
+      <c r="J17" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="138" t="s">
+      <c r="K17" s="186"/>
+      <c r="L17" s="186"/>
+      <c r="M17" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N17" s="139"/>
+      <c r="N17" s="183"/>
       <c r="O17" s="38">
         <v>1</v>
       </c>
@@ -9522,19 +9522,19 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="149" t="s">
+    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="148" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="151"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="150"/>
       <c r="G18" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="H18" s="178"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -9554,17 +9554,17 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="144" t="s">
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="154" t="s">
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="147" t="s">
         <v>244</v>
       </c>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
       <c r="G19" s="39"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -9577,213 +9577,213 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="158" t="s">
+      <c r="S19" s="161" t="s">
         <v>239</v>
       </c>
-      <c r="T19" s="159"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="159"/>
-      <c r="X19" s="160"/>
+      <c r="T19" s="162"/>
+      <c r="U19" s="162"/>
+      <c r="V19" s="162"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="163"/>
       <c r="Y19" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="Z19" s="178"/>
-    </row>
-    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="144" t="s">
+      <c r="Z19" s="55"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="151" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="154" t="s">
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="147" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
       <c r="G20" s="39"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="140" t="s">
+      <c r="J20" s="176" t="s">
         <v>264</v>
       </c>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="142"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="178"/>
       <c r="P20" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="Q20" s="178"/>
+      <c r="Q20" s="55"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="161" t="s">
+      <c r="S20" s="164" t="s">
         <v>240</v>
       </c>
-      <c r="T20" s="162"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="177" t="s">
+      <c r="T20" s="165"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="W20" s="177"/>
+      <c r="W20" s="184"/>
       <c r="X20" s="40">
         <v>6</v>
       </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="148" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="133" t="s">
+      <c r="B21" s="190"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
       <c r="G21" s="39"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="143" t="s">
+      <c r="J21" s="179" t="s">
         <v>265</v>
       </c>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="164" t="s">
+      <c r="K21" s="179"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="180" t="s">
         <v>244</v>
       </c>
-      <c r="N21" s="165"/>
+      <c r="N21" s="181"/>
       <c r="O21" s="40"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="161" t="s">
+      <c r="S21" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="T21" s="162"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="60" t="s">
+      <c r="T21" s="165"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="W21" s="60"/>
+      <c r="W21" s="64"/>
       <c r="X21" s="38"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="148" t="s">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="148"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="133" t="s">
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="39"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="143" t="s">
+      <c r="J22" s="179" t="s">
         <v>266</v>
       </c>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="164" t="s">
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="180" t="s">
         <v>202</v>
       </c>
-      <c r="N22" s="165"/>
+      <c r="N22" s="181"/>
       <c r="O22" s="40"/>
       <c r="P22" s="38"/>
-      <c r="S22" s="161" t="s">
+      <c r="S22" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="T22" s="162"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="133" t="s">
+      <c r="T22" s="165"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="W22" s="133"/>
+      <c r="W22" s="79"/>
       <c r="X22" s="38"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="143" t="s">
+      <c r="J23" s="179" t="s">
         <v>267</v>
       </c>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="164" t="s">
+      <c r="K23" s="179"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="165"/>
+      <c r="N23" s="181"/>
       <c r="O23" s="40"/>
       <c r="P23" s="38"/>
-      <c r="S23" s="161" t="s">
+      <c r="S23" s="164" t="s">
         <v>242</v>
       </c>
-      <c r="T23" s="162"/>
-      <c r="U23" s="163"/>
-      <c r="V23" s="133" t="s">
+      <c r="T23" s="165"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="W23" s="133"/>
+      <c r="W23" s="79"/>
       <c r="X23" s="38"/>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="143" t="s">
+      <c r="J24" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="164" t="s">
+      <c r="K24" s="179"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="N24" s="165"/>
+      <c r="N24" s="181"/>
       <c r="O24" s="40"/>
       <c r="P24" s="38"/>
-      <c r="S24" s="161" t="s">
+      <c r="S24" s="164" t="s">
         <v>243</v>
       </c>
-      <c r="T24" s="162"/>
-      <c r="U24" s="163"/>
-      <c r="V24" s="166" t="s">
+      <c r="T24" s="165"/>
+      <c r="U24" s="166"/>
+      <c r="V24" s="185" t="s">
         <v>230</v>
       </c>
-      <c r="W24" s="166"/>
+      <c r="W24" s="185"/>
       <c r="X24" s="38">
         <v>100</v>
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="149" t="s">
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="148" t="s">
         <v>313</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="151"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="150"/>
       <c r="G25" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="178"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -9796,455 +9796,455 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="144" t="s">
+    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="151" t="s">
         <v>314</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="154" t="s">
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="147" t="s">
         <v>229</v>
       </c>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
       <c r="G26" s="53"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="144" t="s">
+    <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="154" t="s">
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="147" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
       <c r="G27" s="53"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="140" t="s">
+      <c r="J27" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="142"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="178"/>
       <c r="P27" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="Q27" s="178"/>
-      <c r="S27" s="158" t="s">
+      <c r="Q27" s="55"/>
+      <c r="S27" s="161" t="s">
         <v>246</v>
       </c>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="159"/>
-      <c r="X27" s="160"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="163"/>
       <c r="Y27" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="Z27" s="178"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z27" s="55"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="143" t="s">
+      <c r="J28" s="179" t="s">
         <v>269</v>
       </c>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="164" t="s">
+      <c r="K28" s="179"/>
+      <c r="L28" s="179"/>
+      <c r="M28" s="180" t="s">
         <v>244</v>
       </c>
-      <c r="N28" s="165"/>
+      <c r="N28" s="181"/>
       <c r="O28" s="40"/>
       <c r="P28" s="38"/>
-      <c r="S28" s="161" t="s">
+      <c r="S28" s="164" t="s">
         <v>247</v>
       </c>
-      <c r="T28" s="162"/>
-      <c r="U28" s="163"/>
-      <c r="V28" s="60" t="s">
+      <c r="T28" s="165"/>
+      <c r="U28" s="166"/>
+      <c r="V28" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="W28" s="60"/>
+      <c r="W28" s="64"/>
       <c r="X28" s="38"/>
       <c r="Y28" s="7"/>
     </row>
-    <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="143" t="s">
+      <c r="J29" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="138" t="s">
+      <c r="K29" s="179"/>
+      <c r="L29" s="179"/>
+      <c r="M29" s="182" t="s">
         <v>229</v>
       </c>
-      <c r="N29" s="139"/>
+      <c r="N29" s="183"/>
       <c r="O29" s="40">
         <v>7.2</v>
       </c>
       <c r="P29" s="38"/>
-      <c r="S29" s="161" t="s">
+      <c r="S29" s="164" t="s">
         <v>251</v>
       </c>
-      <c r="T29" s="162"/>
-      <c r="U29" s="163"/>
-      <c r="V29" s="166" t="s">
+      <c r="T29" s="165"/>
+      <c r="U29" s="166"/>
+      <c r="V29" s="185" t="s">
         <v>230</v>
       </c>
-      <c r="W29" s="166"/>
+      <c r="W29" s="185"/>
       <c r="X29" s="38">
         <v>100</v>
       </c>
       <c r="Y29" s="7"/>
     </row>
-    <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="149" t="s">
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="148" t="s">
         <v>315</v>
       </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="151"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="150"/>
       <c r="G30" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="H30" s="178"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="143" t="s">
+      <c r="J30" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="164" t="s">
+      <c r="K30" s="179"/>
+      <c r="L30" s="179"/>
+      <c r="M30" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="N30" s="165"/>
+      <c r="N30" s="181"/>
       <c r="O30" s="37" t="s">
         <v>237</v>
       </c>
       <c r="P30" s="38"/>
-      <c r="S30" s="161" t="s">
+      <c r="S30" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="162"/>
-      <c r="U30" s="163"/>
-      <c r="V30" s="60" t="s">
+      <c r="T30" s="165"/>
+      <c r="U30" s="166"/>
+      <c r="V30" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="W30" s="60"/>
+      <c r="W30" s="64"/>
       <c r="X30" s="37" t="s">
         <v>237</v>
       </c>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="144" t="s">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="154" t="s">
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="147" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
       <c r="G31" s="53"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="S31" s="161" t="s">
+      <c r="S31" s="164" t="s">
         <v>252</v>
       </c>
-      <c r="T31" s="162"/>
-      <c r="U31" s="163"/>
-      <c r="V31" s="60" t="s">
+      <c r="T31" s="165"/>
+      <c r="U31" s="166"/>
+      <c r="V31" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="W31" s="60"/>
+      <c r="W31" s="64"/>
       <c r="X31" s="38"/>
       <c r="Y31" s="4"/>
     </row>
-    <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="144" t="s">
+    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="151" t="s">
         <v>316</v>
       </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="154" t="s">
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="147" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
       <c r="G32" s="53"/>
     </row>
-    <row r="33" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="140" t="s">
+    <row r="33" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="176" t="s">
         <v>270</v>
       </c>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="142"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="178"/>
       <c r="P33" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="Q33" s="178"/>
-    </row>
-    <row r="34" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J34" s="143" t="s">
+      <c r="Q33" s="55"/>
+    </row>
+    <row r="34" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="179" t="s">
         <v>271</v>
       </c>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="164" t="s">
+      <c r="K34" s="179"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="180" t="s">
         <v>244</v>
       </c>
-      <c r="N34" s="165"/>
+      <c r="N34" s="181"/>
       <c r="O34" s="40"/>
       <c r="P34" s="38"/>
-      <c r="S34" s="158" t="s">
+      <c r="S34" s="161" t="s">
         <v>253</v>
       </c>
-      <c r="T34" s="159"/>
-      <c r="U34" s="159"/>
-      <c r="V34" s="159"/>
-      <c r="W34" s="159"/>
-      <c r="X34" s="160"/>
+      <c r="T34" s="162"/>
+      <c r="U34" s="162"/>
+      <c r="V34" s="162"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="163"/>
       <c r="Y34" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="Z34" s="178"/>
-    </row>
-    <row r="35" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J35" s="143" t="s">
+      <c r="Z34" s="55"/>
+    </row>
+    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="179" t="s">
         <v>272</v>
       </c>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="138" t="s">
+      <c r="K35" s="179"/>
+      <c r="L35" s="179"/>
+      <c r="M35" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N35" s="139"/>
+      <c r="N35" s="183"/>
       <c r="O35" s="40">
         <v>100</v>
       </c>
       <c r="P35" s="38"/>
-      <c r="S35" s="161" t="s">
+      <c r="S35" s="164" t="s">
         <v>256</v>
       </c>
-      <c r="T35" s="162"/>
-      <c r="U35" s="163"/>
-      <c r="V35" s="60" t="s">
+      <c r="T35" s="165"/>
+      <c r="U35" s="166"/>
+      <c r="V35" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="W35" s="60"/>
+      <c r="W35" s="64"/>
       <c r="X35" s="38"/>
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B36" s="204" t="s">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="152" t="s">
         <v>329</v>
       </c>
-      <c r="C36" s="205"/>
-      <c r="D36" s="206"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="154"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="S36" s="161" t="s">
+      <c r="S36" s="164" t="s">
         <v>255</v>
       </c>
-      <c r="T36" s="162"/>
-      <c r="U36" s="163"/>
-      <c r="V36" s="60" t="s">
+      <c r="T36" s="165"/>
+      <c r="U36" s="166"/>
+      <c r="V36" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="W36" s="60"/>
+      <c r="W36" s="64"/>
       <c r="X36" s="38">
         <v>100</v>
       </c>
       <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="207"/>
-      <c r="C37" s="208"/>
-      <c r="D37" s="209"/>
+    <row r="37" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="155"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="157"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="210"/>
-      <c r="C38" s="211"/>
-      <c r="D38" s="212"/>
+    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="158"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="160"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="J38" s="181" t="s">
+      <c r="J38" s="173" t="s">
         <v>318</v>
       </c>
-      <c r="K38" s="182"/>
-      <c r="L38" s="182"/>
-      <c r="M38" s="182"/>
-      <c r="N38" s="182"/>
-      <c r="O38" s="183"/>
+      <c r="K38" s="174"/>
+      <c r="L38" s="174"/>
+      <c r="M38" s="174"/>
+      <c r="N38" s="174"/>
+      <c r="O38" s="175"/>
       <c r="P38" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="Q38" s="178"/>
-    </row>
-    <row r="39" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q38" s="55"/>
+    </row>
+    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="J39" s="187" t="s">
+      <c r="J39" s="202" t="s">
         <v>265</v>
       </c>
-      <c r="K39" s="188"/>
-      <c r="L39" s="189"/>
-      <c r="M39" s="152" t="s">
+      <c r="K39" s="203"/>
+      <c r="L39" s="204"/>
+      <c r="M39" s="205" t="s">
         <v>244</v>
       </c>
-      <c r="N39" s="153"/>
+      <c r="N39" s="206"/>
       <c r="O39" s="54"/>
       <c r="P39" s="52"/>
-      <c r="S39" s="158" t="s">
+      <c r="S39" s="161" t="s">
         <v>257</v>
       </c>
-      <c r="T39" s="159"/>
-      <c r="U39" s="159"/>
-      <c r="V39" s="159"/>
-      <c r="W39" s="159"/>
-      <c r="X39" s="160"/>
+      <c r="T39" s="162"/>
+      <c r="U39" s="162"/>
+      <c r="V39" s="162"/>
+      <c r="W39" s="162"/>
+      <c r="X39" s="163"/>
       <c r="Y39" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="Z39" s="178"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="Z39" s="55"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="J40" s="184" t="s">
+      <c r="J40" s="207" t="s">
         <v>269</v>
       </c>
-      <c r="K40" s="185"/>
-      <c r="L40" s="186"/>
-      <c r="M40" s="138" t="s">
+      <c r="K40" s="208"/>
+      <c r="L40" s="209"/>
+      <c r="M40" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N40" s="139"/>
+      <c r="N40" s="183"/>
       <c r="O40" s="54">
         <v>100</v>
       </c>
       <c r="P40" s="52"/>
-      <c r="S40" s="161" t="s">
+      <c r="S40" s="164" t="s">
         <v>258</v>
       </c>
-      <c r="T40" s="162"/>
-      <c r="U40" s="163"/>
-      <c r="V40" s="60" t="s">
+      <c r="T40" s="165"/>
+      <c r="U40" s="166"/>
+      <c r="V40" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="W40" s="60"/>
+      <c r="W40" s="64"/>
       <c r="X40" s="38"/>
       <c r="Y40" s="41"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="S41" s="161" t="s">
+      <c r="S41" s="164" t="s">
         <v>63</v>
       </c>
-      <c r="T41" s="162"/>
-      <c r="U41" s="163"/>
-      <c r="V41" s="60" t="s">
+      <c r="T41" s="165"/>
+      <c r="U41" s="166"/>
+      <c r="V41" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="W41" s="60"/>
+      <c r="W41" s="64"/>
       <c r="X41" s="38">
         <v>100</v>
       </c>
       <c r="Y41" s="41"/>
     </row>
-    <row r="42" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="S42" s="161" t="s">
+      <c r="S42" s="164" t="s">
         <v>259</v>
       </c>
-      <c r="T42" s="162"/>
-      <c r="U42" s="163"/>
-      <c r="V42" s="60" t="s">
+      <c r="T42" s="165"/>
+      <c r="U42" s="166"/>
+      <c r="V42" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="W42" s="60"/>
+      <c r="W42" s="64"/>
       <c r="X42" s="38">
         <v>100</v>
       </c>
       <c r="Y42" s="41"/>
     </row>
-    <row r="43" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J43" s="140" t="s">
+    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="176" t="s">
         <v>273</v>
       </c>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="141"/>
-      <c r="N43" s="141"/>
-      <c r="O43" s="142"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="177"/>
+      <c r="M43" s="177"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="178"/>
       <c r="P43" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="Q43" s="178"/>
-      <c r="S43" s="161" t="s">
+      <c r="Q43" s="55"/>
+      <c r="S43" s="164" t="s">
         <v>260</v>
       </c>
-      <c r="T43" s="162"/>
-      <c r="U43" s="163"/>
-      <c r="V43" s="60" t="s">
+      <c r="T43" s="165"/>
+      <c r="U43" s="166"/>
+      <c r="V43" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="W43" s="60"/>
+      <c r="W43" s="64"/>
       <c r="X43" s="37" t="s">
         <v>237</v>
       </c>
       <c r="Y43" s="7"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="J44" s="143" t="s">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="J44" s="179" t="s">
         <v>274</v>
       </c>
-      <c r="K44" s="143"/>
-      <c r="L44" s="143"/>
-      <c r="M44" s="164" t="s">
+      <c r="K44" s="179"/>
+      <c r="L44" s="179"/>
+      <c r="M44" s="180" t="s">
         <v>244</v>
       </c>
-      <c r="N44" s="165"/>
+      <c r="N44" s="181"/>
       <c r="O44" s="40"/>
       <c r="P44" s="38"/>
     </row>
-    <row r="45" spans="2:26" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:26" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -10252,21 +10252,21 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="143" t="s">
+      <c r="J45" s="179" t="s">
         <v>273</v>
       </c>
-      <c r="K45" s="143"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="138" t="s">
+      <c r="K45" s="179"/>
+      <c r="L45" s="179"/>
+      <c r="M45" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="N45" s="139"/>
+      <c r="N45" s="183"/>
       <c r="O45" s="40">
         <v>50</v>
       </c>
       <c r="P45" s="38"/>
     </row>
-    <row r="46" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -10281,110 +10281,110 @@
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
-      <c r="S46" s="158" t="s">
+      <c r="S46" s="161" t="s">
         <v>261</v>
       </c>
-      <c r="T46" s="159"/>
-      <c r="U46" s="159"/>
-      <c r="V46" s="159"/>
-      <c r="W46" s="159"/>
-      <c r="X46" s="160"/>
+      <c r="T46" s="162"/>
+      <c r="U46" s="162"/>
+      <c r="V46" s="162"/>
+      <c r="W46" s="162"/>
+      <c r="X46" s="163"/>
       <c r="Y46" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="Z46" s="178"/>
-    </row>
-    <row r="47" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z46" s="55"/>
+    </row>
+    <row r="47" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="140" t="s">
+      <c r="J47" s="176" t="s">
         <v>275</v>
       </c>
-      <c r="K47" s="141"/>
-      <c r="L47" s="141"/>
-      <c r="M47" s="141"/>
-      <c r="N47" s="141"/>
-      <c r="O47" s="142"/>
+      <c r="K47" s="177"/>
+      <c r="L47" s="177"/>
+      <c r="M47" s="177"/>
+      <c r="N47" s="177"/>
+      <c r="O47" s="178"/>
       <c r="P47" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="Q47" s="178"/>
-      <c r="S47" s="161" t="s">
+      <c r="Q47" s="55"/>
+      <c r="S47" s="164" t="s">
         <v>262</v>
       </c>
-      <c r="T47" s="162"/>
-      <c r="U47" s="163"/>
-      <c r="V47" s="60" t="s">
+      <c r="T47" s="165"/>
+      <c r="U47" s="166"/>
+      <c r="V47" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="W47" s="60"/>
+      <c r="W47" s="64"/>
       <c r="X47" s="38"/>
       <c r="Y47" s="41"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="I48" s="1"/>
-      <c r="J48" s="143" t="s">
+      <c r="J48" s="179" t="s">
         <v>276</v>
       </c>
-      <c r="K48" s="143"/>
-      <c r="L48" s="143"/>
-      <c r="M48" s="164" t="s">
+      <c r="K48" s="179"/>
+      <c r="L48" s="179"/>
+      <c r="M48" s="180" t="s">
         <v>244</v>
       </c>
-      <c r="N48" s="165"/>
+      <c r="N48" s="181"/>
       <c r="O48" s="40"/>
       <c r="P48" s="38"/>
-      <c r="S48" s="161" t="s">
+      <c r="S48" s="164" t="s">
         <v>263</v>
       </c>
-      <c r="T48" s="162"/>
-      <c r="U48" s="163"/>
-      <c r="V48" s="60" t="s">
+      <c r="T48" s="165"/>
+      <c r="U48" s="166"/>
+      <c r="V48" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="W48" s="60"/>
+      <c r="W48" s="64"/>
       <c r="X48" s="38">
         <v>100</v>
       </c>
       <c r="Y48" s="7"/>
     </row>
-    <row r="49" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:27" x14ac:dyDescent="0.25">
       <c r="I49" s="1"/>
-      <c r="J49" s="143" t="s">
+      <c r="J49" s="179" t="s">
         <v>275</v>
       </c>
-      <c r="K49" s="143"/>
-      <c r="L49" s="143"/>
-      <c r="M49" s="138" t="s">
+      <c r="K49" s="179"/>
+      <c r="L49" s="179"/>
+      <c r="M49" s="182" t="s">
         <v>278</v>
       </c>
-      <c r="N49" s="139"/>
+      <c r="N49" s="183"/>
       <c r="O49" s="40">
         <v>50</v>
       </c>
       <c r="P49" s="38"/>
     </row>
-    <row r="50" spans="4:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I50" s="1"/>
-      <c r="J50" s="143" t="s">
+      <c r="J50" s="179" t="s">
         <v>277</v>
       </c>
-      <c r="K50" s="143"/>
-      <c r="L50" s="143"/>
-      <c r="M50" s="138" t="s">
+      <c r="K50" s="179"/>
+      <c r="L50" s="179"/>
+      <c r="M50" s="182" t="s">
         <v>279</v>
       </c>
-      <c r="N50" s="139"/>
+      <c r="N50" s="183"/>
       <c r="O50" s="40">
         <v>51</v>
       </c>
       <c r="P50" s="38"/>
     </row>
-    <row r="51" spans="4:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -10393,20 +10393,20 @@
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="S51" s="158" t="s">
+      <c r="S51" s="161" t="s">
         <v>280</v>
       </c>
-      <c r="T51" s="159"/>
-      <c r="U51" s="159"/>
-      <c r="V51" s="159"/>
-      <c r="W51" s="159"/>
-      <c r="X51" s="160"/>
+      <c r="T51" s="162"/>
+      <c r="U51" s="162"/>
+      <c r="V51" s="162"/>
+      <c r="W51" s="162"/>
+      <c r="X51" s="163"/>
       <c r="Y51" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="Z51" s="178"/>
-    </row>
-    <row r="52" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="Z51" s="55"/>
+    </row>
+    <row r="52" spans="4:27" x14ac:dyDescent="0.25">
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -10415,19 +10415,19 @@
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-      <c r="S52" s="161" t="s">
+      <c r="S52" s="164" t="s">
         <v>254</v>
       </c>
-      <c r="T52" s="162"/>
-      <c r="U52" s="163"/>
-      <c r="V52" s="60" t="s">
+      <c r="T52" s="165"/>
+      <c r="U52" s="166"/>
+      <c r="V52" s="64" t="s">
         <v>244</v>
       </c>
-      <c r="W52" s="60"/>
+      <c r="W52" s="64"/>
       <c r="X52" s="38"/>
       <c r="Y52" s="41"/>
     </row>
-    <row r="53" spans="4:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -10436,145 +10436,145 @@
       <c r="N53" s="1"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-      <c r="S53" s="161" t="s">
+      <c r="S53" s="164" t="s">
         <v>281</v>
       </c>
-      <c r="T53" s="162"/>
-      <c r="U53" s="163"/>
-      <c r="V53" s="60" t="s">
+      <c r="T53" s="165"/>
+      <c r="U53" s="166"/>
+      <c r="V53" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="W53" s="60"/>
+      <c r="W53" s="64"/>
       <c r="X53" s="38">
         <v>50</v>
       </c>
       <c r="Y53" s="7"/>
     </row>
-    <row r="54" spans="4:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I54" s="1"/>
-      <c r="J54" s="169" t="s">
+      <c r="J54" s="194" t="s">
         <v>52</v>
       </c>
-      <c r="K54" s="170"/>
-      <c r="L54" s="170"/>
-      <c r="M54" s="170"/>
-      <c r="N54" s="171"/>
-      <c r="O54" s="178"/>
+      <c r="K54" s="195"/>
+      <c r="L54" s="195"/>
+      <c r="M54" s="195"/>
+      <c r="N54" s="196"/>
+      <c r="O54" s="55"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="4:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I55" s="1"/>
-      <c r="J55" s="213" t="s">
+      <c r="J55" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="K55" s="167" t="s">
+      <c r="K55" s="199" t="s">
         <v>272</v>
       </c>
-      <c r="L55" s="167"/>
-      <c r="M55" s="167"/>
-      <c r="N55" s="168"/>
+      <c r="L55" s="199"/>
+      <c r="M55" s="199"/>
+      <c r="N55" s="200"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:27" x14ac:dyDescent="0.25">
       <c r="I56" s="1"/>
       <c r="J56" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="K56" s="155" t="s">
+      <c r="K56" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="L56" s="155"/>
-      <c r="M56" s="155"/>
-      <c r="N56" s="155"/>
+      <c r="L56" s="201"/>
+      <c r="M56" s="201"/>
+      <c r="N56" s="201"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:27" x14ac:dyDescent="0.25">
       <c r="I57" s="1"/>
       <c r="J57" s="38">
         <v>2</v>
       </c>
-      <c r="K57" s="100" t="s">
+      <c r="K57" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="L57" s="100"/>
-      <c r="M57" s="100"/>
-      <c r="N57" s="100"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:27" x14ac:dyDescent="0.25">
       <c r="I58" s="1"/>
       <c r="J58" s="38">
         <v>3</v>
       </c>
-      <c r="K58" s="100" t="s">
+      <c r="K58" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="100"/>
-      <c r="M58" s="100"/>
-      <c r="N58" s="100"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:27" x14ac:dyDescent="0.25">
       <c r="I59" s="1"/>
       <c r="J59" s="38">
         <v>4</v>
       </c>
-      <c r="K59" s="100" t="s">
+      <c r="K59" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="L59" s="100"/>
-      <c r="M59" s="100"/>
-      <c r="N59" s="100"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="4:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I60" s="1"/>
       <c r="J60" s="38">
         <v>5</v>
       </c>
-      <c r="K60" s="100" t="s">
+      <c r="K60" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="L60" s="100"/>
-      <c r="M60" s="100"/>
-      <c r="N60" s="100"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:27" x14ac:dyDescent="0.25">
       <c r="I61" s="1"/>
       <c r="J61" s="38">
         <v>6</v>
       </c>
-      <c r="K61" s="100" t="s">
+      <c r="K61" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="L61" s="100"/>
-      <c r="M61" s="100"/>
-      <c r="N61" s="100"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="76"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:27" x14ac:dyDescent="0.25">
       <c r="I62" s="1"/>
       <c r="J62" s="38">
         <v>7</v>
       </c>
-      <c r="K62" s="65" t="s">
+      <c r="K62" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="65"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -10584,19 +10584,19 @@
       <c r="J63" s="38">
         <v>8</v>
       </c>
-      <c r="K63" s="65" t="s">
+      <c r="K63" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="65"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="4:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -10606,17 +10606,17 @@
       <c r="J64" s="38">
         <v>9</v>
       </c>
-      <c r="K64" s="65" t="s">
+      <c r="K64" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="65"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -10627,12 +10627,12 @@
       <c r="J65" s="38">
         <v>10</v>
       </c>
-      <c r="K65" s="65" t="s">
+      <c r="K65" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="65"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="T65" s="1"/>
@@ -10641,7 +10641,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -10652,12 +10652,12 @@
       <c r="J66" s="38">
         <v>11</v>
       </c>
-      <c r="K66" s="65" t="s">
+      <c r="K66" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="L66" s="65"/>
-      <c r="M66" s="65"/>
-      <c r="N66" s="65"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="T66" s="1"/>
@@ -10665,7 +10665,7 @@
       <c r="W66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -10680,7 +10680,7 @@
       <c r="U67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -10694,25 +10694,25 @@
       <c r="U68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="145" t="s">
+      <c r="J69" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="K69" s="146"/>
-      <c r="L69" s="146"/>
-      <c r="M69" s="146"/>
-      <c r="N69" s="147"/>
-      <c r="O69" s="178"/>
+      <c r="K69" s="213"/>
+      <c r="L69" s="213"/>
+      <c r="M69" s="213"/>
+      <c r="N69" s="214"/>
+      <c r="O69" s="55"/>
       <c r="P69" s="2"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -10720,19 +10720,19 @@
       <c r="J70" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="K70" s="167" t="s">
+      <c r="K70" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="L70" s="167"/>
-      <c r="M70" s="167"/>
-      <c r="N70" s="168"/>
+      <c r="L70" s="199"/>
+      <c r="M70" s="199"/>
+      <c r="N70" s="200"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -10740,269 +10740,424 @@
       <c r="J71" s="40">
         <v>1</v>
       </c>
-      <c r="K71" s="155" t="s">
+      <c r="K71" s="201" t="s">
         <v>42</v>
       </c>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
-      <c r="N71" s="155"/>
+      <c r="L71" s="201"/>
+      <c r="M71" s="201"/>
+      <c r="N71" s="201"/>
       <c r="P71" s="2"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="J72" s="38">
         <v>2</v>
       </c>
-      <c r="K72" s="100" t="s">
+      <c r="K72" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="L72" s="100"/>
-      <c r="M72" s="100"/>
-      <c r="N72" s="100"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="76"/>
+      <c r="N72" s="76"/>
       <c r="P72" s="2"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="J73" s="38">
         <v>3</v>
       </c>
-      <c r="K73" s="100" t="s">
+      <c r="K73" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="L73" s="100"/>
-      <c r="M73" s="100"/>
-      <c r="N73" s="100"/>
+      <c r="L73" s="76"/>
+      <c r="M73" s="76"/>
+      <c r="N73" s="76"/>
       <c r="P73" s="2"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="J74" s="40">
         <v>4</v>
       </c>
-      <c r="K74" s="100" t="s">
+      <c r="K74" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="L74" s="100"/>
-      <c r="M74" s="100"/>
-      <c r="N74" s="100"/>
+      <c r="L74" s="76"/>
+      <c r="M74" s="76"/>
+      <c r="N74" s="76"/>
       <c r="P74" s="2"/>
       <c r="X74" s="14"/>
     </row>
-    <row r="75" spans="3:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:27" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="J75" s="38">
         <v>5</v>
       </c>
-      <c r="K75" s="100" t="s">
+      <c r="K75" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="L75" s="100"/>
-      <c r="M75" s="100"/>
-      <c r="N75" s="100"/>
+      <c r="L75" s="76"/>
+      <c r="M75" s="76"/>
+      <c r="N75" s="76"/>
       <c r="P75" s="2"/>
       <c r="X75" s="14"/>
     </row>
-    <row r="76" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="J76" s="38">
         <v>6</v>
       </c>
-      <c r="K76" s="100" t="s">
+      <c r="K76" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="L76" s="100"/>
-      <c r="M76" s="100"/>
-      <c r="N76" s="100"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="76"/>
+      <c r="N76" s="76"/>
       <c r="X76" s="14"/>
     </row>
-    <row r="77" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="J77" s="40">
         <v>7</v>
       </c>
-      <c r="K77" s="100" t="s">
+      <c r="K77" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="L77" s="100"/>
-      <c r="M77" s="100"/>
-      <c r="N77" s="100"/>
+      <c r="L77" s="76"/>
+      <c r="M77" s="76"/>
+      <c r="N77" s="76"/>
       <c r="X77" s="14"/>
     </row>
-    <row r="78" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F78" s="2"/>
       <c r="J78" s="38">
         <v>8</v>
       </c>
-      <c r="K78" s="100" t="s">
+      <c r="K78" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="L78" s="100"/>
-      <c r="M78" s="100"/>
-      <c r="N78" s="100"/>
+      <c r="L78" s="76"/>
+      <c r="M78" s="76"/>
+      <c r="N78" s="76"/>
       <c r="X78" s="14"/>
     </row>
-    <row r="79" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F79" s="2"/>
       <c r="J79" s="38">
         <v>9</v>
       </c>
-      <c r="K79" s="100" t="s">
+      <c r="K79" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="L79" s="100"/>
-      <c r="M79" s="100"/>
-      <c r="N79" s="100"/>
+      <c r="L79" s="76"/>
+      <c r="M79" s="76"/>
+      <c r="N79" s="76"/>
       <c r="X79" s="14"/>
     </row>
-    <row r="80" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:27" x14ac:dyDescent="0.25">
       <c r="F80" s="2"/>
       <c r="X80" s="14"/>
     </row>
-    <row r="81" spans="6:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F81" s="2"/>
       <c r="X81" s="14"/>
     </row>
-    <row r="82" spans="6:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F82" s="2"/>
-      <c r="J82" s="181" t="s">
+      <c r="J82" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="K82" s="182"/>
-      <c r="L82" s="182"/>
-      <c r="M82" s="182"/>
-      <c r="N82" s="183"/>
-      <c r="O82" s="178"/>
+      <c r="K82" s="174"/>
+      <c r="L82" s="174"/>
+      <c r="M82" s="174"/>
+      <c r="N82" s="175"/>
+      <c r="O82" s="55"/>
       <c r="X82" s="14"/>
     </row>
-    <row r="83" spans="6:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F83" s="2"/>
-      <c r="J83" s="202" t="s">
+      <c r="J83" s="169" t="s">
         <v>283</v>
       </c>
-      <c r="K83" s="203"/>
-      <c r="L83" s="214" t="s">
+      <c r="K83" s="170"/>
+      <c r="L83" s="167" t="s">
         <v>282</v>
       </c>
-      <c r="M83" s="214"/>
-      <c r="N83" s="215"/>
+      <c r="M83" s="167"/>
+      <c r="N83" s="168"/>
       <c r="X83" s="14"/>
     </row>
-    <row r="84" spans="6:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F84" s="2"/>
-      <c r="J84" s="179">
+      <c r="J84" s="171">
         <v>1</v>
       </c>
-      <c r="K84" s="180"/>
-      <c r="L84" s="155" t="s">
+      <c r="K84" s="172"/>
+      <c r="L84" s="201" t="s">
         <v>204</v>
       </c>
-      <c r="M84" s="155"/>
-      <c r="N84" s="155"/>
-    </row>
-    <row r="85" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="M84" s="201"/>
+      <c r="N84" s="201"/>
+    </row>
+    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="J85" s="136">
+      <c r="J85" s="197">
         <v>2</v>
       </c>
-      <c r="K85" s="137"/>
-      <c r="L85" s="100" t="s">
+      <c r="K85" s="198"/>
+      <c r="L85" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="M85" s="100"/>
-      <c r="N85" s="100"/>
-    </row>
-    <row r="86" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="M85" s="76"/>
+      <c r="N85" s="76"/>
+    </row>
+    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F86" s="2"/>
-      <c r="J86" s="136">
+      <c r="J86" s="197">
         <v>3</v>
       </c>
-      <c r="K86" s="137"/>
-      <c r="L86" s="100" t="s">
+      <c r="K86" s="198"/>
+      <c r="L86" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="M86" s="100"/>
-      <c r="N86" s="100"/>
-    </row>
-    <row r="87" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="M86" s="76"/>
+      <c r="N86" s="76"/>
+    </row>
+    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F87" s="2"/>
-      <c r="J87" s="136">
+      <c r="J87" s="197">
         <v>4</v>
       </c>
-      <c r="K87" s="137"/>
-      <c r="L87" s="100" t="s">
+      <c r="K87" s="198"/>
+      <c r="L87" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="M87" s="100"/>
-      <c r="N87" s="100"/>
-    </row>
-    <row r="88" spans="6:24" x14ac:dyDescent="0.3">
+      <c r="M87" s="76"/>
+      <c r="N87" s="76"/>
+    </row>
+    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F88" s="2"/>
-      <c r="J88" s="136">
+      <c r="J88" s="197">
         <v>5</v>
       </c>
-      <c r="K88" s="137"/>
-      <c r="L88" s="100" t="s">
+      <c r="K88" s="198"/>
+      <c r="L88" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="M88" s="100"/>
-      <c r="N88" s="100"/>
-    </row>
-    <row r="89" spans="6:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J89" s="134">
+      <c r="M88" s="76"/>
+      <c r="N88" s="76"/>
+    </row>
+    <row r="89" spans="6:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="210">
         <v>6</v>
       </c>
-      <c r="K89" s="135"/>
-      <c r="L89" s="100" t="s">
+      <c r="K89" s="211"/>
+      <c r="L89" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="M89" s="100"/>
-      <c r="N89" s="100"/>
-    </row>
-    <row r="101" spans="23:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="23:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W103" s="131"/>
-      <c r="X103" s="131"/>
-      <c r="Y103" s="131"/>
-    </row>
-    <row r="104" spans="23:25" x14ac:dyDescent="0.3">
-      <c r="W104" s="131"/>
-      <c r="X104" s="131"/>
-      <c r="Y104" s="131"/>
-    </row>
-    <row r="119" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="M89" s="76"/>
+      <c r="N89" s="76"/>
+    </row>
+    <row r="101" spans="23:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="23:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W103" s="215"/>
+      <c r="X103" s="215"/>
+      <c r="Y103" s="215"/>
+    </row>
+    <row r="104" spans="23:25" x14ac:dyDescent="0.25">
+      <c r="W104" s="215"/>
+      <c r="X104" s="215"/>
+      <c r="Y104" s="215"/>
+    </row>
+    <row r="119" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="213">
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B36:D38"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="L87:N87"/>
+    <mergeCell ref="W103:Y103"/>
+    <mergeCell ref="W104:Y104"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="L84:N84"/>
+    <mergeCell ref="L85:N85"/>
+    <mergeCell ref="L86:N86"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="S39:X39"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V28:W28"/>
     <mergeCell ref="S53:U53"/>
     <mergeCell ref="V53:W53"/>
     <mergeCell ref="S48:U48"/>
@@ -11027,6 +11182,16 @@
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="M30:N30"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B36:D38"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:W52"/>
     <mergeCell ref="J33:O33"/>
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="M34:N34"/>
@@ -11041,171 +11206,6 @@
     <mergeCell ref="V35:W35"/>
     <mergeCell ref="S36:U36"/>
     <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="S39:X39"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="L84:N84"/>
-    <mergeCell ref="L85:N85"/>
-    <mergeCell ref="L86:N86"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="L87:N87"/>
-    <mergeCell ref="W103:Y103"/>
-    <mergeCell ref="W104:Y104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
